--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>relu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deepgo flat </t>
+  </si>
+  <si>
+    <t>BertAveLay12Govec</t>
   </si>
 </sst>
 </file>
@@ -506,14 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T20"/>
+  <dimension ref="A4:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
@@ -631,603 +638,679 @@
         <v>0.51829999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="27">
-        <v>0.38469999999999999</v>
-      </c>
-      <c r="K7" s="27">
-        <v>0.77070000000000005</v>
-      </c>
-      <c r="L7" s="27">
-        <v>0.88870000000000005</v>
-      </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="27">
-        <v>0.60209999999999997</v>
-      </c>
-      <c r="Q7" s="27">
-        <v>0.75190000000000001</v>
-      </c>
-      <c r="R7" s="27">
-        <v>0.94389999999999996</v>
-      </c>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="3">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="3">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.92869999999999997</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="26"/>
-      <c r="D8" s="27">
-        <v>0.37890000000000001</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0.71919999999999995</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0.8518</v>
-      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
       <c r="I8" s="28"/>
       <c r="J8" s="27">
-        <v>0.38790000000000002</v>
+        <v>0.38469999999999999</v>
       </c>
       <c r="K8" s="27">
-        <v>0.77239999999999998</v>
+        <v>0.77070000000000005</v>
       </c>
       <c r="L8" s="27">
-        <v>0.88349999999999995</v>
+        <v>0.88870000000000005</v>
       </c>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
       <c r="O8" s="28"/>
       <c r="P8" s="27">
-        <v>0.59709999999999996</v>
+        <v>0.60209999999999997</v>
       </c>
       <c r="Q8" s="27">
-        <v>0.74370000000000003</v>
+        <v>0.75190000000000001</v>
       </c>
       <c r="R8" s="27">
-        <v>0.93920000000000003</v>
+        <v>0.94389999999999996</v>
       </c>
       <c r="S8" s="27"/>
       <c r="T8" s="27"/>
     </row>
     <row r="9" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="27">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.71919999999999995</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0.8518</v>
+      </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="28"/>
       <c r="J9" s="27">
-        <v>0.40579999999999999</v>
+        <v>0.38790000000000002</v>
       </c>
       <c r="K9" s="27">
-        <v>0.79730000000000001</v>
+        <v>0.77239999999999998</v>
       </c>
       <c r="L9" s="27">
-        <v>0.89429999999999998</v>
+        <v>0.88349999999999995</v>
       </c>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
       <c r="O9" s="28"/>
       <c r="P9" s="27">
-        <v>0.60599999999999998</v>
+        <v>0.59709999999999996</v>
       </c>
       <c r="Q9" s="27">
-        <v>0.75949999999999995</v>
+        <v>0.74370000000000003</v>
       </c>
       <c r="R9" s="27">
-        <v>0.94520000000000004</v>
+        <v>0.93920000000000003</v>
       </c>
       <c r="S9" s="27"/>
       <c r="T9" s="27"/>
     </row>
-    <row r="10" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
+    <row r="10" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="27">
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="K10" s="27">
+        <v>0.79730000000000001</v>
+      </c>
+      <c r="L10" s="27">
+        <v>0.89429999999999998</v>
+      </c>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="27">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="Q10" s="27">
+        <v>0.75949999999999995</v>
+      </c>
+      <c r="R10" s="27">
+        <v>0.94520000000000004</v>
+      </c>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+    </row>
+    <row r="11" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="27">
+        <v>0.40679999999999999</v>
+      </c>
+      <c r="K11" s="27">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="L11" s="27">
+        <v>0.8871</v>
+      </c>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D13" s="6">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E13" s="6">
         <v>0.81869999999999998</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F13" s="6">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6">
         <v>0.37009999999999998</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6">
+      <c r="I13" s="7"/>
+      <c r="J13" s="6">
         <v>0.4677</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K13" s="6">
         <v>0.83730000000000004</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L13" s="6">
         <v>0.90600000000000003</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6">
         <v>0.3614</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="6">
+      <c r="O13" s="7"/>
+      <c r="P13" s="6">
         <v>0.627</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q13" s="6">
         <v>0.878</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R13" s="6">
         <v>0.9647</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3">
+      <c r="S13" s="3"/>
+      <c r="T13" s="3">
         <v>0.62470000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C12" s="8" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D14" s="9">
         <v>42.51</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E14" s="9">
         <v>82.97</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F14" s="9">
         <v>90.27</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11">
+      <c r="G14" s="10"/>
+      <c r="H14" s="11">
         <v>0.37769999999999998</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
         <v>48.62</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K14" s="9">
         <v>87.25</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L14" s="9">
         <v>93.14</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="11">
+      <c r="M14" s="9"/>
+      <c r="N14" s="11">
         <v>0.40760000000000002</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9">
+      <c r="O14" s="9"/>
+      <c r="P14" s="9">
         <v>63.77</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="Q14" s="9">
         <v>89.79</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R14" s="9">
         <v>97.1</v>
       </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="11">
+      <c r="S14" s="8"/>
+      <c r="T14" s="11">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D15" s="13">
         <v>0.4365</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E15" s="13">
         <v>0.83460000000000001</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F15" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14">
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
         <v>0.39729999999999999</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="13">
+      <c r="I15" s="15"/>
+      <c r="J15" s="13">
         <v>0.49740000000000001</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K15" s="13">
         <v>0.87780000000000002</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L15" s="13">
         <v>0.93500000000000005</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13">
+      <c r="M15" s="13"/>
+      <c r="N15" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="13">
+      <c r="O15" s="15"/>
+      <c r="P15" s="13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q15" s="13">
         <v>0.90390000000000004</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R15" s="13">
         <v>0.97199999999999998</v>
       </c>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13">
+      <c r="S15" s="13"/>
+      <c r="T15" s="13">
         <v>0.65949999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D16" s="6">
         <v>0.43480000000000002</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E16" s="16">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F16" s="6">
         <v>0.9073</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
         <v>0.39419999999999999</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6">
         <v>0.502</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K16" s="6">
         <v>0.88019999999999998</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L16" s="16">
         <v>0.93840000000000001</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="16">
+      <c r="M16" s="6"/>
+      <c r="N16" s="16">
         <v>0.43809999999999999</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6">
+      <c r="O16" s="6"/>
+      <c r="P16" s="6">
         <v>0.65469999999999995</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q16" s="6">
         <v>0.90480000000000005</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R16" s="6">
         <v>0.97250000000000003</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6">
+      <c r="S16" s="6"/>
+      <c r="T16" s="6">
         <v>0.66139999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.43149999999999999</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.83409999999999995</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.90590000000000004</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
-        <v>0.49930000000000002</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.87290000000000001</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0.93389999999999995</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3">
-        <v>0.42930000000000001</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="3">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0.97260000000000002</v>
-      </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3">
-        <v>0.65810000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
-        <v>43.45</v>
-      </c>
-      <c r="E16" s="1">
-        <v>83.11</v>
-      </c>
-      <c r="F16" s="1">
-        <v>90.55</v>
-      </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="3">
-        <v>0.3896</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1">
-        <v>49.24</v>
-      </c>
-      <c r="K16" s="1">
-        <v>87.43</v>
-      </c>
-      <c r="L16" s="1">
-        <v>93.52</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="3">
-        <v>0.42209999999999998</v>
-      </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="4">
-        <v>65.39</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>90.27</v>
-      </c>
-      <c r="R16" s="4">
-        <v>97.27</v>
-      </c>
-      <c r="S16" s="1"/>
-      <c r="T16" s="3">
-        <v>0.65659999999999996</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0.42909999999999998</v>
+        <v>0.43149999999999999</v>
       </c>
       <c r="E17" s="3">
-        <v>0.83479999999999999</v>
+        <v>0.83409999999999995</v>
       </c>
       <c r="F17" s="3">
-        <v>0.90569999999999995</v>
+        <v>0.90590000000000004</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <v>0.38979999999999998</v>
+        <v>0.39169999999999999</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3">
-        <v>0.49349999999999999</v>
-      </c>
-      <c r="K17" s="17">
-        <v>0.87919999999999998</v>
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.87290000000000001</v>
       </c>
       <c r="L17" s="3">
-        <v>0.93830000000000002</v>
+        <v>0.93389999999999995</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3">
-        <v>0.43259999999999998</v>
-      </c>
-      <c r="O17" s="3"/>
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="O17" s="4"/>
       <c r="P17" s="3">
-        <v>0.6482</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0.90500000000000003</v>
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>0.90569999999999995</v>
       </c>
       <c r="R17" s="3">
-        <v>0.97209999999999996</v>
+        <v>0.97260000000000002</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3">
-        <v>0.65500000000000003</v>
+        <v>0.65810000000000002</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0.43919999999999998</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0.83489999999999998</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0.90769999999999995</v>
-      </c>
-      <c r="G18" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43.45</v>
+      </c>
+      <c r="E18" s="1">
+        <v>83.11</v>
+      </c>
+      <c r="F18" s="1">
+        <v>90.55</v>
+      </c>
+      <c r="G18" s="18"/>
       <c r="H18" s="3">
-        <v>0.39300000000000002</v>
+        <v>0.3896</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="17">
-        <v>0.503</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.87680000000000002</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0.93659999999999999</v>
-      </c>
-      <c r="M18" s="3"/>
+      <c r="J18" s="1">
+        <v>49.24</v>
+      </c>
+      <c r="K18" s="1">
+        <v>87.43</v>
+      </c>
+      <c r="L18" s="1">
+        <v>93.52</v>
+      </c>
+      <c r="M18" s="1"/>
       <c r="N18" s="3">
-        <v>0.43430000000000002</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="P18" s="17">
-        <v>0.6583</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0.90510000000000002</v>
-      </c>
-      <c r="R18" s="17">
-        <v>0.97299999999999998</v>
+      <c r="P18" s="4">
+        <v>65.39</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>90.27</v>
+      </c>
+      <c r="R18" s="4">
+        <v>97.27</v>
       </c>
       <c r="S18" s="1"/>
-      <c r="T18" s="17">
-        <v>0.66559999999999997</v>
+      <c r="T18" s="3">
+        <v>0.65659999999999996</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4">
-        <v>42.83</v>
-      </c>
-      <c r="E19" s="4">
-        <v>83.36</v>
-      </c>
-      <c r="F19" s="4">
-        <v>90.7</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <v>39.229999999999997</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4">
-        <v>49.84</v>
-      </c>
-      <c r="K19" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="L19" s="4">
-        <v>93.41</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4">
-        <v>42.63</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4">
-        <v>65.8</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>90.5</v>
-      </c>
-      <c r="R19" s="4">
-        <v>97.3</v>
-      </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4">
-        <v>66.290000000000006</v>
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3">
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3">
+        <v>0.6482</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3">
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="17">
+        <v>0.503</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3">
+        <v>0.43430000000000002</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="17">
+        <v>0.6583</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="R20" s="17">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="17">
+        <v>0.66559999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="4">
+        <v>42.83</v>
+      </c>
+      <c r="E21" s="4">
+        <v>83.36</v>
+      </c>
+      <c r="F21" s="4">
+        <v>90.7</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4">
+        <v>49.84</v>
+      </c>
+      <c r="K21" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="L21" s="4">
+        <v>93.41</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
+        <v>42.63</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4">
+        <v>65.8</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="R21" s="4">
+        <v>97.3</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4">
+        <v>66.290000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D22" s="20">
         <v>0.4335</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E22" s="20">
         <v>0.83350000000000002</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F22" s="20">
         <v>0.90259999999999996</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="20">
+      <c r="G22" s="21"/>
+      <c r="H22" s="20">
         <v>0.38850000000000001</v>
       </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="20">
+      <c r="I22" s="22"/>
+      <c r="J22" s="20">
         <v>0.49130000000000001</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K22" s="20">
         <v>0.87970000000000004</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L22" s="20">
         <v>0.93069999999999997</v>
       </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20">
+      <c r="M22" s="20"/>
+      <c r="N22" s="20">
         <v>0.41320000000000001</v>
       </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="20">
+      <c r="O22" s="22"/>
+      <c r="P22" s="20">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Q20" s="20">
+      <c r="Q22" s="20">
         <v>0.90269999999999995</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R22" s="20">
         <v>0.97240000000000004</v>
       </c>
-      <c r="S20" s="23"/>
-      <c r="T20" s="24">
+      <c r="S22" s="23"/>
+      <c r="T22" s="24">
         <v>0.66069999999999995</v>
       </c>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -96,12 +96,15 @@
   </si>
   <si>
     <t>BertAveLay12Govec</t>
+  </si>
+  <si>
+    <t>separate GO vec Pretrain768H4L10I1024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T22"/>
+  <dimension ref="A4:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +838,12 @@
       <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -842,9 +851,15 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="J12" s="6">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0.88839999999999997</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
@@ -854,463 +869,483 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>0.81869999999999998</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F14" s="6">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6">
         <v>0.37009999999999998</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6">
+      <c r="I14" s="7"/>
+      <c r="J14" s="6">
         <v>0.4677</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K14" s="6">
         <v>0.83730000000000004</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L14" s="6">
         <v>0.90600000000000003</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
         <v>0.3614</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="6">
+      <c r="O14" s="7"/>
+      <c r="P14" s="6">
         <v>0.627</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q14" s="6">
         <v>0.878</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R14" s="6">
         <v>0.9647</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3">
         <v>0.62470000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="8" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D15" s="9">
         <v>42.51</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E15" s="9">
         <v>82.97</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>90.27</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11">
+      <c r="G15" s="10"/>
+      <c r="H15" s="11">
         <v>0.37769999999999998</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9">
         <v>48.62</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K15" s="9">
         <v>87.25</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L15" s="9">
         <v>93.14</v>
       </c>
-      <c r="M14" s="9"/>
-      <c r="N14" s="11">
+      <c r="M15" s="9"/>
+      <c r="N15" s="11">
         <v>0.40760000000000002</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9">
+      <c r="O15" s="9"/>
+      <c r="P15" s="9">
         <v>63.77</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="Q15" s="9">
         <v>89.79</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R15" s="9">
         <v>97.1</v>
       </c>
-      <c r="S14" s="8"/>
-      <c r="T14" s="11">
+      <c r="S15" s="8"/>
+      <c r="T15" s="11">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="12" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <v>0.4365</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <v>0.83460000000000001</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14">
+      <c r="G16" s="13"/>
+      <c r="H16" s="14">
         <v>0.39729999999999999</v>
       </c>
-      <c r="I15" s="15"/>
-      <c r="J15" s="13">
+      <c r="I16" s="15"/>
+      <c r="J16" s="13">
         <v>0.49740000000000001</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="13">
         <v>0.87780000000000002</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L16" s="13">
         <v>0.93500000000000005</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13">
+      <c r="M16" s="13"/>
+      <c r="N16" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O15" s="15"/>
-      <c r="P15" s="13">
+      <c r="O16" s="15"/>
+      <c r="P16" s="13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q16" s="13">
         <v>0.90390000000000004</v>
       </c>
-      <c r="R15" s="13">
+      <c r="R16" s="13">
         <v>0.97199999999999998</v>
       </c>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13">
+      <c r="S16" s="13"/>
+      <c r="T16" s="13">
         <v>0.65949999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D17" s="6">
         <v>0.43480000000000002</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E17" s="16">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F17" s="6">
         <v>0.9073</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6">
         <v>0.39419999999999999</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6">
         <v>0.502</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K17" s="6">
         <v>0.88019999999999998</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L17" s="16">
         <v>0.93840000000000001</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="16">
+      <c r="M17" s="6"/>
+      <c r="N17" s="16">
         <v>0.43809999999999999</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6">
+      <c r="O17" s="6"/>
+      <c r="P17" s="6">
         <v>0.65469999999999995</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q17" s="6">
         <v>0.90480000000000005</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R17" s="6">
         <v>0.97250000000000003</v>
       </c>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6">
+      <c r="S17" s="6"/>
+      <c r="T17" s="6">
         <v>0.66139999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.43149999999999999</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.83409999999999995</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.90590000000000004</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3">
-        <v>0.49930000000000002</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.87290000000000001</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0.93389999999999995</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3">
-        <v>0.42930000000000001</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="3">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0.97260000000000002</v>
-      </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3">
-        <v>0.65810000000000002</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
-        <v>43.45</v>
-      </c>
-      <c r="E18" s="1">
-        <v>83.11</v>
-      </c>
-      <c r="F18" s="1">
-        <v>90.55</v>
-      </c>
-      <c r="G18" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.83409999999999995</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>0.3896</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1">
-        <v>49.24</v>
-      </c>
-      <c r="K18" s="1">
-        <v>87.43</v>
-      </c>
-      <c r="L18" s="1">
-        <v>93.52</v>
-      </c>
-      <c r="M18" s="1"/>
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="M18" s="3"/>
       <c r="N18" s="3">
-        <v>0.42209999999999998</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="4">
-        <v>65.39</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>90.27</v>
-      </c>
-      <c r="R18" s="4">
-        <v>97.27</v>
-      </c>
-      <c r="S18" s="1"/>
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="3">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3">
-        <v>0.65659999999999996</v>
+        <v>0.65810000000000002</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.42909999999999998</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.83479999999999999</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="G19" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43.45</v>
+      </c>
+      <c r="E19" s="1">
+        <v>83.11</v>
+      </c>
+      <c r="F19" s="1">
+        <v>90.55</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="3">
-        <v>0.38979999999999998</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3">
-        <v>0.49349999999999999</v>
-      </c>
-      <c r="K19" s="17">
-        <v>0.87919999999999998</v>
-      </c>
-      <c r="L19" s="3">
-        <v>0.93830000000000002</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>0.3896</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <v>49.24</v>
+      </c>
+      <c r="K19" s="1">
+        <v>87.43</v>
+      </c>
+      <c r="L19" s="1">
+        <v>93.52</v>
+      </c>
+      <c r="M19" s="1"/>
       <c r="N19" s="3">
-        <v>0.43259999999999998</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3">
-        <v>0.6482</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0.97209999999999996</v>
-      </c>
-      <c r="S19" s="3"/>
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="4">
+        <v>65.39</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>90.27</v>
+      </c>
+      <c r="R19" s="4">
+        <v>97.27</v>
+      </c>
+      <c r="S19" s="1"/>
       <c r="T19" s="3">
-        <v>0.65500000000000003</v>
+        <v>0.65659999999999996</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0.43919999999999998</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0.83489999999999998</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0.90769999999999995</v>
-      </c>
-      <c r="G20" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="17">
-        <v>0.503</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.87680000000000002</v>
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0.87919999999999998</v>
       </c>
       <c r="L20" s="3">
-        <v>0.93659999999999999</v>
+        <v>0.93830000000000002</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3">
-        <v>0.43430000000000002</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="17">
-        <v>0.6583</v>
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3">
+        <v>0.6482</v>
       </c>
       <c r="Q20" s="3">
-        <v>0.90510000000000002</v>
-      </c>
-      <c r="R20" s="17">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="S20" s="1"/>
-      <c r="T20" s="17">
-        <v>0.66559999999999997</v>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3">
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="4">
-        <v>42.83</v>
-      </c>
-      <c r="E21" s="4">
-        <v>83.36</v>
-      </c>
-      <c r="F21" s="4">
-        <v>90.7</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
-        <v>39.229999999999997</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4">
-        <v>49.84</v>
-      </c>
-      <c r="K21" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="L21" s="4">
-        <v>93.41</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4">
-        <v>42.63</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4">
-        <v>65.8</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>90.5</v>
-      </c>
-      <c r="R21" s="4">
-        <v>97.3</v>
-      </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4">
-        <v>66.290000000000006</v>
+        <v>15</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="F21" s="17">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="17">
+        <v>0.503</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3">
+        <v>0.43430000000000002</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21" s="17">
+        <v>0.6583</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="R21" s="17">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="17">
+        <v>0.66559999999999997</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="4">
+        <v>42.83</v>
+      </c>
+      <c r="E22" s="4">
+        <v>83.36</v>
+      </c>
+      <c r="F22" s="4">
+        <v>90.7</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4">
+        <v>49.84</v>
+      </c>
+      <c r="K22" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>93.41</v>
+      </c>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
+        <v>42.63</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4">
+        <v>65.8</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="R22" s="4">
+        <v>97.3</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4">
+        <v>66.290000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D23" s="20">
         <v>0.4335</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E23" s="20">
         <v>0.83350000000000002</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F23" s="20">
         <v>0.90259999999999996</v>
       </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="20">
+      <c r="G23" s="21"/>
+      <c r="H23" s="20">
         <v>0.38850000000000001</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="20">
+      <c r="I23" s="22"/>
+      <c r="J23" s="20">
         <v>0.49130000000000001</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K23" s="20">
         <v>0.87970000000000004</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L23" s="20">
         <v>0.93069999999999997</v>
       </c>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20">
+      <c r="M23" s="20"/>
+      <c r="N23" s="20">
         <v>0.41320000000000001</v>
       </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="20">
+      <c r="O23" s="22"/>
+      <c r="P23" s="20">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Q22" s="20">
+      <c r="Q23" s="20">
         <v>0.90269999999999995</v>
       </c>
-      <c r="R22" s="20">
+      <c r="R23" s="20">
         <v>0.97240000000000004</v>
       </c>
-      <c r="S22" s="23"/>
-      <c r="T22" s="24">
+      <c r="S23" s="23"/>
+      <c r="T23" s="24">
         <v>0.66069999999999995</v>
       </c>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>separate GO vec Pretrain768H4L10I1024</t>
+  </si>
+  <si>
+    <t>drop 0.2 looks better ??</t>
   </si>
 </sst>
 </file>
@@ -515,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T23"/>
+  <dimension ref="A4:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,6 +1352,11 @@
         <v>0.66069999999999995</v>
       </c>
     </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -521,7 +521,7 @@
   <dimension ref="A4:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -86,9 +86,6 @@
     <t>separate GO vec</t>
   </si>
   <si>
-    <t>joint 2 sentence</t>
-  </si>
-  <si>
     <t>relu</t>
   </si>
   <si>
@@ -102,6 +99,33 @@
   </si>
   <si>
     <t>drop 0.2 looks better ??</t>
+  </si>
+  <si>
+    <t>as-is</t>
+  </si>
+  <si>
+    <t>as-is add ppi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as-is </t>
+  </si>
+  <si>
+    <t>E768I768H6L8Drop0.2 gelu</t>
+  </si>
+  <si>
+    <t>2embGeluE768H6L8I768PretrainLabelDrop0.2</t>
+  </si>
+  <si>
+    <t>2embPpiGeluE768H6L8I768PretrainLabelDrop0.2</t>
+  </si>
+  <si>
+    <t>2embGeluE768H6L8I768PretrainLabelDrop0.1</t>
+  </si>
+  <si>
+    <t>59.57% *not converge?</t>
+  </si>
+  <si>
+    <t>45.11% *not converge?</t>
   </si>
 </sst>
 </file>
@@ -111,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +194,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -205,7 +248,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -236,6 +279,9 @@
     <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -518,14 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T28"/>
+  <dimension ref="A4:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="J20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
@@ -598,186 +645,186 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="27">
         <v>0.34050000000000002</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="27">
         <v>0.62670000000000003</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="27">
         <v>0.81889999999999996</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
+      <c r="G6" s="27"/>
+      <c r="H6" s="27">
         <v>0.23710000000000001</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3">
+      <c r="I6" s="28"/>
+      <c r="J6" s="27">
         <v>0.38629999999999998</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="27">
         <v>0.72419999999999995</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="27">
         <v>0.86729999999999996</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3">
+      <c r="M6" s="27"/>
+      <c r="N6" s="27">
         <v>0.25840000000000002</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="3">
+      <c r="O6" s="28"/>
+      <c r="P6" s="27">
         <v>0.57199999999999995</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="27">
         <v>0.67010000000000003</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="27">
         <v>0.92390000000000005</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3">
+      <c r="S6" s="27"/>
+      <c r="T6" s="27">
         <v>0.51829999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="3">
+      <c r="C7" s="26"/>
+      <c r="D7" s="27">
         <v>0.34649999999999997</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="27">
         <v>0.64170000000000005</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="27">
         <v>0.83460000000000001</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3">
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="27">
         <v>0.39579999999999999</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="27">
         <v>0.76959999999999995</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="27">
         <v>0.89039999999999997</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="3">
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="27">
         <v>0.57369999999999999</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="27">
         <v>0.67589999999999995</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="27">
         <v>0.92869999999999997</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-    </row>
-    <row r="8" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+    </row>
+    <row r="8" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="27">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6">
         <v>0.38469999999999999</v>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="6">
         <v>0.77070000000000005</v>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="6">
         <v>0.88870000000000005</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="27">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="6">
         <v>0.60209999999999997</v>
       </c>
-      <c r="Q8" s="27">
+      <c r="Q8" s="6">
         <v>0.75190000000000001</v>
       </c>
-      <c r="R8" s="27">
+      <c r="R8" s="6">
         <v>0.94389999999999996</v>
       </c>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-    </row>
-    <row r="9" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="25" t="s">
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27">
+      <c r="C9" s="5"/>
+      <c r="D9" s="6">
         <v>0.37890000000000001</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="6">
         <v>0.71919999999999995</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="6">
         <v>0.8518</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="27">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6">
         <v>0.38790000000000002</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="6">
         <v>0.77239999999999998</v>
       </c>
-      <c r="L9" s="27">
+      <c r="L9" s="6">
         <v>0.88349999999999995</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="27">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="6">
         <v>0.59709999999999996</v>
       </c>
-      <c r="Q9" s="27">
+      <c r="Q9" s="6">
         <v>0.74370000000000003</v>
       </c>
-      <c r="R9" s="27">
+      <c r="R9" s="6">
         <v>0.93920000000000003</v>
       </c>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
     </row>
     <row r="10" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="26"/>
+      <c r="A10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="31"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
@@ -785,35 +832,32 @@
       <c r="H10" s="27"/>
       <c r="I10" s="28"/>
       <c r="J10" s="27">
-        <v>0.40579999999999999</v>
+        <v>0.38769999999999999</v>
       </c>
       <c r="K10" s="27">
-        <v>0.79730000000000001</v>
+        <v>0.7762</v>
       </c>
       <c r="L10" s="27">
-        <v>0.89429999999999998</v>
+        <v>0.88649999999999995</v>
       </c>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
       <c r="O10" s="28"/>
       <c r="P10" s="27">
-        <v>0.60599999999999998</v>
+        <v>0.60060000000000002</v>
       </c>
       <c r="Q10" s="27">
-        <v>0.75949999999999995</v>
+        <v>0.74680000000000002</v>
       </c>
       <c r="R10" s="27">
-        <v>0.94520000000000004</v>
+        <v>0.94369999999999998</v>
       </c>
       <c r="S10" s="27"/>
       <c r="T10" s="27"/>
     </row>
-    <row r="11" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>21</v>
+    <row r="11" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="27"/>
@@ -822,31 +866,31 @@
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="27">
-        <v>0.40679999999999999</v>
-      </c>
-      <c r="K11" s="27">
-        <v>0.79210000000000003</v>
-      </c>
-      <c r="L11" s="27">
-        <v>0.8871</v>
+      <c r="J11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="32">
+        <v>0.8458</v>
+      </c>
+      <c r="L11" s="32">
+        <v>0.91969999999999996</v>
       </c>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
       <c r="O11" s="28"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="P11" s="27">
+        <v>0.6512</v>
+      </c>
+      <c r="Q11" s="27">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="R11" s="27">
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
     </row>
     <row r="12" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -854,15 +898,9 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="6">
-        <v>0.41039999999999999</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0.79279999999999995</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0.88839999999999997</v>
-      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="7"/>
@@ -873,6 +911,12 @@
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>18</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -880,484 +924,745 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="J13" s="6">
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.79730000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.89429999999999998</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
+      <c r="P13" s="6">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0.75949999999999995</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0.94520000000000004</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0.89700000000000002</v>
-      </c>
+    <row r="14" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <v>0.37009999999999998</v>
-      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6">
+        <v>0.40679999999999999</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.79210000000000003</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.8871</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6">
+        <v>0.41039999999999999</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.88839999999999997</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="27">
+        <v>0.40410000000000001</v>
+      </c>
+      <c r="K17" s="27">
+        <v>0.79390000000000005</v>
+      </c>
+      <c r="L17" s="27">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="27">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="R17" s="27">
+        <v>0.93630000000000002</v>
+      </c>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+    </row>
+    <row r="18" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0.73640000000000005</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0.93930000000000002</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="27">
+        <v>0.5091</v>
+      </c>
+      <c r="K20" s="27">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="L20" s="27">
+        <v>0.93610000000000004</v>
+      </c>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+    </row>
+    <row r="21" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="6">
         <v>0.4677</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K23" s="6">
         <v>0.83730000000000004</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L23" s="6">
         <v>0.90600000000000003</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6">
+      <c r="M23" s="6"/>
+      <c r="N23" s="6">
         <v>0.3614</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="6">
+      <c r="O23" s="7"/>
+      <c r="P23" s="6">
         <v>0.627</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q23" s="6">
         <v>0.878</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R23" s="6">
         <v>0.9647</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3">
         <v>0.62470000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C15" s="8" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D24" s="9">
         <v>42.51</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E24" s="9">
         <v>82.97</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F24" s="9">
         <v>90.27</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11">
+      <c r="G24" s="10"/>
+      <c r="H24" s="11">
         <v>0.37769999999999998</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9">
         <v>48.62</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K24" s="9">
         <v>87.25</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L24" s="9">
         <v>93.14</v>
       </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="11">
+      <c r="M24" s="9"/>
+      <c r="N24" s="11">
         <v>0.40760000000000002</v>
       </c>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9">
+      <c r="O24" s="9"/>
+      <c r="P24" s="9">
         <v>63.77</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="Q24" s="9">
         <v>89.79</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R24" s="9">
         <v>97.1</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="11">
+      <c r="S24" s="8"/>
+      <c r="T24" s="11">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D25" s="13">
         <v>0.4365</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E25" s="13">
         <v>0.83460000000000001</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F25" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14">
+      <c r="G25" s="13"/>
+      <c r="H25" s="14">
         <v>0.39729999999999999</v>
       </c>
-      <c r="I16" s="15"/>
-      <c r="J16" s="13">
+      <c r="I25" s="15"/>
+      <c r="J25" s="13">
         <v>0.49740000000000001</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K25" s="13">
         <v>0.87780000000000002</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L25" s="13">
         <v>0.93500000000000005</v>
       </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13">
+      <c r="M25" s="13"/>
+      <c r="N25" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="13">
+      <c r="O25" s="15"/>
+      <c r="P25" s="13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q16" s="13">
+      <c r="Q25" s="13">
         <v>0.90390000000000004</v>
       </c>
-      <c r="R16" s="13">
+      <c r="R25" s="13">
         <v>0.97199999999999998</v>
       </c>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13">
+      <c r="S25" s="13"/>
+      <c r="T25" s="13">
         <v>0.65949999999999998</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D26" s="6">
         <v>0.43480000000000002</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E26" s="16">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F26" s="6">
         <v>0.9073</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6">
         <v>0.39419999999999999</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6">
         <v>0.502</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K26" s="6">
         <v>0.88019999999999998</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L26" s="16">
         <v>0.93840000000000001</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="16">
+      <c r="M26" s="6"/>
+      <c r="N26" s="16">
         <v>0.43809999999999999</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6">
+      <c r="O26" s="6"/>
+      <c r="P26" s="6">
         <v>0.65469999999999995</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q26" s="6">
         <v>0.90480000000000005</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R26" s="6">
         <v>0.97250000000000003</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6">
+      <c r="S26" s="6"/>
+      <c r="T26" s="6">
         <v>0.66139999999999999</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D27" s="3">
         <v>0.43149999999999999</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E27" s="3">
         <v>0.83409999999999995</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F27" s="3">
         <v>0.90590000000000004</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
         <v>0.39169999999999999</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3">
+      <c r="I27" s="3"/>
+      <c r="J27" s="3">
         <v>0.49930000000000002</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K27" s="3">
         <v>0.87290000000000001</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L27" s="3">
         <v>0.93389999999999995</v>
       </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3">
         <v>0.42930000000000001</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="3">
+      <c r="O27" s="4"/>
+      <c r="P27" s="3">
         <v>0.65239999999999998</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q27" s="17">
         <v>0.90569999999999995</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R27" s="3">
         <v>0.97260000000000002</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3">
+      <c r="S27" s="3"/>
+      <c r="T27" s="3">
         <v>0.65810000000000002</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D28" s="1">
         <v>43.45</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E28" s="1">
         <v>83.11</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F28" s="1">
         <v>90.55</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="3">
+      <c r="G28" s="18"/>
+      <c r="H28" s="3">
         <v>0.3896</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
         <v>49.24</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K28" s="1">
         <v>87.43</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L28" s="1">
         <v>93.52</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="3">
+      <c r="M28" s="1"/>
+      <c r="N28" s="3">
         <v>0.42209999999999998</v>
       </c>
-      <c r="O19" s="1"/>
-      <c r="P19" s="4">
+      <c r="O28" s="1"/>
+      <c r="P28" s="4">
         <v>65.39</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q28" s="1">
         <v>90.27</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R28" s="4">
         <v>97.27</v>
       </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="3">
+      <c r="S28" s="1"/>
+      <c r="T28" s="3">
         <v>0.65659999999999996</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D29" s="3">
         <v>0.42909999999999998</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E29" s="3">
         <v>0.83479999999999999</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F29" s="3">
         <v>0.90569999999999995</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
         <v>0.38979999999999998</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3">
+      <c r="I29" s="3"/>
+      <c r="J29" s="3">
         <v>0.49349999999999999</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K29" s="17">
         <v>0.87919999999999998</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L29" s="3">
         <v>0.93830000000000002</v>
       </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3">
         <v>0.43259999999999998</v>
       </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3">
         <v>0.6482</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q29" s="3">
         <v>0.90500000000000003</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R29" s="3">
         <v>0.97209999999999996</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3">
+      <c r="S29" s="3"/>
+      <c r="T29" s="3">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D30" s="17">
         <v>0.43919999999999998</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E30" s="17">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F30" s="17">
         <v>0.90769999999999995</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="3">
+      <c r="G30" s="19"/>
+      <c r="H30" s="3">
         <v>0.39300000000000002</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="17">
+      <c r="I30" s="1"/>
+      <c r="J30" s="17">
         <v>0.503</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K30" s="3">
         <v>0.87680000000000002</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L30" s="3">
         <v>0.93659999999999999</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3">
         <v>0.43430000000000002</v>
       </c>
-      <c r="O21" s="1"/>
-      <c r="P21" s="17">
+      <c r="O30" s="1"/>
+      <c r="P30" s="17">
         <v>0.6583</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q30" s="3">
         <v>0.90510000000000002</v>
       </c>
-      <c r="R21" s="17">
+      <c r="R30" s="17">
         <v>0.97299999999999998</v>
       </c>
-      <c r="S21" s="1"/>
-      <c r="T21" s="17">
+      <c r="S30" s="1"/>
+      <c r="T30" s="17">
         <v>0.66559999999999997</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D31" s="4">
         <v>42.83</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E31" s="4">
         <v>83.36</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F31" s="4">
         <v>90.7</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
         <v>39.229999999999997</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
+      <c r="I31" s="4"/>
+      <c r="J31" s="4">
         <v>49.84</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K31" s="4">
         <v>87.5</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L31" s="4">
         <v>93.41</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4">
         <v>42.63</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4">
+      <c r="O31" s="4"/>
+      <c r="P31" s="4">
         <v>65.8</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q31" s="4">
         <v>90.5</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R31" s="4">
         <v>97.3</v>
       </c>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4">
+      <c r="S31" s="4"/>
+      <c r="T31" s="4">
         <v>66.290000000000006</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D32" s="20">
         <v>0.4335</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E32" s="20">
         <v>0.83350000000000002</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F32" s="20">
         <v>0.90259999999999996</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="20">
+      <c r="G32" s="21"/>
+      <c r="H32" s="20">
         <v>0.38850000000000001</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="20">
+      <c r="I32" s="22"/>
+      <c r="J32" s="20">
         <v>0.49130000000000001</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K32" s="20">
         <v>0.87970000000000004</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L32" s="20">
         <v>0.93069999999999997</v>
       </c>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20">
+      <c r="M32" s="20"/>
+      <c r="N32" s="20">
         <v>0.41320000000000001</v>
       </c>
-      <c r="O23" s="22"/>
-      <c r="P23" s="20">
+      <c r="O32" s="22"/>
+      <c r="P32" s="20">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q32" s="20">
         <v>0.90269999999999995</v>
       </c>
-      <c r="R23" s="20">
+      <c r="R32" s="20">
         <v>0.97240000000000004</v>
       </c>
-      <c r="S23" s="23"/>
-      <c r="T23" s="24">
+      <c r="S32" s="23"/>
+      <c r="T32" s="24">
         <v>0.66069999999999995</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>25</v>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>45.11% *not converge?</t>
+  </si>
+  <si>
+    <t>using batch=3 and lr=5e-5 is not good</t>
+  </si>
+  <si>
+    <t>2embAAtokenPpiGeluE768H6L8I768PretrainLabelDrop0.2</t>
   </si>
 </sst>
 </file>
@@ -564,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T37"/>
+  <dimension ref="A4:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="J20:L20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,13 +1155,22 @@
       <c r="M20" s="27"/>
       <c r="N20" s="27"/>
       <c r="O20" s="28"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
+      <c r="P20" s="27">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="R20" s="27">
+        <v>0.97130000000000005</v>
+      </c>
       <c r="S20" s="27"/>
       <c r="T20" s="27"/>
     </row>
     <row r="21" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
@@ -1177,6 +1192,7 @@
       <c r="T21" s="6"/>
     </row>
     <row r="22" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -1196,469 +1212,515 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
+    <row r="23" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D25" s="6">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E25" s="6">
         <v>0.81869999999999998</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F25" s="6">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
         <v>0.37009999999999998</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="6">
+      <c r="I25" s="7"/>
+      <c r="J25" s="6">
         <v>0.4677</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K25" s="6">
         <v>0.83730000000000004</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L25" s="6">
         <v>0.90600000000000003</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6">
         <v>0.3614</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="6">
+      <c r="O25" s="7"/>
+      <c r="P25" s="6">
         <v>0.627</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="Q25" s="6">
         <v>0.878</v>
       </c>
-      <c r="R23" s="6">
+      <c r="R25" s="6">
         <v>0.9647</v>
       </c>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3">
+      <c r="S25" s="3"/>
+      <c r="T25" s="3">
         <v>0.62470000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C24" s="8" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D26" s="9">
         <v>42.51</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E26" s="9">
         <v>82.97</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F26" s="9">
         <v>90.27</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11">
+      <c r="G26" s="10"/>
+      <c r="H26" s="11">
         <v>0.37769999999999998</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9">
         <v>48.62</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K26" s="9">
         <v>87.25</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L26" s="9">
         <v>93.14</v>
       </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="11">
+      <c r="M26" s="9"/>
+      <c r="N26" s="11">
         <v>0.40760000000000002</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9">
+      <c r="O26" s="9"/>
+      <c r="P26" s="9">
         <v>63.77</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="Q26" s="9">
         <v>89.79</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R26" s="9">
         <v>97.1</v>
       </c>
-      <c r="S24" s="8"/>
-      <c r="T24" s="11">
+      <c r="S26" s="8"/>
+      <c r="T26" s="11">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C25" s="12" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D27" s="13">
         <v>0.4365</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E27" s="13">
         <v>0.83460000000000001</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F27" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14">
+      <c r="G27" s="13"/>
+      <c r="H27" s="14">
         <v>0.39729999999999999</v>
       </c>
-      <c r="I25" s="15"/>
-      <c r="J25" s="13">
+      <c r="I27" s="15"/>
+      <c r="J27" s="13">
         <v>0.49740000000000001</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K27" s="13">
         <v>0.87780000000000002</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L27" s="13">
         <v>0.93500000000000005</v>
       </c>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13">
+      <c r="M27" s="13"/>
+      <c r="N27" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O25" s="15"/>
-      <c r="P25" s="13">
+      <c r="O27" s="15"/>
+      <c r="P27" s="13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q27" s="13">
         <v>0.90390000000000004</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R27" s="13">
         <v>0.97199999999999998</v>
       </c>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13">
+      <c r="S27" s="13"/>
+      <c r="T27" s="13">
         <v>0.65949999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C26" s="6" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D28" s="6">
         <v>0.43480000000000002</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E28" s="16">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F28" s="6">
         <v>0.9073</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
         <v>0.39419999999999999</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6">
         <v>0.502</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K28" s="6">
         <v>0.88019999999999998</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L28" s="16">
         <v>0.93840000000000001</v>
       </c>
-      <c r="M26" s="6"/>
-      <c r="N26" s="16">
+      <c r="M28" s="6"/>
+      <c r="N28" s="16">
         <v>0.43809999999999999</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6">
+      <c r="O28" s="6"/>
+      <c r="P28" s="6">
         <v>0.65469999999999995</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="Q28" s="6">
         <v>0.90480000000000005</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R28" s="6">
         <v>0.97250000000000003</v>
       </c>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6">
+      <c r="S28" s="6"/>
+      <c r="T28" s="6">
         <v>0.66139999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.43149999999999999</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.83409999999999995</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.90590000000000004</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3">
-        <v>0.49930000000000002</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0.87290000000000001</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0.93389999999999995</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3">
-        <v>0.42930000000000001</v>
-      </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="3">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="Q27" s="17">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0.97260000000000002</v>
-      </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3">
-        <v>0.65810000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
-        <v>43.45</v>
-      </c>
-      <c r="E28" s="1">
-        <v>83.11</v>
-      </c>
-      <c r="F28" s="1">
-        <v>90.55</v>
-      </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="3">
-        <v>0.3896</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1">
-        <v>49.24</v>
-      </c>
-      <c r="K28" s="1">
-        <v>87.43</v>
-      </c>
-      <c r="L28" s="1">
-        <v>93.52</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="3">
-        <v>0.42209999999999998</v>
-      </c>
-      <c r="O28" s="1"/>
-      <c r="P28" s="4">
-        <v>65.39</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>90.27</v>
-      </c>
-      <c r="R28" s="4">
-        <v>97.27</v>
-      </c>
-      <c r="S28" s="1"/>
-      <c r="T28" s="3">
-        <v>0.65659999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="3">
-        <v>0.42909999999999998</v>
+        <v>0.43149999999999999</v>
       </c>
       <c r="E29" s="3">
-        <v>0.83479999999999999</v>
+        <v>0.83409999999999995</v>
       </c>
       <c r="F29" s="3">
-        <v>0.90569999999999995</v>
+        <v>0.90590000000000004</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
-        <v>0.38979999999999998</v>
+        <v>0.39169999999999999</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3">
-        <v>0.49349999999999999</v>
-      </c>
-      <c r="K29" s="17">
-        <v>0.87919999999999998</v>
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.87290000000000001</v>
       </c>
       <c r="L29" s="3">
-        <v>0.93830000000000002</v>
+        <v>0.93389999999999995</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3">
-        <v>0.43259999999999998</v>
-      </c>
-      <c r="O29" s="3"/>
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="O29" s="4"/>
       <c r="P29" s="3">
-        <v>0.6482</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0.90500000000000003</v>
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>0.90569999999999995</v>
       </c>
       <c r="R29" s="3">
-        <v>0.97209999999999996</v>
+        <v>0.97260000000000002</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3">
-        <v>0.65500000000000003</v>
+        <v>0.65810000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0.43919999999999998</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0.83489999999999998</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0.90769999999999995</v>
-      </c>
-      <c r="G30" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="D30" s="1">
+        <v>43.45</v>
+      </c>
+      <c r="E30" s="1">
+        <v>83.11</v>
+      </c>
+      <c r="F30" s="1">
+        <v>90.55</v>
+      </c>
+      <c r="G30" s="18"/>
       <c r="H30" s="3">
-        <v>0.39300000000000002</v>
+        <v>0.3896</v>
       </c>
       <c r="I30" s="1"/>
-      <c r="J30" s="17">
-        <v>0.503</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0.87680000000000002</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0.93659999999999999</v>
-      </c>
-      <c r="M30" s="3"/>
+      <c r="J30" s="1">
+        <v>49.24</v>
+      </c>
+      <c r="K30" s="1">
+        <v>87.43</v>
+      </c>
+      <c r="L30" s="1">
+        <v>93.52</v>
+      </c>
+      <c r="M30" s="1"/>
       <c r="N30" s="3">
-        <v>0.43430000000000002</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="O30" s="1"/>
-      <c r="P30" s="17">
-        <v>0.6583</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>0.90510000000000002</v>
-      </c>
-      <c r="R30" s="17">
-        <v>0.97299999999999998</v>
+      <c r="P30" s="4">
+        <v>65.39</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>90.27</v>
+      </c>
+      <c r="R30" s="4">
+        <v>97.27</v>
       </c>
       <c r="S30" s="1"/>
-      <c r="T30" s="17">
-        <v>0.66559999999999997</v>
+      <c r="T30" s="3">
+        <v>0.65659999999999996</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="4">
-        <v>42.83</v>
-      </c>
-      <c r="E31" s="4">
-        <v>83.36</v>
-      </c>
-      <c r="F31" s="4">
-        <v>90.7</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4">
-        <v>39.229999999999997</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4">
-        <v>49.84</v>
-      </c>
-      <c r="K31" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="L31" s="4">
-        <v>93.41</v>
-      </c>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4">
-        <v>42.63</v>
-      </c>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4">
-        <v>65.8</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>90.5</v>
-      </c>
-      <c r="R31" s="4">
-        <v>97.3</v>
-      </c>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4">
-        <v>66.290000000000006</v>
+        <v>14</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="K31" s="17">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3">
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3">
+        <v>0.6482</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3">
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="17">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="E32" s="17">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="F32" s="17">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="3">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="17">
+        <v>0.503</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.87680000000000002</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3">
+        <v>0.43430000000000002</v>
+      </c>
+      <c r="O32" s="1"/>
+      <c r="P32" s="17">
+        <v>0.6583</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0.90510000000000002</v>
+      </c>
+      <c r="R32" s="17">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="17">
+        <v>0.66559999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="4">
+        <v>42.83</v>
+      </c>
+      <c r="E33" s="4">
+        <v>83.36</v>
+      </c>
+      <c r="F33" s="4">
+        <v>90.7</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4">
+        <v>49.84</v>
+      </c>
+      <c r="K33" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="L33" s="4">
+        <v>93.41</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
+        <v>42.63</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4">
+        <v>65.8</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="R33" s="4">
+        <v>97.3</v>
+      </c>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4">
+        <v>66.290000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D34" s="20">
         <v>0.4335</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E34" s="20">
         <v>0.83350000000000002</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F34" s="20">
         <v>0.90259999999999996</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="20">
+      <c r="G34" s="21"/>
+      <c r="H34" s="20">
         <v>0.38850000000000001</v>
       </c>
-      <c r="I32" s="22"/>
-      <c r="J32" s="20">
+      <c r="I34" s="22"/>
+      <c r="J34" s="20">
         <v>0.49130000000000001</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K34" s="20">
         <v>0.87970000000000004</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L34" s="20">
         <v>0.93069999999999997</v>
       </c>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20">
+      <c r="M34" s="20"/>
+      <c r="N34" s="20">
         <v>0.41320000000000001</v>
       </c>
-      <c r="O32" s="22"/>
-      <c r="P32" s="20">
+      <c r="O34" s="22"/>
+      <c r="P34" s="20">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Q32" s="20">
+      <c r="Q34" s="20">
         <v>0.90269999999999995</v>
       </c>
-      <c r="R32" s="20">
+      <c r="R34" s="20">
         <v>0.97240000000000004</v>
       </c>
-      <c r="S32" s="23"/>
-      <c r="T32" s="24">
+      <c r="S34" s="23"/>
+      <c r="T34" s="24">
         <v>0.66069999999999995</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -132,12 +132,15 @@
   </si>
   <si>
     <t>2embAAtokenPpiGeluE768H6L8I768PretrainLabelDrop0.2</t>
+  </si>
+  <si>
+    <t>43.09% *lr5e-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -572,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1137,9 +1140,15 @@
         <v>15</v>
       </c>
       <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="D20" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0.83279999999999998</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0.90039999999999998</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="28"/>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -110,9 +110,6 @@
     <t xml:space="preserve">as-is </t>
   </si>
   <si>
-    <t>E768I768H6L8Drop0.2 gelu</t>
-  </si>
-  <si>
     <t>2embGeluE768H6L8I768PretrainLabelDrop0.2</t>
   </si>
   <si>
@@ -122,19 +119,16 @@
     <t>2embGeluE768H6L8I768PretrainLabelDrop0.1</t>
   </si>
   <si>
-    <t>59.57% *not converge?</t>
-  </si>
-  <si>
-    <t>45.11% *not converge?</t>
-  </si>
-  <si>
     <t>using batch=3 and lr=5e-5 is not good</t>
   </si>
   <si>
     <t>2embAAtokenPpiGeluE768H6L8I768PretrainLabelDrop0.2</t>
   </si>
   <si>
-    <t>43.09% *lr5e-5</t>
+    <t>40.54% *AsIsE768I768H6L8Drop0.1</t>
+  </si>
+  <si>
+    <t>58.13% *AsIsE768I768H6L8Drop0.1</t>
   </si>
 </sst>
 </file>
@@ -223,7 +217,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +236,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -257,7 +257,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -277,7 +277,6 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -291,6 +290,10 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -575,15 +578,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
   </cols>
@@ -654,101 +659,101 @@
       </c>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="26" t="s">
+    <row r="6" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>0.34050000000000002</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>0.62670000000000003</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>0.81889999999999996</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26">
         <v>0.23710000000000001</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="27">
+      <c r="I6" s="27"/>
+      <c r="J6" s="26">
         <v>0.38629999999999998</v>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="26">
         <v>0.72419999999999995</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="26">
         <v>0.86729999999999996</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27">
+      <c r="M6" s="26"/>
+      <c r="N6" s="26">
         <v>0.25840000000000002</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="27">
+      <c r="O6" s="27"/>
+      <c r="P6" s="26">
         <v>0.57199999999999995</v>
       </c>
-      <c r="Q6" s="27">
+      <c r="Q6" s="26">
         <v>0.67010000000000003</v>
       </c>
-      <c r="R6" s="27">
+      <c r="R6" s="26">
         <v>0.92390000000000005</v>
       </c>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27">
+      <c r="S6" s="26"/>
+      <c r="T6" s="26">
         <v>0.51829999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27">
+      <c r="C7" s="25"/>
+      <c r="D7" s="26">
         <v>0.34649999999999997</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>0.64170000000000005</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>0.83460000000000001</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="27">
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="26">
         <v>0.39579999999999999</v>
       </c>
-      <c r="K7" s="27">
+      <c r="K7" s="26">
         <v>0.76959999999999995</v>
       </c>
-      <c r="L7" s="27">
+      <c r="L7" s="26">
         <v>0.89039999999999997</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="27">
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="26">
         <v>0.57369999999999999</v>
       </c>
-      <c r="Q7" s="27">
+      <c r="Q7" s="26">
         <v>0.67589999999999995</v>
       </c>
-      <c r="R7" s="27">
+      <c r="R7" s="26">
         <v>0.92869999999999997</v>
       </c>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-    </row>
-    <row r="8" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+    </row>
+    <row r="8" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="5"/>
@@ -782,11 +787,11 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5"/>
@@ -826,80 +831,78 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="27">
-        <v>0.38769999999999999</v>
-      </c>
-      <c r="K10" s="27">
-        <v>0.7762</v>
-      </c>
-      <c r="L10" s="27">
-        <v>0.88649999999999995</v>
-      </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="27">
-        <v>0.60060000000000002</v>
-      </c>
-      <c r="Q10" s="27">
-        <v>0.74680000000000002</v>
-      </c>
-      <c r="R10" s="27">
-        <v>0.94369999999999998</v>
-      </c>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-    </row>
-    <row r="11" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>0.73909999999999998</v>
+      </c>
+      <c r="R10" s="26">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+    </row>
+    <row r="11" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="32">
-        <v>0.8458</v>
-      </c>
-      <c r="L11" s="32">
-        <v>0.91969999999999996</v>
-      </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="27">
-        <v>0.6512</v>
-      </c>
-      <c r="Q11" s="27">
-        <v>0.89459999999999995</v>
-      </c>
-      <c r="R11" s="27">
-        <v>0.96970000000000001</v>
-      </c>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-    </row>
-    <row r="12" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="31">
+        <v>0.46839999999999998</v>
+      </c>
+      <c r="K11" s="31">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="L11" s="31">
+        <v>0.92869999999999997</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="26">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="R11" s="26">
+        <v>0.97009999999999996</v>
+      </c>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+    </row>
+    <row r="12" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -919,11 +922,11 @@
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="5"/>
@@ -957,11 +960,11 @@
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="5"/>
@@ -989,11 +992,11 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="5"/>
@@ -1021,7 +1024,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1041,47 +1044,47 @@
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="26" t="s">
+    <row r="17" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="27">
-        <v>0.40410000000000001</v>
-      </c>
-      <c r="K17" s="27">
-        <v>0.79390000000000005</v>
-      </c>
-      <c r="L17" s="27">
-        <v>0.89359999999999995</v>
-      </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="27">
-        <v>0.59460000000000002</v>
-      </c>
-      <c r="Q17" s="27">
-        <v>0.74390000000000001</v>
-      </c>
-      <c r="R17" s="27">
-        <v>0.93630000000000002</v>
-      </c>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-    </row>
-    <row r="18" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>31</v>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="26">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0.80179999999999996</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0.89929999999999999</v>
+      </c>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="26">
+        <v>0.58860000000000001</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>0.75490000000000002</v>
+      </c>
+      <c r="R17" s="26">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+    </row>
+    <row r="18" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>15</v>
@@ -1099,19 +1102,13 @@
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0.73640000000000005</v>
-      </c>
-      <c r="R18" s="6">
-        <v>0.93930000000000002</v>
-      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
     </row>
-    <row r="19" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="6"/>
@@ -1132,53 +1129,47 @@
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
     </row>
-    <row r="20" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="26" t="s">
+    <row r="20" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="27">
-        <v>0.83279999999999998</v>
-      </c>
-      <c r="F20" s="27">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="27">
-        <v>0.5091</v>
-      </c>
-      <c r="K20" s="27">
-        <v>0.88249999999999995</v>
-      </c>
-      <c r="L20" s="27">
-        <v>0.93610000000000004</v>
-      </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="27">
-        <v>0.66279999999999994</v>
-      </c>
-      <c r="Q20" s="27">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="R20" s="27">
-        <v>0.97130000000000005</v>
-      </c>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-    </row>
-    <row r="21" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>35</v>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="26">
+        <v>0.502</v>
+      </c>
+      <c r="K20" s="26">
+        <v>0.88660000000000005</v>
+      </c>
+      <c r="L20" s="26">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="26">
+        <v>0.65739999999999998</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>0.90769999999999995</v>
+      </c>
+      <c r="R20" s="26">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+    </row>
+    <row r="21" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1188,9 +1179,15 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="J21" s="6">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.8871</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0.93799999999999994</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="7"/>
@@ -1200,7 +1197,7 @@
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
     </row>
-    <row r="22" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="6"/>
@@ -1221,7 +1218,7 @@
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
     </row>
-    <row r="23" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -1242,7 +1239,7 @@
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
     </row>
-    <row r="24" spans="1:20" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1585,44 +1582,44 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="33">
         <v>0.43919999999999998</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="33">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="33">
         <v>0.90769999999999995</v>
       </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="3">
+      <c r="G32" s="34"/>
+      <c r="H32" s="35">
         <v>0.39300000000000002</v>
       </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="17">
+      <c r="I32" s="32"/>
+      <c r="J32" s="33">
         <v>0.503</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="35">
         <v>0.87680000000000002</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="35">
         <v>0.93659999999999999</v>
       </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3">
+      <c r="M32" s="35"/>
+      <c r="N32" s="35">
         <v>0.43430000000000002</v>
       </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="17">
+      <c r="O32" s="32"/>
+      <c r="P32" s="33">
         <v>0.6583</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="35">
         <v>0.90510000000000002</v>
       </c>
-      <c r="R32" s="17">
+      <c r="R32" s="33">
         <v>0.97299999999999998</v>
       </c>
       <c r="S32" s="1"/>
@@ -1680,45 +1677,45 @@
       <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="20">
+      <c r="D34" s="19">
         <v>0.4335</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="19">
         <v>0.83350000000000002</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="19">
         <v>0.90259999999999996</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="20">
+      <c r="G34" s="20"/>
+      <c r="H34" s="19">
         <v>0.38850000000000001</v>
       </c>
-      <c r="I34" s="22"/>
-      <c r="J34" s="20">
+      <c r="I34" s="21"/>
+      <c r="J34" s="19">
         <v>0.49130000000000001</v>
       </c>
-      <c r="K34" s="20">
+      <c r="K34" s="19">
         <v>0.87970000000000004</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="19">
         <v>0.93069999999999997</v>
       </c>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20">
+      <c r="M34" s="19"/>
+      <c r="N34" s="19">
         <v>0.41320000000000001</v>
       </c>
-      <c r="O34" s="22"/>
-      <c r="P34" s="20">
+      <c r="O34" s="21"/>
+      <c r="P34" s="19">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Q34" s="20">
+      <c r="Q34" s="19">
         <v>0.90269999999999995</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="19">
         <v>0.97240000000000004</v>
       </c>
-      <c r="S34" s="23"/>
-      <c r="T34" s="24">
+      <c r="S34" s="22"/>
+      <c r="T34" s="23">
         <v>0.66069999999999995</v>
       </c>
     </row>
@@ -1729,7 +1726,7 @@
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>58.13% *AsIsE768I768H6L8Drop0.1</t>
+  </si>
+  <si>
+    <t>2embMutPosPpiGeluH1L12BertLabDrop0.1</t>
+  </si>
+  <si>
+    <t>2embPpiGeluE768H1L12I768PretrainLabelDrop0.1</t>
+  </si>
+  <si>
+    <t>2embPpiGeluE768H6L8I768PretrainLabelDrop0.1</t>
   </si>
 </sst>
 </file>
@@ -576,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T40"/>
+  <dimension ref="A4:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,35 +1176,35 @@
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
     </row>
-    <row r="21" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="6">
-        <v>0.50919999999999999</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0.8871</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="26">
+        <v>0.50470000000000004</v>
+      </c>
+      <c r="K21" s="26">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="L21" s="26">
+        <v>0.94006000000000001</v>
+      </c>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
     </row>
     <row r="22" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
@@ -1219,6 +1228,9 @@
       <c r="T22" s="6"/>
     </row>
     <row r="23" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
@@ -1227,9 +1239,15 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="J23" s="6">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.8871</v>
+      </c>
+      <c r="L23" s="6">
+        <v>0.93799999999999994</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="7"/>
@@ -1240,6 +1258,7 @@
       <c r="T23" s="6"/>
     </row>
     <row r="24" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
@@ -1259,478 +1278,669 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0.89700000000000002</v>
-      </c>
+    <row r="25" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6">
-        <v>0.37009999999999998</v>
-      </c>
+      <c r="H25" s="6"/>
       <c r="I25" s="7"/>
       <c r="J25" s="6">
+        <v>0.49408999999999997</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="L25" s="6">
+        <v>0.93967000000000001</v>
+      </c>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+    </row>
+    <row r="28" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6">
+        <v>0.499</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0.88307999999999998</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0.93676999999999999</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+    </row>
+    <row r="29" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+    </row>
+    <row r="31" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+    </row>
+    <row r="32" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="6">
         <v>0.4677</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K33" s="6">
         <v>0.83730000000000004</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L33" s="6">
         <v>0.90600000000000003</v>
       </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6">
+      <c r="M33" s="6"/>
+      <c r="N33" s="6">
         <v>0.3614</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="6">
+      <c r="O33" s="7"/>
+      <c r="P33" s="6">
         <v>0.627</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q33" s="6">
         <v>0.878</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R33" s="6">
         <v>0.9647</v>
       </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3">
+      <c r="S33" s="3"/>
+      <c r="T33" s="3">
         <v>0.62470000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C26" s="8" t="s">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C34" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D34" s="9">
         <v>42.51</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E34" s="9">
         <v>82.97</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F34" s="9">
         <v>90.27</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11">
+      <c r="G34" s="10"/>
+      <c r="H34" s="11">
         <v>0.37769999999999998</v>
       </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9">
         <v>48.62</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K34" s="9">
         <v>87.25</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L34" s="9">
         <v>93.14</v>
       </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="11">
+      <c r="M34" s="9"/>
+      <c r="N34" s="11">
         <v>0.40760000000000002</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9">
+      <c r="O34" s="9"/>
+      <c r="P34" s="9">
         <v>63.77</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="Q34" s="9">
         <v>89.79</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R34" s="9">
         <v>97.1</v>
       </c>
-      <c r="S26" s="8"/>
-      <c r="T26" s="11">
+      <c r="S34" s="8"/>
+      <c r="T34" s="11">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C27" s="12" t="s">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C35" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D35" s="13">
         <v>0.4365</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E35" s="13">
         <v>0.83460000000000001</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F35" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14">
+      <c r="G35" s="13"/>
+      <c r="H35" s="14">
         <v>0.39729999999999999</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="13">
+      <c r="I35" s="15"/>
+      <c r="J35" s="13">
         <v>0.49740000000000001</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K35" s="13">
         <v>0.87780000000000002</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L35" s="13">
         <v>0.93500000000000005</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13">
+      <c r="M35" s="13"/>
+      <c r="N35" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="13">
+      <c r="O35" s="15"/>
+      <c r="P35" s="13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q35" s="13">
         <v>0.90390000000000004</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R35" s="13">
         <v>0.97199999999999998</v>
       </c>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13">
+      <c r="S35" s="13"/>
+      <c r="T35" s="13">
         <v>0.65949999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C28" s="6" t="s">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D36" s="6">
         <v>0.43480000000000002</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E36" s="16">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F36" s="6">
         <v>0.9073</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
+      <c r="G36" s="6"/>
+      <c r="H36" s="6">
         <v>0.39419999999999999</v>
       </c>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6">
+      <c r="I36" s="6"/>
+      <c r="J36" s="6">
         <v>0.502</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K36" s="6">
         <v>0.88019999999999998</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L36" s="16">
         <v>0.93840000000000001</v>
       </c>
-      <c r="M28" s="6"/>
-      <c r="N28" s="16">
+      <c r="M36" s="6"/>
+      <c r="N36" s="16">
         <v>0.43809999999999999</v>
       </c>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6">
+      <c r="O36" s="6"/>
+      <c r="P36" s="6">
         <v>0.65469999999999995</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q36" s="6">
         <v>0.90480000000000005</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R36" s="6">
         <v>0.97250000000000003</v>
       </c>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6">
+      <c r="S36" s="6"/>
+      <c r="T36" s="6">
         <v>0.66139999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D37" s="3">
         <v>0.43149999999999999</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E37" s="3">
         <v>0.83409999999999995</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F37" s="3">
         <v>0.90590000000000004</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
         <v>0.39169999999999999</v>
       </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3">
         <v>0.49930000000000002</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K37" s="3">
         <v>0.87290000000000001</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L37" s="3">
         <v>0.93389999999999995</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3">
         <v>0.42930000000000001</v>
       </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="3">
+      <c r="O37" s="4"/>
+      <c r="P37" s="3">
         <v>0.65239999999999998</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q37" s="17">
         <v>0.90569999999999995</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R37" s="3">
         <v>0.97260000000000002</v>
       </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3">
+      <c r="S37" s="3"/>
+      <c r="T37" s="3">
         <v>0.65810000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D38" s="1">
         <v>43.45</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E38" s="1">
         <v>83.11</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F38" s="1">
         <v>90.55</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="3">
+      <c r="G38" s="18"/>
+      <c r="H38" s="3">
         <v>0.3896</v>
       </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1">
         <v>49.24</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K38" s="1">
         <v>87.43</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L38" s="1">
         <v>93.52</v>
       </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="3">
+      <c r="M38" s="1"/>
+      <c r="N38" s="3">
         <v>0.42209999999999998</v>
       </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="4">
+      <c r="O38" s="1"/>
+      <c r="P38" s="4">
         <v>65.39</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q38" s="1">
         <v>90.27</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R38" s="4">
         <v>97.27</v>
       </c>
-      <c r="S30" s="1"/>
-      <c r="T30" s="3">
+      <c r="S38" s="1"/>
+      <c r="T38" s="3">
         <v>0.65659999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D39" s="3">
         <v>0.42909999999999998</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E39" s="3">
         <v>0.83479999999999999</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F39" s="3">
         <v>0.90569999999999995</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3">
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
         <v>0.38979999999999998</v>
       </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3">
         <v>0.49349999999999999</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K39" s="17">
         <v>0.87919999999999998</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L39" s="3">
         <v>0.93830000000000002</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3">
         <v>0.43259999999999998</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3">
         <v>0.6482</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q39" s="3">
         <v>0.90500000000000003</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R39" s="3">
         <v>0.97209999999999996</v>
       </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="32" t="s">
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C40" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D40" s="33">
         <v>0.43919999999999998</v>
       </c>
-      <c r="E32" s="33">
+      <c r="E40" s="33">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F32" s="33">
+      <c r="F40" s="33">
         <v>0.90769999999999995</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35">
+      <c r="G40" s="34"/>
+      <c r="H40" s="35">
         <v>0.39300000000000002</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="33">
+      <c r="I40" s="32"/>
+      <c r="J40" s="33">
         <v>0.503</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K40" s="35">
         <v>0.87680000000000002</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L40" s="35">
         <v>0.93659999999999999</v>
       </c>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35">
+      <c r="M40" s="35"/>
+      <c r="N40" s="35">
         <v>0.43430000000000002</v>
       </c>
-      <c r="O32" s="32"/>
-      <c r="P32" s="33">
+      <c r="O40" s="32"/>
+      <c r="P40" s="33">
         <v>0.6583</v>
       </c>
-      <c r="Q32" s="35">
+      <c r="Q40" s="35">
         <v>0.90510000000000002</v>
       </c>
-      <c r="R32" s="33">
+      <c r="R40" s="33">
         <v>0.97299999999999998</v>
       </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="17">
+      <c r="S40" s="1"/>
+      <c r="T40" s="17">
         <v>0.66559999999999997</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D41" s="4">
         <v>42.83</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E41" s="4">
         <v>83.36</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F41" s="4">
         <v>90.7</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4">
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
         <v>39.229999999999997</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4">
         <v>49.84</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K41" s="4">
         <v>87.5</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L41" s="4">
         <v>93.41</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4">
         <v>42.63</v>
       </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4">
+      <c r="O41" s="4"/>
+      <c r="P41" s="4">
         <v>65.8</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q41" s="4">
         <v>90.5</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R41" s="4">
         <v>97.3</v>
       </c>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4">
+      <c r="S41" s="4"/>
+      <c r="T41" s="4">
         <v>66.290000000000006</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D42" s="19">
         <v>0.4335</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E42" s="19">
         <v>0.83350000000000002</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F42" s="19">
         <v>0.90259999999999996</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="19">
+      <c r="G42" s="20"/>
+      <c r="H42" s="19">
         <v>0.38850000000000001</v>
       </c>
-      <c r="I34" s="21"/>
-      <c r="J34" s="19">
+      <c r="I42" s="21"/>
+      <c r="J42" s="19">
         <v>0.49130000000000001</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K42" s="19">
         <v>0.87970000000000004</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L42" s="19">
         <v>0.93069999999999997</v>
       </c>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19">
+      <c r="M42" s="19"/>
+      <c r="N42" s="19">
         <v>0.41320000000000001</v>
       </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="19">
+      <c r="O42" s="21"/>
+      <c r="P42" s="19">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="Q42" s="19">
         <v>0.90269999999999995</v>
       </c>
-      <c r="R34" s="19">
+      <c r="R42" s="19">
         <v>0.97240000000000004</v>
       </c>
-      <c r="S34" s="22"/>
-      <c r="T34" s="23">
+      <c r="S42" s="22"/>
+      <c r="T42" s="23">
         <v>0.66069999999999995</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>2embPpiGeluE768H6L8I768PretrainLabelDrop0.1</t>
+  </si>
+  <si>
+    <t>2embMutPosPpiGeluH1L12BertLabDrop0.1SetEmb0</t>
   </si>
 </sst>
 </file>
@@ -585,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T48"/>
+  <dimension ref="A4:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,6 +1333,9 @@
       <c r="T26" s="6"/>
     </row>
     <row r="27" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
@@ -1338,9 +1344,15 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="7"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+      <c r="J27" s="6">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.88312000000000002</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0.93794</v>
+      </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="7"/>
@@ -1351,9 +1363,6 @@
       <c r="T27" s="6"/>
     </row>
     <row r="28" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
@@ -1362,15 +1371,9 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="6">
-        <v>0.499</v>
-      </c>
-      <c r="K28" s="6">
-        <v>0.88307999999999998</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0.93676999999999999</v>
-      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="7"/>
@@ -1381,9 +1384,6 @@
       <c r="T28" s="6"/>
     </row>
     <row r="29" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -1429,6 +1429,9 @@
       <c r="T30" s="6"/>
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
@@ -1450,6 +1453,10 @@
       <c r="T31" s="6"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1469,473 +1476,514 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
+    <row r="33" spans="2:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+    </row>
+    <row r="34" spans="2:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D35" s="6">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E35" s="6">
         <v>0.81869999999999998</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F35" s="6">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6">
         <v>0.37009999999999998</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="6">
+      <c r="I35" s="7"/>
+      <c r="J35" s="6">
         <v>0.4677</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K35" s="6">
         <v>0.83730000000000004</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L35" s="6">
         <v>0.90600000000000003</v>
       </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6">
+      <c r="M35" s="6"/>
+      <c r="N35" s="6">
         <v>0.3614</v>
       </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="6">
+      <c r="O35" s="7"/>
+      <c r="P35" s="6">
         <v>0.627</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="Q35" s="6">
         <v>0.878</v>
       </c>
-      <c r="R33" s="6">
+      <c r="R35" s="6">
         <v>0.9647</v>
       </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3">
+      <c r="S35" s="3"/>
+      <c r="T35" s="3">
         <v>0.62470000000000003</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C34" s="8" t="s">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D36" s="9">
         <v>42.51</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E36" s="9">
         <v>82.97</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F36" s="9">
         <v>90.27</v>
       </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="11">
+      <c r="G36" s="10"/>
+      <c r="H36" s="11">
         <v>0.37769999999999998</v>
       </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9">
         <v>48.62</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K36" s="9">
         <v>87.25</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L36" s="9">
         <v>93.14</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="11">
+      <c r="M36" s="9"/>
+      <c r="N36" s="11">
         <v>0.40760000000000002</v>
       </c>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9">
+      <c r="O36" s="9"/>
+      <c r="P36" s="9">
         <v>63.77</v>
       </c>
-      <c r="Q34" s="9">
+      <c r="Q36" s="9">
         <v>89.79</v>
       </c>
-      <c r="R34" s="9">
+      <c r="R36" s="9">
         <v>97.1</v>
       </c>
-      <c r="S34" s="8"/>
-      <c r="T34" s="11">
+      <c r="S36" s="8"/>
+      <c r="T36" s="11">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C35" s="12" t="s">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D37" s="13">
         <v>0.4365</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E37" s="13">
         <v>0.83460000000000001</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F37" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14">
+      <c r="G37" s="13"/>
+      <c r="H37" s="14">
         <v>0.39729999999999999</v>
       </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="13">
+      <c r="I37" s="15"/>
+      <c r="J37" s="13">
         <v>0.49740000000000001</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K37" s="13">
         <v>0.87780000000000002</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L37" s="13">
         <v>0.93500000000000005</v>
       </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13">
+      <c r="M37" s="13"/>
+      <c r="N37" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O35" s="15"/>
-      <c r="P35" s="13">
+      <c r="O37" s="15"/>
+      <c r="P37" s="13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q37" s="13">
         <v>0.90390000000000004</v>
       </c>
-      <c r="R35" s="13">
+      <c r="R37" s="13">
         <v>0.97199999999999998</v>
       </c>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13">
+      <c r="S37" s="13"/>
+      <c r="T37" s="13">
         <v>0.65949999999999998</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C36" s="6" t="s">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D38" s="6">
         <v>0.43480000000000002</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E38" s="16">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F38" s="6">
         <v>0.9073</v>
       </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6">
+      <c r="G38" s="6"/>
+      <c r="H38" s="6">
         <v>0.39419999999999999</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6">
+      <c r="I38" s="6"/>
+      <c r="J38" s="6">
         <v>0.502</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K38" s="6">
         <v>0.88019999999999998</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L38" s="16">
         <v>0.93840000000000001</v>
       </c>
-      <c r="M36" s="6"/>
-      <c r="N36" s="16">
+      <c r="M38" s="6"/>
+      <c r="N38" s="16">
         <v>0.43809999999999999</v>
       </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6">
+      <c r="O38" s="6"/>
+      <c r="P38" s="6">
         <v>0.65469999999999995</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="Q38" s="6">
         <v>0.90480000000000005</v>
       </c>
-      <c r="R36" s="6">
+      <c r="R38" s="6">
         <v>0.97250000000000003</v>
       </c>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6">
+      <c r="S38" s="6"/>
+      <c r="T38" s="6">
         <v>0.66139999999999999</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D39" s="3">
         <v>0.43149999999999999</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E39" s="3">
         <v>0.83409999999999995</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F39" s="3">
         <v>0.90590000000000004</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3">
-        <v>0.49930000000000002</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0.87290000000000001</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0.93389999999999995</v>
-      </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3">
-        <v>0.42930000000000001</v>
-      </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="3">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="Q37" s="17">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="R37" s="3">
-        <v>0.97260000000000002</v>
-      </c>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3">
-        <v>0.65810000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="1">
-        <v>43.45</v>
-      </c>
-      <c r="E38" s="1">
-        <v>83.11</v>
-      </c>
-      <c r="F38" s="1">
-        <v>90.55</v>
-      </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="3">
-        <v>0.3896</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1">
-        <v>49.24</v>
-      </c>
-      <c r="K38" s="1">
-        <v>87.43</v>
-      </c>
-      <c r="L38" s="1">
-        <v>93.52</v>
-      </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="3">
-        <v>0.42209999999999998</v>
-      </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="4">
-        <v>65.39</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>90.27</v>
-      </c>
-      <c r="R38" s="4">
-        <v>97.27</v>
-      </c>
-      <c r="S38" s="1"/>
-      <c r="T38" s="3">
-        <v>0.65659999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.42909999999999998</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.83479999999999999</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.90569999999999995</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <v>0.38979999999999998</v>
+        <v>0.39169999999999999</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3">
-        <v>0.49349999999999999</v>
-      </c>
-      <c r="K39" s="17">
-        <v>0.87919999999999998</v>
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.87290000000000001</v>
       </c>
       <c r="L39" s="3">
-        <v>0.93830000000000002</v>
+        <v>0.93389999999999995</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3">
-        <v>0.43259999999999998</v>
-      </c>
-      <c r="O39" s="3"/>
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="O39" s="4"/>
       <c r="P39" s="3">
-        <v>0.6482</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>0.90500000000000003</v>
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>0.90569999999999995</v>
       </c>
       <c r="R39" s="3">
-        <v>0.97209999999999996</v>
+        <v>0.97260000000000002</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3">
+        <v>0.65810000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="1">
+        <v>43.45</v>
+      </c>
+      <c r="E40" s="1">
+        <v>83.11</v>
+      </c>
+      <c r="F40" s="1">
+        <v>90.55</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="3">
+        <v>0.3896</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1">
+        <v>49.24</v>
+      </c>
+      <c r="K40" s="1">
+        <v>87.43</v>
+      </c>
+      <c r="L40" s="1">
+        <v>93.52</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="3">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="4">
+        <v>65.39</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>90.27</v>
+      </c>
+      <c r="R40" s="4">
+        <v>97.27</v>
+      </c>
+      <c r="S40" s="1"/>
+      <c r="T40" s="3">
+        <v>0.65659999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="K41" s="17">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3">
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3">
+        <v>0.6482</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C40" s="32" t="s">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C42" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="33">
+      <c r="D42" s="33">
         <v>0.43919999999999998</v>
       </c>
-      <c r="E40" s="33">
+      <c r="E42" s="33">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F40" s="33">
+      <c r="F42" s="33">
         <v>0.90769999999999995</v>
       </c>
-      <c r="G40" s="34"/>
-      <c r="H40" s="35">
+      <c r="G42" s="34"/>
+      <c r="H42" s="35">
         <v>0.39300000000000002</v>
       </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33">
+      <c r="I42" s="32"/>
+      <c r="J42" s="33">
         <v>0.503</v>
       </c>
-      <c r="K40" s="35">
+      <c r="K42" s="35">
         <v>0.87680000000000002</v>
       </c>
-      <c r="L40" s="35">
+      <c r="L42" s="35">
         <v>0.93659999999999999</v>
       </c>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35">
+      <c r="M42" s="35"/>
+      <c r="N42" s="35">
         <v>0.43430000000000002</v>
       </c>
-      <c r="O40" s="32"/>
-      <c r="P40" s="33">
+      <c r="O42" s="32"/>
+      <c r="P42" s="33">
         <v>0.6583</v>
       </c>
-      <c r="Q40" s="35">
+      <c r="Q42" s="35">
         <v>0.90510000000000002</v>
       </c>
-      <c r="R40" s="33">
+      <c r="R42" s="33">
         <v>0.97299999999999998</v>
       </c>
-      <c r="S40" s="1"/>
-      <c r="T40" s="17">
+      <c r="S42" s="1"/>
+      <c r="T42" s="17">
         <v>0.66559999999999997</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D43" s="4">
         <v>42.83</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E43" s="4">
         <v>83.36</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F43" s="4">
         <v>90.7</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4">
+      <c r="G43" s="4"/>
+      <c r="H43" s="4">
         <v>39.229999999999997</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4">
+      <c r="I43" s="4"/>
+      <c r="J43" s="4">
         <v>49.84</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K43" s="4">
         <v>87.5</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L43" s="4">
         <v>93.41</v>
       </c>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4">
         <v>42.63</v>
       </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4">
+      <c r="O43" s="4"/>
+      <c r="P43" s="4">
         <v>65.8</v>
       </c>
-      <c r="Q41" s="4">
+      <c r="Q43" s="4">
         <v>90.5</v>
       </c>
-      <c r="R41" s="4">
+      <c r="R43" s="4">
         <v>97.3</v>
       </c>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4">
+      <c r="S43" s="4"/>
+      <c r="T43" s="4">
         <v>66.290000000000006</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D44" s="19">
         <v>0.4335</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E44" s="19">
         <v>0.83350000000000002</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F44" s="19">
         <v>0.90259999999999996</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="19">
+      <c r="G44" s="20"/>
+      <c r="H44" s="19">
         <v>0.38850000000000001</v>
       </c>
-      <c r="I42" s="21"/>
-      <c r="J42" s="19">
+      <c r="I44" s="21"/>
+      <c r="J44" s="19">
         <v>0.49130000000000001</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K44" s="19">
         <v>0.87970000000000004</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L44" s="19">
         <v>0.93069999999999997</v>
       </c>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19">
+      <c r="M44" s="19"/>
+      <c r="N44" s="19">
         <v>0.41320000000000001</v>
       </c>
-      <c r="O42" s="21"/>
-      <c r="P42" s="19">
+      <c r="O44" s="21"/>
+      <c r="P44" s="19">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="Q44" s="19">
         <v>0.90269999999999995</v>
       </c>
-      <c r="R42" s="19">
+      <c r="R44" s="19">
         <v>0.97240000000000004</v>
       </c>
-      <c r="S42" s="22"/>
-      <c r="T42" s="23">
+      <c r="S44" s="22"/>
+      <c r="T44" s="23">
         <v>0.66069999999999995</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>31</v>
       </c>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,17 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="96">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -141,12 +143,183 @@
   </si>
   <si>
     <t>2embMutPosPpiGeluH1L12BertLabDrop0.1SetEmb0</t>
+  </si>
+  <si>
+    <t>Q5VV41</t>
+  </si>
+  <si>
+    <t>P0A812</t>
+  </si>
+  <si>
+    <t>Q6FJA3</t>
+  </si>
+  <si>
+    <t>uniform</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform </t>
+  </si>
+  <si>
+    <t>Q9HWK6</t>
+  </si>
+  <si>
+    <t>Q6X632</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>O54992</t>
+  </si>
+  <si>
+    <t>P13521</t>
+  </si>
+  <si>
+    <t>predict front</t>
+  </si>
+  <si>
+    <t>Q9M8Y0</t>
+  </si>
+  <si>
+    <t>uniform ?</t>
+  </si>
+  <si>
+    <t>both front back important</t>
+  </si>
+  <si>
+    <t>O49485</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>ok strong</t>
+  </si>
+  <si>
+    <t>true output</t>
+  </si>
+  <si>
+    <t>true output uniform</t>
+  </si>
+  <si>
+    <t>predict not front</t>
+  </si>
+  <si>
+    <t>P08395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not front </t>
+  </si>
+  <si>
+    <t>100% not front</t>
+  </si>
+  <si>
+    <t>predict either uniform or back</t>
+  </si>
+  <si>
+    <t>not strong back, either</t>
+  </si>
+  <si>
+    <t>P35346</t>
+  </si>
+  <si>
+    <t>not back</t>
+  </si>
+  <si>
+    <t>predict uniform</t>
+  </si>
+  <si>
+    <t>P49590</t>
+  </si>
+  <si>
+    <t>predict front or uniform</t>
+  </si>
+  <si>
+    <t>weak front</t>
+  </si>
+  <si>
+    <t>need both to be strong ?</t>
+  </si>
+  <si>
+    <t>P29084</t>
+  </si>
+  <si>
+    <t>front 100%</t>
+  </si>
+  <si>
+    <t>wrong….</t>
+  </si>
+  <si>
+    <t>Q91VL8</t>
+  </si>
+  <si>
+    <t>wrong both front and back, back is more important</t>
+  </si>
+  <si>
+    <t>too complicated to explain this seq</t>
+  </si>
+  <si>
+    <t>100% correct prediction</t>
+  </si>
+  <si>
+    <t>true: uniform</t>
+  </si>
+  <si>
+    <t>true:uniform</t>
+  </si>
+  <si>
+    <t>true: hard to say, can be front or back only</t>
+  </si>
+  <si>
+    <t>able to say "not back"</t>
+  </si>
+  <si>
+    <t>Q9JJ48</t>
+  </si>
+  <si>
+    <t>strong front signal</t>
+  </si>
+  <si>
+    <t>O43829</t>
+  </si>
+  <si>
+    <t>true: matching back</t>
+  </si>
+  <si>
+    <t>wrong,</t>
+  </si>
+  <si>
+    <t>true match back</t>
+  </si>
+  <si>
+    <t>Q05016</t>
+  </si>
+  <si>
+    <t>Q9UKI8</t>
+  </si>
+  <si>
+    <t>Q06182</t>
+  </si>
+  <si>
+    <t>not 100% back</t>
+  </si>
+  <si>
+    <t>Q9W3J5</t>
+  </si>
+  <si>
+    <t>true: matching both front and back</t>
+  </si>
+  <si>
+    <t>Q08873</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -229,7 +402,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +427,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -269,7 +454,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -306,6 +491,9 @@
     <xf numFmtId="10" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -590,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1991,4 +2179,4955 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20:M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>8.7960811191388294E-2</v>
+      </c>
+      <c r="E1">
+        <v>5.7436553377927801E-2</v>
+      </c>
+      <c r="F1">
+        <v>-1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>6.2876000991549205E-2</v>
+      </c>
+      <c r="M1">
+        <v>-0.212879494446992</v>
+      </c>
+      <c r="N1">
+        <v>-1</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="36">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36">
+        <v>0</v>
+      </c>
+      <c r="D2" s="36">
+        <v>0.11317418630963499</v>
+      </c>
+      <c r="E2" s="36">
+        <v>-0.35859641783081098</v>
+      </c>
+      <c r="F2" s="36">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="36">
+        <v>1</v>
+      </c>
+      <c r="K2" s="36">
+        <v>0</v>
+      </c>
+      <c r="L2" s="36">
+        <v>3.6949840384212201E-2</v>
+      </c>
+      <c r="M2" s="36">
+        <v>-0.240054113687097</v>
+      </c>
+      <c r="N2" s="36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="38">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38">
+        <v>0.13418907989734799</v>
+      </c>
+      <c r="E3" s="38">
+        <v>-0.33671193224235502</v>
+      </c>
+      <c r="F3" s="38">
+        <v>-1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>5.1415043119629703E-2</v>
+      </c>
+      <c r="M3">
+        <v>-2.5880262940396401E-2</v>
+      </c>
+      <c r="N3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="38">
+        <v>3</v>
+      </c>
+      <c r="C4" s="38">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0.111100257839888</v>
+      </c>
+      <c r="E4" s="38">
+        <v>-0.38307758457792701</v>
+      </c>
+      <c r="F4" s="38">
+        <v>-1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1.09131464577085E-2</v>
+      </c>
+      <c r="M4">
+        <v>-9.1304345952056304E-2</v>
+      </c>
+      <c r="N4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.114713388721312</v>
+      </c>
+      <c r="E5">
+        <v>-2.3153349724236601E-2</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="38">
+        <v>4</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+      <c r="L5" s="38">
+        <v>6.9720681067154497E-2</v>
+      </c>
+      <c r="M5" s="38">
+        <v>-0.52717832139994703</v>
+      </c>
+      <c r="N5" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.102850287242813</v>
+      </c>
+      <c r="E6">
+        <v>-7.4403833979149597E-2</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6.0191326885603899E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.14470753269467801</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="36">
+        <v>6</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.23806570566275001</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.47938131444140197</v>
+      </c>
+      <c r="F7" s="36">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="36">
+        <v>6</v>
+      </c>
+      <c r="K7" s="36">
+        <v>0</v>
+      </c>
+      <c r="L7" s="38">
+        <v>6.9092088125431101E-3</v>
+      </c>
+      <c r="M7" s="36">
+        <v>-0.162458908654982</v>
+      </c>
+      <c r="N7" s="36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.12879051736939401</v>
+      </c>
+      <c r="E8">
+        <v>1.7418039943927901E-2</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1.2991010472300399E-2</v>
+      </c>
+      <c r="M8">
+        <v>-3.0537648061148701E-2</v>
+      </c>
+      <c r="N8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.11296870723524501</v>
+      </c>
+      <c r="E9">
+        <v>6.9894861311300405E-2</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>8.7413385374310607E-2</v>
+      </c>
+      <c r="M9">
+        <v>9.8948222071821204E-2</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="38">
+        <v>9</v>
+      </c>
+      <c r="C10" s="38">
+        <v>0</v>
+      </c>
+      <c r="D10" s="38">
+        <v>0.16855832572625801</v>
+      </c>
+      <c r="E10" s="38">
+        <v>0.40013371369964401</v>
+      </c>
+      <c r="F10" s="38">
+        <v>-1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1.81529617166831E-2</v>
+      </c>
+      <c r="M10">
+        <v>-2.0371962073655301E-2</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="38">
+        <v>10</v>
+      </c>
+      <c r="C11" s="38">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0.12112955015655499</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0.20535007189985299</v>
+      </c>
+      <c r="F11" s="38">
+        <v>-1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1.52542506530955E-2</v>
+      </c>
+      <c r="M11">
+        <v>-2.9757533341214299E-2</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.12824553823280699</v>
+      </c>
+      <c r="E12">
+        <v>-0.122933299447438</v>
+      </c>
+      <c r="F12">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="38">
+        <v>11</v>
+      </c>
+      <c r="K12" s="38">
+        <v>0</v>
+      </c>
+      <c r="L12" s="38">
+        <v>5.1830841214333102E-2</v>
+      </c>
+      <c r="M12" s="38">
+        <v>-0.52816441456409302</v>
+      </c>
+      <c r="N12" s="38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4.8723095642559403E-2</v>
+      </c>
+      <c r="E14">
+        <v>-0.133726931053678</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>2.9407177830158601E-2</v>
+      </c>
+      <c r="M14">
+        <v>-0.21456428659151899</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="36">
+        <v>1</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
+        <v>3.2665502212433202E-2</v>
+      </c>
+      <c r="E15" s="36">
+        <v>7.6879884360497905E-2</v>
+      </c>
+      <c r="F15" s="36">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="36">
+        <v>1</v>
+      </c>
+      <c r="K15" s="36">
+        <v>0</v>
+      </c>
+      <c r="L15" s="36">
+        <v>4.4354499676000303E-2</v>
+      </c>
+      <c r="M15" s="36">
+        <v>-0.24395772932387799</v>
+      </c>
+      <c r="N15" s="36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>8.8258681385216101E-2</v>
+      </c>
+      <c r="E16">
+        <v>0.27823441183077002</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>3.6368193934059198E-2</v>
+      </c>
+      <c r="M16">
+        <v>-0.15579411441112301</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>5.61140477914416E-2</v>
+      </c>
+      <c r="E17">
+        <v>2.1852796990988702E-2</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1.9839450879785701E-2</v>
+      </c>
+      <c r="M17">
+        <v>-0.23572197226195801</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>7.5126657401607205E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.80015628737299E-2</v>
+      </c>
+      <c r="F18">
+        <v>-1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>6.8920618464021005E-2</v>
+      </c>
+      <c r="M18">
+        <v>-0.309656821507445</v>
+      </c>
+      <c r="N18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>5.4718949954213697E-2</v>
+      </c>
+      <c r="E19">
+        <v>5.8009201764736097E-2</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1.6961787208327299E-2</v>
+      </c>
+      <c r="M19">
+        <v>-2.0536432709944999E-2</v>
+      </c>
+      <c r="N19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="36">
+        <v>6</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0</v>
+      </c>
+      <c r="D20" s="36">
+        <v>0.28475000751560903</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0.965703748717754</v>
+      </c>
+      <c r="F20" s="36">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="36">
+        <v>6</v>
+      </c>
+      <c r="K20" s="36">
+        <v>0</v>
+      </c>
+      <c r="L20" s="36">
+        <v>4.6406547817770497E-2</v>
+      </c>
+      <c r="M20" s="36">
+        <v>0.25945861895210298</v>
+      </c>
+      <c r="N20" s="36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="38">
+        <v>7</v>
+      </c>
+      <c r="C21" s="38">
+        <v>0</v>
+      </c>
+      <c r="D21" s="38">
+        <v>0.109915247305544</v>
+      </c>
+      <c r="E21" s="38">
+        <v>-0.25944704184568601</v>
+      </c>
+      <c r="F21">
+        <v>-1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>3.9681632958166999E-2</v>
+      </c>
+      <c r="M21">
+        <v>-0.224822313903244</v>
+      </c>
+      <c r="N21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="38">
+        <v>8</v>
+      </c>
+      <c r="C22" s="38">
+        <v>0</v>
+      </c>
+      <c r="D22" s="38">
+        <v>0.10834982842928099</v>
+      </c>
+      <c r="E22" s="38">
+        <v>-0.11424927015928101</v>
+      </c>
+      <c r="F22">
+        <v>-1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1.4590665593781501E-2</v>
+      </c>
+      <c r="M22">
+        <v>-4.64372470178821E-2</v>
+      </c>
+      <c r="N22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="38">
+        <v>9</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0</v>
+      </c>
+      <c r="D23" s="38">
+        <v>0.137333978403678</v>
+      </c>
+      <c r="E23" s="38">
+        <v>-0.24042610727423899</v>
+      </c>
+      <c r="F23">
+        <v>-1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1.5221586808737701E-2</v>
+      </c>
+      <c r="M23">
+        <v>-6.9352620202069504E-2</v>
+      </c>
+      <c r="N23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="38">
+        <v>10</v>
+      </c>
+      <c r="C24" s="38">
+        <v>0</v>
+      </c>
+      <c r="D24" s="38">
+        <v>0.107746417738385</v>
+      </c>
+      <c r="E24" s="38">
+        <v>-0.20180480160432501</v>
+      </c>
+      <c r="F24">
+        <v>-1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>2.2660964600930901E-2</v>
+      </c>
+      <c r="M24">
+        <v>-0.12439755164885601</v>
+      </c>
+      <c r="N24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>9.8661752211138695E-2</v>
+      </c>
+      <c r="E25">
+        <v>4.3648291565417302E-2</v>
+      </c>
+      <c r="F25">
+        <v>-1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>2.1630874740859E-2</v>
+      </c>
+      <c r="M25">
+        <v>-0.161370747140475</v>
+      </c>
+      <c r="N25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>6.6127311205395306E-2</v>
+      </c>
+      <c r="E27">
+        <v>-9.4845760178525196E-2</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>2.2407854972396699E-2</v>
+      </c>
+      <c r="M27">
+        <v>-0.29410301317988802</v>
+      </c>
+      <c r="N27">
+        <v>-1</v>
+      </c>
+      <c r="O27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="36">
+        <v>1</v>
+      </c>
+      <c r="C28" s="36">
+        <v>0</v>
+      </c>
+      <c r="D28" s="36">
+        <v>8.6951306916703594E-2</v>
+      </c>
+      <c r="E28" s="36">
+        <v>-0.371648795876378</v>
+      </c>
+      <c r="F28" s="36">
+        <v>-1</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="36">
+        <v>1</v>
+      </c>
+      <c r="K28" s="36">
+        <v>0</v>
+      </c>
+      <c r="L28" s="38">
+        <v>3.1073551571165699E-2</v>
+      </c>
+      <c r="M28" s="36">
+        <v>-0.33214194998060698</v>
+      </c>
+      <c r="N28" s="36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2.15197307932662E-2</v>
+      </c>
+      <c r="E29">
+        <v>-0.34234965642660597</v>
+      </c>
+      <c r="F29">
+        <v>-1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>4.8156360423474202E-2</v>
+      </c>
+      <c r="M29">
+        <v>-0.113801972504257</v>
+      </c>
+      <c r="N29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3.6665863953049702E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.179760714180449</v>
+      </c>
+      <c r="F30">
+        <v>-1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1.7860008408922001E-2</v>
+      </c>
+      <c r="M30">
+        <v>9.7719606088503899E-2</v>
+      </c>
+      <c r="N30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>9.0668484101708399E-2</v>
+      </c>
+      <c r="E31">
+        <v>-0.17677706296439399</v>
+      </c>
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>3.5828222672992599E-2</v>
+      </c>
+      <c r="M31">
+        <v>5.2180741435753103E-2</v>
+      </c>
+      <c r="N31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>6.4742874598852695E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.38553937078598699</v>
+      </c>
+      <c r="F32">
+        <v>-1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1.8793047560543001E-2</v>
+      </c>
+      <c r="M32">
+        <v>-1.95034406111994E-2</v>
+      </c>
+      <c r="N32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="36">
+        <v>6</v>
+      </c>
+      <c r="C33" s="36">
+        <v>0</v>
+      </c>
+      <c r="D33" s="36">
+        <v>8.60178716536463E-2</v>
+      </c>
+      <c r="E33" s="36">
+        <v>0.214366443892684</v>
+      </c>
+      <c r="F33" s="36">
+        <v>-1</v>
+      </c>
+      <c r="I33" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J33" s="36">
+        <v>6</v>
+      </c>
+      <c r="K33" s="36">
+        <v>0</v>
+      </c>
+      <c r="L33" s="36">
+        <v>0.236240699882556</v>
+      </c>
+      <c r="M33" s="36">
+        <v>0.78766222855337398</v>
+      </c>
+      <c r="N33" s="36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>8.7168849462503806E-2</v>
+      </c>
+      <c r="E34">
+        <v>-8.5804313303831495E-2</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>2.3819797026944301E-2</v>
+      </c>
+      <c r="M34">
+        <v>-2.9835260946953102E-2</v>
+      </c>
+      <c r="N34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="38">
+        <v>8</v>
+      </c>
+      <c r="C35" s="38">
+        <v>0</v>
+      </c>
+      <c r="D35" s="38">
+        <v>6.6998864377702194E-2</v>
+      </c>
+      <c r="E35" s="38">
+        <v>0.27064051064505001</v>
+      </c>
+      <c r="F35">
+        <v>-1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>48</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1.6197052235241299E-2</v>
+      </c>
+      <c r="M35">
+        <v>-0.20304441695210601</v>
+      </c>
+      <c r="N35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="38">
+        <v>9</v>
+      </c>
+      <c r="C36" s="38">
+        <v>0</v>
+      </c>
+      <c r="D36" s="38">
+        <v>3.95886629359231E-2</v>
+      </c>
+      <c r="E36" s="38">
+        <v>0.21834979737073501</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>3.67534035273211E-2</v>
+      </c>
+      <c r="M36">
+        <v>1.3131690677654E-2</v>
+      </c>
+      <c r="N36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="38">
+        <v>10</v>
+      </c>
+      <c r="C37" s="38">
+        <v>0</v>
+      </c>
+      <c r="D37" s="38">
+        <v>6.3151138437720702E-2</v>
+      </c>
+      <c r="E37" s="38">
+        <v>0.29554340750528202</v>
+      </c>
+      <c r="F37">
+        <v>-1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>2.6603954100751899E-2</v>
+      </c>
+      <c r="M37">
+        <v>-0.19658000631745701</v>
+      </c>
+      <c r="N37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>5.0718993129040997E-2</v>
+      </c>
+      <c r="E38">
+        <v>-9.9758596128414395E-2</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38">
+        <v>11</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>9.8391562261298301E-3</v>
+      </c>
+      <c r="M38">
+        <v>-0.28944850037316799</v>
+      </c>
+      <c r="N38">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S111"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>9.3185099078890998E-2</v>
+      </c>
+      <c r="F1">
+        <v>-3.7066199111320197E-2</v>
+      </c>
+      <c r="G1">
+        <v>-1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>3.10426600370152E-2</v>
+      </c>
+      <c r="N1">
+        <v>0.24242333247918099</v>
+      </c>
+      <c r="O1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>7.9496526709976895E-2</v>
+      </c>
+      <c r="F2">
+        <v>-0.32257942299299502</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.8478164214641201E-2</v>
+      </c>
+      <c r="N2">
+        <v>-0.214168255269964</v>
+      </c>
+      <c r="O2">
+        <v>-1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.12852875022923099</v>
+      </c>
+      <c r="F3">
+        <v>-0.122432172495846</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1.03610869659341E-2</v>
+      </c>
+      <c r="N3">
+        <v>-6.7333489853988501E-2</v>
+      </c>
+      <c r="O3">
+        <v>-1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>7.4255807635729504E-2</v>
+      </c>
+      <c r="F4">
+        <v>-0.29942778638332501</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1.0811070386780801E-2</v>
+      </c>
+      <c r="N4">
+        <v>-0.109483358462345</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.10507956590610799</v>
+      </c>
+      <c r="F5">
+        <v>0.27914977167813798</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.23639510795626E-2</v>
+      </c>
+      <c r="N5">
+        <v>-6.7604781079366794E-2</v>
+      </c>
+      <c r="O5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4.6185952977089099E-2</v>
+      </c>
+      <c r="F6">
+        <v>8.2064400991559705E-2</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.3558002978028101E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.116262405336719</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="36">
+        <v>6</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.45572440418908</v>
+      </c>
+      <c r="F7" s="36">
+        <v>0.95456465621128905</v>
+      </c>
+      <c r="G7" s="36">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.5912848222277001E-2</v>
+      </c>
+      <c r="N7">
+        <v>-2.2973843365550899E-2</v>
+      </c>
+      <c r="O7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="38">
+        <v>0.10889505173269</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0.402403179307117</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>4.6798647243468099E-2</v>
+      </c>
+      <c r="N8">
+        <v>9.3238817757304901E-2</v>
+      </c>
+      <c r="O8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="38">
+        <v>6.6915279707251599E-2</v>
+      </c>
+      <c r="F9" s="38">
+        <v>0.226897489125757</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.4927303784349599E-2</v>
+      </c>
+      <c r="N9">
+        <v>4.49075706171813E-2</v>
+      </c>
+      <c r="O9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="38">
+        <v>8.9507489125751197E-2</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.13530765876838399</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>5.8354040188973402E-2</v>
+      </c>
+      <c r="N10">
+        <v>-3.1540600575577997E-2</v>
+      </c>
+      <c r="O10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0.101349477681318</v>
+      </c>
+      <c r="F11" s="38">
+        <v>7.7297744101300497E-2</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2.3497537086005701E-2</v>
+      </c>
+      <c r="N11">
+        <v>-0.12905345726677001</v>
+      </c>
+      <c r="O11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>7.9666036500809598E-2</v>
+      </c>
+      <c r="F12">
+        <v>4.9327768151250801E-3</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="36">
+        <v>11</v>
+      </c>
+      <c r="L12" s="36">
+        <v>0</v>
+      </c>
+      <c r="M12" s="36">
+        <v>0.10287532615579</v>
+      </c>
+      <c r="N12" s="36">
+        <v>0.231076442131013</v>
+      </c>
+      <c r="O12" s="36">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.151378428905728</v>
+      </c>
+      <c r="F16">
+        <v>-0.19303897107387299</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0.10178681925179001</v>
+      </c>
+      <c r="N16">
+        <v>-0.171825782378389</v>
+      </c>
+      <c r="O16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.149674143466583</v>
+      </c>
+      <c r="F17">
+        <v>-0.18439571361305801</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" t="s">
+        <v>60</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>5.40830492300605E-2</v>
+      </c>
+      <c r="N17">
+        <v>-0.26009560079928901</v>
+      </c>
+      <c r="O17">
+        <v>-1</v>
+      </c>
+      <c r="P17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.18091286814993199</v>
+      </c>
+      <c r="F18">
+        <v>0.19521266553876801</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0.11472462992695499</v>
+      </c>
+      <c r="N18">
+        <v>-7.2852343640084194E-2</v>
+      </c>
+      <c r="O18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0.14373789412423299</v>
+      </c>
+      <c r="F19">
+        <v>-0.22430143183657</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>9.4273558439355198E-2</v>
+      </c>
+      <c r="N19">
+        <v>-0.133255518163615</v>
+      </c>
+      <c r="O19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0.153923778744331</v>
+      </c>
+      <c r="F20">
+        <v>8.9830319731146399E-2</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0.14812755222506299</v>
+      </c>
+      <c r="N20">
+        <v>-0.36697709245388699</v>
+      </c>
+      <c r="O20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0.116668480240434</v>
+      </c>
+      <c r="F21">
+        <v>4.4062922683972397E-2</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.9036694840522E-2</v>
+      </c>
+      <c r="N21">
+        <v>8.59699987919171E-3</v>
+      </c>
+      <c r="O21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0.18068241595244899</v>
+      </c>
+      <c r="F22">
+        <v>0.31530983443504701</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>7.5481763419867898E-2</v>
+      </c>
+      <c r="N22">
+        <v>-2.6715832484462802E-2</v>
+      </c>
+      <c r="O22">
+        <v>-1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="37">
+        <v>0.20086938947847</v>
+      </c>
+      <c r="F23" s="37">
+        <v>-0.50515818925344702</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0.11750241514681201</v>
+      </c>
+      <c r="N23">
+        <v>-0.33439748802494201</v>
+      </c>
+      <c r="O23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="37">
+        <v>0.16801451138776399</v>
+      </c>
+      <c r="F24" s="37">
+        <v>-0.20350453406555499</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0.13043206778070501</v>
+      </c>
+      <c r="N24">
+        <v>0.123695337967563</v>
+      </c>
+      <c r="O24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0.10647099971457299</v>
+      </c>
+      <c r="F25">
+        <v>-8.4842208629373098E-2</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>7.7362631817736699E-2</v>
+      </c>
+      <c r="N25">
+        <v>4.4285185348459002E-2</v>
+      </c>
+      <c r="O25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0.11398998875864901</v>
+      </c>
+      <c r="F26">
+        <v>-9.9128158027570502E-3</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0.10725807778011601</v>
+      </c>
+      <c r="N26">
+        <v>3.1727035910819497E-2</v>
+      </c>
+      <c r="O26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0.10069733669737101</v>
+      </c>
+      <c r="F27">
+        <v>-9.4552113361220505E-2</v>
+      </c>
+      <c r="G27">
+        <v>-1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K27">
+        <v>11</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>5.99110928217454E-2</v>
+      </c>
+      <c r="N27">
+        <v>-0.18275868084192601</v>
+      </c>
+      <c r="O27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>3.2656243179207102E-2</v>
+      </c>
+      <c r="F30">
+        <v>-0.113191760255086</v>
+      </c>
+      <c r="G30">
+        <v>-1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0.118901691637009</v>
+      </c>
+      <c r="N30">
+        <v>-9.9473143138452499E-2</v>
+      </c>
+      <c r="O30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1.7211652019810099E-2</v>
+      </c>
+      <c r="F31">
+        <v>-0.19207242426159701</v>
+      </c>
+      <c r="G31">
+        <v>-1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0.111404341529371</v>
+      </c>
+      <c r="N31">
+        <v>-4.4043253182013298E-2</v>
+      </c>
+      <c r="O31">
+        <v>-1</v>
+      </c>
+      <c r="P31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2.43633690557651E-2</v>
+      </c>
+      <c r="F32">
+        <v>-3.0228209706670402E-2</v>
+      </c>
+      <c r="G32">
+        <v>-1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>78</v>
+      </c>
+      <c r="J32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0.13126553123603699</v>
+      </c>
+      <c r="N32">
+        <v>0.12425183019005499</v>
+      </c>
+      <c r="O32">
+        <v>-1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>6.1626562316614002E-2</v>
+      </c>
+      <c r="F33">
+        <v>-0.21890629946613599</v>
+      </c>
+      <c r="G33">
+        <v>-1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0.15897347640732401</v>
+      </c>
+      <c r="N33">
+        <v>-0.11148248689790299</v>
+      </c>
+      <c r="O33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2.5442388281999399E-2</v>
+      </c>
+      <c r="F34">
+        <v>-0.42121257357804598</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0.16373182025614699</v>
+      </c>
+      <c r="N34">
+        <v>-0.32719570774640599</v>
+      </c>
+      <c r="O34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>3.3057770599713703E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.174279745795618</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0.17525229438888601</v>
+      </c>
+      <c r="N35">
+        <v>-0.124957558497702</v>
+      </c>
+      <c r="O35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0.100715420247856</v>
+      </c>
+      <c r="F36">
+        <v>0.53617929308932799</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36">
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0.20185572759796599</v>
+      </c>
+      <c r="N36">
+        <v>0.40628691928167499</v>
+      </c>
+      <c r="O36">
+        <v>-1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>8.7984687895175297E-3</v>
+      </c>
+      <c r="F37">
+        <v>4.0332835666802097E-2</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37">
+        <v>7</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0.17757595195727899</v>
+      </c>
+      <c r="N37">
+        <v>-0.29260118212561598</v>
+      </c>
+      <c r="O37">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>4.4354239786947899E-2</v>
+      </c>
+      <c r="F38">
+        <v>-0.238382334299411</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38">
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0.196787311695061</v>
+      </c>
+      <c r="N38">
+        <v>-0.114437570536694</v>
+      </c>
+      <c r="O38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1.43971901936901E-3</v>
+      </c>
+      <c r="F39">
+        <v>-5.1801464557626402E-2</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0.15143934705474499</v>
+      </c>
+      <c r="N39">
+        <v>-0.12881425263523399</v>
+      </c>
+      <c r="O39">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>6.0868322964975102E-2</v>
+      </c>
+      <c r="F40">
+        <v>-0.23147434029236799</v>
+      </c>
+      <c r="G40">
+        <v>-1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0.16231661658783</v>
+      </c>
+      <c r="N40">
+        <v>0.118826182716556</v>
+      </c>
+      <c r="O40">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <v>11</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>4.7615754667033598E-2</v>
+      </c>
+      <c r="F41">
+        <v>-0.56281989977183899</v>
+      </c>
+      <c r="G41">
+        <v>-1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41">
+        <v>11</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0.15634415465125101</v>
+      </c>
+      <c r="N41">
+        <v>0.103772182328533</v>
+      </c>
+      <c r="O41">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2.8719360011963398E-2</v>
+      </c>
+      <c r="F44">
+        <v>-0.26670934379753802</v>
+      </c>
+      <c r="G44">
+        <v>-1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>2.7263763483639899E-2</v>
+      </c>
+      <c r="N44">
+        <v>-0.35976077909002002</v>
+      </c>
+      <c r="O44">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>6.8254805828940404E-3</v>
+      </c>
+      <c r="F45">
+        <v>-0.19937918304930399</v>
+      </c>
+      <c r="G45">
+        <v>-1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>2.19954672344287E-2</v>
+      </c>
+      <c r="N45">
+        <v>-0.193249576225454</v>
+      </c>
+      <c r="O45">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>2.47256785049266E-3</v>
+      </c>
+      <c r="F46">
+        <v>6.8593504706233502E-2</v>
+      </c>
+      <c r="G46">
+        <v>-1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1.7320705926732301E-2</v>
+      </c>
+      <c r="N46">
+        <v>-1.3062549952447601E-3</v>
+      </c>
+      <c r="O46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>4.4723335402452801E-3</v>
+      </c>
+      <c r="F47">
+        <v>-3.85383565864303E-4</v>
+      </c>
+      <c r="G47">
+        <v>-1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>9.6597772171661007E-3</v>
+      </c>
+      <c r="N47">
+        <v>-9.9093964898872205E-2</v>
+      </c>
+      <c r="O47">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>3.8046997259109298E-3</v>
+      </c>
+      <c r="F48">
+        <v>4.0772793211309298E-2</v>
+      </c>
+      <c r="G48">
+        <v>-1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>5.3152060054107303E-3</v>
+      </c>
+      <c r="N48">
+        <v>0.16474735877771099</v>
+      </c>
+      <c r="O48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>5.7011656725830103E-3</v>
+      </c>
+      <c r="F49">
+        <v>5.38210842110807E-2</v>
+      </c>
+      <c r="G49">
+        <v>-1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>75</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>4.62438183093326E-3</v>
+      </c>
+      <c r="N49">
+        <v>-1.7711186452825E-2</v>
+      </c>
+      <c r="O49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0.21244066920629801</v>
+      </c>
+      <c r="F50">
+        <v>0.89325093518512699</v>
+      </c>
+      <c r="G50">
+        <v>-1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+      <c r="K50">
+        <v>6</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0.20610731891353901</v>
+      </c>
+      <c r="N50">
+        <v>0.94812076572179005</v>
+      </c>
+      <c r="O50">
+        <v>-1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>4.41851486583461E-2</v>
+      </c>
+      <c r="F51">
+        <v>-0.226779113232185</v>
+      </c>
+      <c r="G51">
+        <v>-1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" t="s">
+        <v>75</v>
+      </c>
+      <c r="K51">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>6.67488978705537E-2</v>
+      </c>
+      <c r="N51">
+        <v>0.273908081378477</v>
+      </c>
+      <c r="O51">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>2.1356147343640202E-3</v>
+      </c>
+      <c r="F52">
+        <v>0.115084108607954</v>
+      </c>
+      <c r="G52">
+        <v>-1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52">
+        <v>8</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>5.6427010509912799E-2</v>
+      </c>
+      <c r="N52">
+        <v>0.31543492468217799</v>
+      </c>
+      <c r="O52">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>2.4643276296161001E-2</v>
+      </c>
+      <c r="F53">
+        <v>7.3053452706467199E-3</v>
+      </c>
+      <c r="G53">
+        <v>-1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53">
+        <v>9</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>5.8205186163281901E-2</v>
+      </c>
+      <c r="N53">
+        <v>0.466730386694929</v>
+      </c>
+      <c r="O53">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>4.2694653391965397E-2</v>
+      </c>
+      <c r="F54">
+        <v>0.32953983736166498</v>
+      </c>
+      <c r="G54">
+        <v>-1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>75</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>1.28017461059503E-2</v>
+      </c>
+      <c r="N54">
+        <v>-3.4210127593715098E-2</v>
+      </c>
+      <c r="O54">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>8.9397929631931401E-3</v>
+      </c>
+      <c r="F55">
+        <v>-7.4588112430702694E-2</v>
+      </c>
+      <c r="G55">
+        <v>-1</v>
+      </c>
+      <c r="J55" t="s">
+        <v>75</v>
+      </c>
+      <c r="K55">
+        <v>11</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1.4887935955940601E-2</v>
+      </c>
+      <c r="N55">
+        <v>0.18485371948662299</v>
+      </c>
+      <c r="O55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0.233340862620325</v>
+      </c>
+      <c r="F58">
+        <v>-0.106747698923172</v>
+      </c>
+      <c r="G58">
+        <v>-1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>5.7355672598788897E-2</v>
+      </c>
+      <c r="N58">
+        <v>5.8133127139260297E-2</v>
+      </c>
+      <c r="O58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0.19784156694558599</v>
+      </c>
+      <c r="F59">
+        <v>-2.7123509040911001E-2</v>
+      </c>
+      <c r="G59">
+        <v>-1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>85</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1.4357102394298899E-2</v>
+      </c>
+      <c r="N59">
+        <v>5.0769748246988402E-3</v>
+      </c>
+      <c r="O59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0.24304463100336901</v>
+      </c>
+      <c r="F60">
+        <v>0.25777729269323202</v>
+      </c>
+      <c r="G60">
+        <v>-1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>85</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>4.5944648506661898E-2</v>
+      </c>
+      <c r="N60">
+        <v>-3.7327901911323798E-2</v>
+      </c>
+      <c r="O60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0.22895026035631799</v>
+      </c>
+      <c r="F61">
+        <v>-4.0156247364585299E-2</v>
+      </c>
+      <c r="G61">
+        <v>-1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>85</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>6.4615635210280006E-2</v>
+      </c>
+      <c r="N61">
+        <v>-0.13309479627021101</v>
+      </c>
+      <c r="O61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0.24048574716784599</v>
+      </c>
+      <c r="F62">
+        <v>-7.2161040677635804E-2</v>
+      </c>
+      <c r="G62">
+        <v>-1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62">
+        <v>4</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>4.9641102718534398E-2</v>
+      </c>
+      <c r="N62">
+        <v>0.118063248692216</v>
+      </c>
+      <c r="O62">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0.17241660114681601</v>
+      </c>
+      <c r="F63">
+        <v>-6.5881275223183294E-2</v>
+      </c>
+      <c r="G63">
+        <v>-1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>85</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>3.8714870829008999E-2</v>
+      </c>
+      <c r="N63">
+        <v>-0.197524464213645</v>
+      </c>
+      <c r="O63">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0.28164162413277799</v>
+      </c>
+      <c r="F64">
+        <v>0.60228788488227503</v>
+      </c>
+      <c r="G64">
+        <v>-1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>84</v>
+      </c>
+      <c r="J64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K64">
+        <v>6</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0.32451654533202001</v>
+      </c>
+      <c r="N64">
+        <v>1.07276295798892</v>
+      </c>
+      <c r="O64">
+        <v>-1</v>
+      </c>
+      <c r="P64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0.17071996593041</v>
+      </c>
+      <c r="F65">
+        <v>1.39092008017549E-2</v>
+      </c>
+      <c r="G65">
+        <v>-1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" t="s">
+        <v>85</v>
+      </c>
+      <c r="K65">
+        <v>7</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0.116057866195358</v>
+      </c>
+      <c r="N65">
+        <v>0.29757044028806501</v>
+      </c>
+      <c r="O65">
+        <v>-1</v>
+      </c>
+      <c r="P65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0.32711942647445902</v>
+      </c>
+      <c r="F66">
+        <v>0.48240414670317799</v>
+      </c>
+      <c r="G66">
+        <v>-1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>85</v>
+      </c>
+      <c r="K66">
+        <v>8</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0.156739978662711</v>
+      </c>
+      <c r="N66">
+        <v>0.65335921798586405</v>
+      </c>
+      <c r="O66">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0.199872123314317</v>
+      </c>
+      <c r="F67">
+        <v>0.14283913934652201</v>
+      </c>
+      <c r="G67">
+        <v>-1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>85</v>
+      </c>
+      <c r="K67">
+        <v>9</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>5.9413419659705098E-2</v>
+      </c>
+      <c r="N67">
+        <v>0.24954508751879501</v>
+      </c>
+      <c r="O67">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0.217910702684702</v>
+      </c>
+      <c r="F68">
+        <v>0.31491009521255903</v>
+      </c>
+      <c r="G68">
+        <v>-1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>85</v>
+      </c>
+      <c r="K68">
+        <v>10</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0.121391166105921</v>
+      </c>
+      <c r="N68">
+        <v>0.22838422246707299</v>
+      </c>
+      <c r="O68">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0.34834175947888601</v>
+      </c>
+      <c r="F69">
+        <v>0.47278671050179499</v>
+      </c>
+      <c r="G69">
+        <v>-1</v>
+      </c>
+      <c r="J69" t="s">
+        <v>85</v>
+      </c>
+      <c r="K69">
+        <v>11</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0.107925715578985</v>
+      </c>
+      <c r="N69">
+        <v>0.212157311005369</v>
+      </c>
+      <c r="O69">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>5.3830165192146499E-2</v>
+      </c>
+      <c r="F72">
+        <v>-0.365702951883216</v>
+      </c>
+      <c r="G72">
+        <v>-1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>90</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>3.5746764300329803E-2</v>
+      </c>
+      <c r="N72">
+        <v>9.4121705763321906E-2</v>
+      </c>
+      <c r="O72">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1.55380090661719E-2</v>
+      </c>
+      <c r="F73">
+        <v>-8.3234507182015E-2</v>
+      </c>
+      <c r="G73">
+        <v>-1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>90</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>3.0817597871178201E-2</v>
+      </c>
+      <c r="N73">
+        <v>-0.210209868974119</v>
+      </c>
+      <c r="O73">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>2.8065842195160302E-2</v>
+      </c>
+      <c r="F74">
+        <v>6.64029230595128E-2</v>
+      </c>
+      <c r="G74">
+        <v>-1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>90</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>3.6429568458963599E-2</v>
+      </c>
+      <c r="N74">
+        <v>-0.170785045252836</v>
+      </c>
+      <c r="O74">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>2.8485827476056901E-2</v>
+      </c>
+      <c r="F75">
+        <v>-3.6842793909091002E-3</v>
+      </c>
+      <c r="G75">
+        <v>-1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>90</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>7.0515072322807903E-2</v>
+      </c>
+      <c r="N75">
+        <v>-0.50777746007200497</v>
+      </c>
+      <c r="O75">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>7.32632879712736E-2</v>
+      </c>
+      <c r="F76">
+        <v>-2.0994703250761599E-2</v>
+      </c>
+      <c r="G76">
+        <v>-1</v>
+      </c>
+      <c r="J76" t="s">
+        <v>90</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>3.4898434511201899E-2</v>
+      </c>
+      <c r="N76">
+        <v>-8.7863531421982E-2</v>
+      </c>
+      <c r="O76">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>6.3465825941261701E-3</v>
+      </c>
+      <c r="F77">
+        <v>4.0192081506995499E-2</v>
+      </c>
+      <c r="G77">
+        <v>-1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>90</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>4.11207131346399E-2</v>
+      </c>
+      <c r="N77">
+        <v>-0.15148470297841499</v>
+      </c>
+      <c r="O77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0.19958210186470299</v>
+      </c>
+      <c r="F78">
+        <v>0.71120120680027399</v>
+      </c>
+      <c r="G78">
+        <v>-1</v>
+      </c>
+      <c r="J78" t="s">
+        <v>90</v>
+      </c>
+      <c r="K78">
+        <v>6</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0.21106124715848301</v>
+      </c>
+      <c r="N78">
+        <v>0.57679690584633103</v>
+      </c>
+      <c r="O78">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>3.1963038244118898E-2</v>
+      </c>
+      <c r="F79">
+        <v>5.1409357534792498E-2</v>
+      </c>
+      <c r="G79">
+        <v>-1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>90</v>
+      </c>
+      <c r="K79">
+        <v>7</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>4.0552215287976798E-2</v>
+      </c>
+      <c r="N79">
+        <v>-0.16015169291574499</v>
+      </c>
+      <c r="O79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>2.99673374846086E-2</v>
+      </c>
+      <c r="F80">
+        <v>-0.34580020377856602</v>
+      </c>
+      <c r="G80">
+        <v>-1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>90</v>
+      </c>
+      <c r="K80">
+        <v>8</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>5.7666496571568499E-2</v>
+      </c>
+      <c r="N80">
+        <v>0.34154424006869899</v>
+      </c>
+      <c r="O80">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0.116972967207384</v>
+      </c>
+      <c r="F81">
+        <v>4.1879109369155801E-2</v>
+      </c>
+      <c r="G81">
+        <v>-1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>90</v>
+      </c>
+      <c r="K81">
+        <v>9</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>4.5918629182516303E-2</v>
+      </c>
+      <c r="N81">
+        <v>0.21724704453607299</v>
+      </c>
+      <c r="O81">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>3.9138600112305598E-2</v>
+      </c>
+      <c r="F82">
+        <v>0.24195435080556599</v>
+      </c>
+      <c r="G82">
+        <v>-1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>90</v>
+      </c>
+      <c r="K82">
+        <v>10</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>3.1621862953493098E-2</v>
+      </c>
+      <c r="N82">
+        <v>-0.173733035877632</v>
+      </c>
+      <c r="O82">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>8.56934611364719E-4</v>
+      </c>
+      <c r="F83">
+        <v>-7.9550213635249903E-2</v>
+      </c>
+      <c r="G83">
+        <v>-1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>90</v>
+      </c>
+      <c r="K83">
+        <v>11</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>2.1480910072323299E-2</v>
+      </c>
+      <c r="N83">
+        <v>-0.18091425501479</v>
+      </c>
+      <c r="O83">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>8.8033312615748392E-3</v>
+      </c>
+      <c r="F86">
+        <v>-0.32479724795840598</v>
+      </c>
+      <c r="G86">
+        <v>-1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>93</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1.2811716778353899E-2</v>
+      </c>
+      <c r="N86">
+        <v>-0.16205368310820201</v>
+      </c>
+      <c r="O86">
+        <v>-1</v>
+      </c>
+      <c r="P86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>4.17096312031804E-2</v>
+      </c>
+      <c r="F87">
+        <v>-3.0660135731035001E-2</v>
+      </c>
+      <c r="G87">
+        <v>-1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>92</v>
+      </c>
+      <c r="J87" t="s">
+        <v>93</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>1.0403773373625301E-2</v>
+      </c>
+      <c r="N87">
+        <v>-0.115920693929771</v>
+      </c>
+      <c r="O87">
+        <v>-1</v>
+      </c>
+      <c r="P87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0.113088675553861</v>
+      </c>
+      <c r="F88">
+        <v>0.379400484040533</v>
+      </c>
+      <c r="G88">
+        <v>-1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>93</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>9.6796446241674099E-3</v>
+      </c>
+      <c r="N88">
+        <v>3.2589808208788401E-2</v>
+      </c>
+      <c r="O88">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>3.8320626601618E-3</v>
+      </c>
+      <c r="F89">
+        <v>-0.108758786048037</v>
+      </c>
+      <c r="G89">
+        <v>-1</v>
+      </c>
+      <c r="J89" t="s">
+        <v>93</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>5.1697719585754101E-3</v>
+      </c>
+      <c r="N89">
+        <v>-3.63435339347013E-2</v>
+      </c>
+      <c r="O89">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>5.8744261778848603E-2</v>
+      </c>
+      <c r="F90">
+        <v>4.1447027089301898E-3</v>
+      </c>
+      <c r="G90">
+        <v>-1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>93</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>5.6766842896373099E-2</v>
+      </c>
+      <c r="N90">
+        <v>-0.24408794068772099</v>
+      </c>
+      <c r="O90">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>2.3572026661388801E-2</v>
+      </c>
+      <c r="F91">
+        <v>3.09420857949496E-3</v>
+      </c>
+      <c r="G91">
+        <v>-1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>93</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>5.1697719585754101E-3</v>
+      </c>
+      <c r="N91">
+        <v>0.17161788808360501</v>
+      </c>
+      <c r="O91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0.21718582842200301</v>
+      </c>
+      <c r="F92">
+        <v>0.66765140949731505</v>
+      </c>
+      <c r="G92">
+        <v>-1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>94</v>
+      </c>
+      <c r="J92" t="s">
+        <v>93</v>
+      </c>
+      <c r="K92">
+        <v>6</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>1.44223855044742E-2</v>
+      </c>
+      <c r="N92">
+        <v>0.21582046389073301</v>
+      </c>
+      <c r="O92">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>4.17096312031804E-2</v>
+      </c>
+      <c r="F93">
+        <v>-0.17015450520161901</v>
+      </c>
+      <c r="G93">
+        <v>-1</v>
+      </c>
+      <c r="J93" t="s">
+        <v>93</v>
+      </c>
+      <c r="K93">
+        <v>7</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>3.0938078772469998E-2</v>
+      </c>
+      <c r="N93">
+        <v>-0.185305175501318</v>
+      </c>
+      <c r="O93">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>4.7500604301533099E-2</v>
+      </c>
+      <c r="F94">
+        <v>-0.29234416952407599</v>
+      </c>
+      <c r="G94">
+        <v>-1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>93</v>
+      </c>
+      <c r="K94">
+        <v>8</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>1.8997120763581701E-2</v>
+      </c>
+      <c r="N94">
+        <v>2.2924073823566999E-2</v>
+      </c>
+      <c r="O94">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95">
+        <v>9</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>8.0370481779910102E-2</v>
+      </c>
+      <c r="F95">
+        <v>8.0977526609305198E-2</v>
+      </c>
+      <c r="G95">
+        <v>-1</v>
+      </c>
+      <c r="J95" t="s">
+        <v>93</v>
+      </c>
+      <c r="K95">
+        <v>9</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>2.33621292840528E-3</v>
+      </c>
+      <c r="N95">
+        <v>6.5048990829615294E-2</v>
+      </c>
+      <c r="O95">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0.109115483355977</v>
+      </c>
+      <c r="F96">
+        <v>0.42233472688415602</v>
+      </c>
+      <c r="G96">
+        <v>-1</v>
+      </c>
+      <c r="J96" t="s">
+        <v>93</v>
+      </c>
+      <c r="K96">
+        <v>10</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>1.0460346225826001E-2</v>
+      </c>
+      <c r="N96">
+        <v>-4.2196729072079102E-2</v>
+      </c>
+      <c r="O96">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97">
+        <v>11</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0.118979621317399</v>
+      </c>
+      <c r="F97">
+        <v>0.34038770808024499</v>
+      </c>
+      <c r="G97">
+        <v>-1</v>
+      </c>
+      <c r="J97" t="s">
+        <v>93</v>
+      </c>
+      <c r="K97">
+        <v>11</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>2.9762422187078301E-2</v>
+      </c>
+      <c r="N97">
+        <v>-0.182050416602138</v>
+      </c>
+      <c r="O97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0.40706795825958603</v>
+      </c>
+      <c r="F100">
+        <v>2.0524722562377299E-3</v>
+      </c>
+      <c r="G100">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0.40620493554479498</v>
+      </c>
+      <c r="F101">
+        <v>-0.16796759165087499</v>
+      </c>
+      <c r="G101">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0.46209812037329701</v>
+      </c>
+      <c r="F102">
+        <v>0.33409142300602701</v>
+      </c>
+      <c r="G102">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>95</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0.41491436267889498</v>
+      </c>
+      <c r="F103">
+        <v>0.17738112674810799</v>
+      </c>
+      <c r="G103">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0.481370518937768</v>
+      </c>
+      <c r="F104">
+        <v>-0.56231885342575705</v>
+      </c>
+      <c r="G104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0.32254726855966698</v>
+      </c>
+      <c r="F105">
+        <v>-5.7136218062251699E-2</v>
+      </c>
+      <c r="G105">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>95</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0.44936393379721101</v>
+      </c>
+      <c r="F106">
+        <v>0.41783148271364801</v>
+      </c>
+      <c r="G106">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>95</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0.41491436267889498</v>
+      </c>
+      <c r="F107">
+        <v>-6.4776097517351194E-2</v>
+      </c>
+      <c r="G107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C108">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0.32962313160630602</v>
+      </c>
+      <c r="F108">
+        <v>-8.0303091086196904E-2</v>
+      </c>
+      <c r="G108">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>95</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0.40719621105099102</v>
+      </c>
+      <c r="F109">
+        <v>-3.1256975173816301E-2</v>
+      </c>
+      <c r="G109">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>95</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0.42111788421940199</v>
+      </c>
+      <c r="F110">
+        <v>0.21494567548646101</v>
+      </c>
+      <c r="G110">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111">
+        <v>11</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0.41491436267889498</v>
+      </c>
+      <c r="F111">
+        <v>-0.18403358154322599</v>
+      </c>
+      <c r="G111">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="99">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -314,12 +314,21 @@
   </si>
   <si>
     <t>Q08873</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE768H1L12I768PreLabSet0_1stRun</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE768H1L12I768PreLabSet0_1stRunDrop0.2</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE768H4L12I768PreLabSet0_1stRun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -776,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T50"/>
+  <dimension ref="A4:T55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,6 +1581,9 @@
       <c r="T28" s="6"/>
     </row>
     <row r="29" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
@@ -1580,9 +1592,15 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="J29" s="6">
+        <v>0.51929999999999998</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0.89648000000000005</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.94398000000000004</v>
+      </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="7"/>
@@ -1594,7 +1612,7 @@
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1604,9 +1622,15 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="J30" s="6">
+        <v>0.52579759999999998</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0.8861</v>
+      </c>
+      <c r="L30" s="6">
+        <v>0.93849190000000005</v>
+      </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="7"/>
@@ -1618,7 +1642,7 @@
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1628,9 +1652,15 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="J31" s="6">
+        <v>0.51198109999999997</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.89452399999999999</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.94331580000000004</v>
+      </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="7"/>
@@ -1641,9 +1671,6 @@
       <c r="T31" s="6"/>
     </row>
     <row r="32" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
@@ -1664,7 +1691,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
     </row>
-    <row r="33" spans="2:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
@@ -1685,7 +1712,8 @@
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
     </row>
-    <row r="34" spans="2:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1705,473 +1733,586 @@
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C35" s="5" t="s">
+    <row r="35" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+    </row>
+    <row r="36" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+    </row>
+    <row r="37" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+    </row>
+    <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D40" s="6">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E40" s="6">
         <v>0.81869999999999998</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F40" s="6">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6">
         <v>0.37009999999999998</v>
       </c>
-      <c r="I35" s="7"/>
-      <c r="J35" s="6">
+      <c r="I40" s="7"/>
+      <c r="J40" s="6">
         <v>0.4677</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K40" s="6">
         <v>0.83730000000000004</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L40" s="6">
         <v>0.90600000000000003</v>
       </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6">
+      <c r="M40" s="6"/>
+      <c r="N40" s="6">
         <v>0.3614</v>
       </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="6">
+      <c r="O40" s="7"/>
+      <c r="P40" s="6">
         <v>0.627</v>
       </c>
-      <c r="Q35" s="6">
+      <c r="Q40" s="6">
         <v>0.878</v>
       </c>
-      <c r="R35" s="6">
+      <c r="R40" s="6">
         <v>0.9647</v>
       </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3">
         <v>0.62470000000000003</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C36" s="8" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C41" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D41" s="9">
         <v>42.51</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E41" s="9">
         <v>82.97</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F41" s="9">
         <v>90.27</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="11">
+      <c r="G41" s="10"/>
+      <c r="H41" s="11">
         <v>0.37769999999999998</v>
       </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9">
         <v>48.62</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K41" s="9">
         <v>87.25</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L41" s="9">
         <v>93.14</v>
       </c>
-      <c r="M36" s="9"/>
-      <c r="N36" s="11">
+      <c r="M41" s="9"/>
+      <c r="N41" s="11">
         <v>0.40760000000000002</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9">
+      <c r="O41" s="9"/>
+      <c r="P41" s="9">
         <v>63.77</v>
       </c>
-      <c r="Q36" s="9">
+      <c r="Q41" s="9">
         <v>89.79</v>
       </c>
-      <c r="R36" s="9">
+      <c r="R41" s="9">
         <v>97.1</v>
       </c>
-      <c r="S36" s="8"/>
-      <c r="T36" s="11">
+      <c r="S41" s="8"/>
+      <c r="T41" s="11">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C37" s="12" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C42" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D42" s="13">
         <v>0.4365</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E42" s="13">
         <v>0.83460000000000001</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F42" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="14">
+      <c r="G42" s="13"/>
+      <c r="H42" s="14">
         <v>0.39729999999999999</v>
       </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="13">
+      <c r="I42" s="15"/>
+      <c r="J42" s="13">
         <v>0.49740000000000001</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K42" s="13">
         <v>0.87780000000000002</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L42" s="13">
         <v>0.93500000000000005</v>
       </c>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13">
+      <c r="M42" s="13"/>
+      <c r="N42" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O37" s="15"/>
-      <c r="P37" s="13">
+      <c r="O42" s="15"/>
+      <c r="P42" s="13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q42" s="13">
         <v>0.90390000000000004</v>
       </c>
-      <c r="R37" s="13">
+      <c r="R42" s="13">
         <v>0.97199999999999998</v>
       </c>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13">
+      <c r="S42" s="13"/>
+      <c r="T42" s="13">
         <v>0.65949999999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C38" s="6" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D43" s="6">
         <v>0.43480000000000002</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E43" s="16">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F43" s="6">
         <v>0.9073</v>
       </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6">
+      <c r="G43" s="6"/>
+      <c r="H43" s="6">
         <v>0.39419999999999999</v>
       </c>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6">
+      <c r="I43" s="6"/>
+      <c r="J43" s="6">
         <v>0.502</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K43" s="6">
         <v>0.88019999999999998</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L43" s="16">
         <v>0.93840000000000001</v>
       </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="16">
+      <c r="M43" s="6"/>
+      <c r="N43" s="16">
         <v>0.43809999999999999</v>
       </c>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6">
+      <c r="O43" s="6"/>
+      <c r="P43" s="6">
         <v>0.65469999999999995</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="Q43" s="6">
         <v>0.90480000000000005</v>
       </c>
-      <c r="R38" s="6">
+      <c r="R43" s="6">
         <v>0.97250000000000003</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6">
+      <c r="S43" s="6"/>
+      <c r="T43" s="6">
         <v>0.66139999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D44" s="3">
         <v>0.43149999999999999</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E44" s="3">
         <v>0.83409999999999995</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F44" s="3">
         <v>0.90590000000000004</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3">
+      <c r="G44" s="3"/>
+      <c r="H44" s="3">
         <v>0.39169999999999999</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3">
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
         <v>0.49930000000000002</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K44" s="3">
         <v>0.87290000000000001</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L44" s="3">
         <v>0.93389999999999995</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3">
+      <c r="M44" s="3"/>
+      <c r="N44" s="3">
         <v>0.42930000000000001</v>
       </c>
-      <c r="O39" s="4"/>
-      <c r="P39" s="3">
+      <c r="O44" s="4"/>
+      <c r="P44" s="3">
         <v>0.65239999999999998</v>
       </c>
-      <c r="Q39" s="17">
+      <c r="Q44" s="17">
         <v>0.90569999999999995</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R44" s="3">
         <v>0.97260000000000002</v>
       </c>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3">
+      <c r="S44" s="3"/>
+      <c r="T44" s="3">
         <v>0.65810000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D45" s="1">
         <v>43.45</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E45" s="1">
         <v>83.11</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F45" s="1">
         <v>90.55</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="3">
+      <c r="G45" s="18"/>
+      <c r="H45" s="3">
         <v>0.3896</v>
       </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1">
+      <c r="I45" s="1"/>
+      <c r="J45" s="1">
         <v>49.24</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K45" s="1">
         <v>87.43</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L45" s="1">
         <v>93.52</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="3">
+      <c r="M45" s="1"/>
+      <c r="N45" s="3">
         <v>0.42209999999999998</v>
       </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="4">
+      <c r="O45" s="1"/>
+      <c r="P45" s="4">
         <v>65.39</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q45" s="1">
         <v>90.27</v>
       </c>
-      <c r="R40" s="4">
+      <c r="R45" s="4">
         <v>97.27</v>
       </c>
-      <c r="S40" s="1"/>
-      <c r="T40" s="3">
+      <c r="S45" s="1"/>
+      <c r="T45" s="3">
         <v>0.65659999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D46" s="3">
         <v>0.42909999999999998</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E46" s="3">
         <v>0.83479999999999999</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F46" s="3">
         <v>0.90569999999999995</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3">
+      <c r="G46" s="3"/>
+      <c r="H46" s="3">
         <v>0.38979999999999998</v>
       </c>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3">
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
         <v>0.49349999999999999</v>
       </c>
-      <c r="K41" s="17">
+      <c r="K46" s="17">
         <v>0.87919999999999998</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L46" s="3">
         <v>0.93830000000000002</v>
       </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3">
+      <c r="M46" s="3"/>
+      <c r="N46" s="3">
         <v>0.43259999999999998</v>
       </c>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3">
+      <c r="O46" s="3"/>
+      <c r="P46" s="3">
         <v>0.6482</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q46" s="3">
         <v>0.90500000000000003</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R46" s="3">
         <v>0.97209999999999996</v>
       </c>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3">
+      <c r="S46" s="3"/>
+      <c r="T46" s="3">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C42" s="32" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C47" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="33">
+      <c r="D47" s="33">
         <v>0.43919999999999998</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E47" s="33">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F42" s="33">
+      <c r="F47" s="33">
         <v>0.90769999999999995</v>
       </c>
-      <c r="G42" s="34"/>
-      <c r="H42" s="35">
+      <c r="G47" s="34"/>
+      <c r="H47" s="35">
         <v>0.39300000000000002</v>
       </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="33">
+      <c r="I47" s="32"/>
+      <c r="J47" s="33">
         <v>0.503</v>
       </c>
-      <c r="K42" s="35">
+      <c r="K47" s="35">
         <v>0.87680000000000002</v>
       </c>
-      <c r="L42" s="35">
+      <c r="L47" s="35">
         <v>0.93659999999999999</v>
       </c>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35">
+      <c r="M47" s="35"/>
+      <c r="N47" s="35">
         <v>0.43430000000000002</v>
       </c>
-      <c r="O42" s="32"/>
-      <c r="P42" s="33">
+      <c r="O47" s="32"/>
+      <c r="P47" s="33">
         <v>0.6583</v>
       </c>
-      <c r="Q42" s="35">
+      <c r="Q47" s="35">
         <v>0.90510000000000002</v>
       </c>
-      <c r="R42" s="33">
+      <c r="R47" s="33">
         <v>0.97299999999999998</v>
       </c>
-      <c r="S42" s="1"/>
-      <c r="T42" s="17">
+      <c r="S47" s="1"/>
+      <c r="T47" s="17">
         <v>0.66559999999999997</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D48" s="4">
         <v>42.83</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E48" s="4">
         <v>83.36</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F48" s="4">
         <v>90.7</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4">
         <v>39.229999999999997</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4">
         <v>49.84</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K48" s="4">
         <v>87.5</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L48" s="4">
         <v>93.41</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4">
+      <c r="M48" s="4"/>
+      <c r="N48" s="4">
         <v>42.63</v>
       </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4">
+      <c r="O48" s="4"/>
+      <c r="P48" s="4">
         <v>65.8</v>
       </c>
-      <c r="Q43" s="4">
+      <c r="Q48" s="4">
         <v>90.5</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R48" s="4">
         <v>97.3</v>
       </c>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4">
+      <c r="S48" s="4"/>
+      <c r="T48" s="4">
         <v>66.290000000000006</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="19">
+      <c r="D49" s="19">
         <v>0.4335</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E49" s="19">
         <v>0.83350000000000002</v>
       </c>
-      <c r="F44" s="19">
+      <c r="F49" s="19">
         <v>0.90259999999999996</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="19">
+      <c r="G49" s="20"/>
+      <c r="H49" s="19">
         <v>0.38850000000000001</v>
       </c>
-      <c r="I44" s="21"/>
-      <c r="J44" s="19">
+      <c r="I49" s="21"/>
+      <c r="J49" s="19">
         <v>0.49130000000000001</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K49" s="19">
         <v>0.87970000000000004</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L49" s="19">
         <v>0.93069999999999997</v>
       </c>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19">
+      <c r="M49" s="19"/>
+      <c r="N49" s="19">
         <v>0.41320000000000001</v>
       </c>
-      <c r="O44" s="21"/>
-      <c r="P44" s="19">
+      <c r="O49" s="21"/>
+      <c r="P49" s="19">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Q44" s="19">
+      <c r="Q49" s="19">
         <v>0.90269999999999995</v>
       </c>
-      <c r="R44" s="19">
+      <c r="R49" s="19">
         <v>0.97240000000000004</v>
       </c>
-      <c r="S44" s="22"/>
-      <c r="T44" s="23">
+      <c r="S49" s="22"/>
+      <c r="T49" s="23">
         <v>0.66069999999999995</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2185,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20:M20"/>
     </sheetView>
   </sheetViews>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="100">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -323,6 +323,9 @@
   </si>
   <si>
     <t>2embPpiAnnotE768H4L12I768PreLabSet0_1stRun</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE768H4L12I768PreLabSet0Drop0.2</t>
   </si>
 </sst>
 </file>
@@ -787,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,6 +1695,9 @@
       <c r="T32" s="6"/>
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>99</v>
+      </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
@@ -1706,9 +1712,15 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
+      <c r="P33" s="6">
+        <v>0.66569299999999998</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0.90422999999999998</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0.97198600000000002</v>
+      </c>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
     </row>
@@ -1734,9 +1746,6 @@
       <c r="T34" s="6"/>
     </row>
     <row r="35" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6"/>
@@ -1758,9 +1767,6 @@
       <c r="T35" s="6"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="6"/>
@@ -1782,9 +1788,6 @@
       <c r="T36" s="6"/>
     </row>
     <row r="37" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="6"/>
@@ -1806,6 +1809,9 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -1827,6 +1833,9 @@
       <c r="T38" s="6"/>
     </row>
     <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1847,6 +1856,9 @@
       <c r="T39" s="6"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
@@ -1893,6 +1905,7 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
       <c r="C41" s="8" t="s">
         <v>9</v>
       </c>
@@ -1939,6 +1952,7 @@
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
       <c r="C42" s="12" t="s">
         <v>10</v>
       </c>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="104">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -316,16 +316,28 @@
     <t>Q08873</t>
   </si>
   <si>
-    <t>2embPpiAnnotE768H1L12I768PreLabSet0_1stRun</t>
-  </si>
-  <si>
-    <t>2embPpiAnnotE768H1L12I768PreLabSet0_1stRunDrop0.2</t>
-  </si>
-  <si>
-    <t>2embPpiAnnotE768H4L12I768PreLabSet0_1stRun</t>
-  </si>
-  <si>
     <t>2embPpiAnnotE768H4L12I768PreLabSet0Drop0.2</t>
+  </si>
+  <si>
+    <t>drop0.1 in256 ep10e10</t>
+  </si>
+  <si>
+    <t>drop0.1 in256 ep10e12</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE256H1L12I768Set0_1stRun</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE256H1L12I768Set0_1stRunDrop0.2</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE256H4L12I768Set0_1stRun</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE256H1L12I768Set0</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE256H4L12I768Set0</t>
   </si>
 </sst>
 </file>
@@ -788,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T55"/>
+  <dimension ref="A4:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1597,7 @@
     </row>
     <row r="29" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1615,13 +1627,19 @@
     </row>
     <row r="30" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="D30" s="6">
+        <v>0.43213083677139902</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.83454316071685597</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.90633091683560396</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="7"/>
@@ -1645,7 +1663,7 @@
     </row>
     <row r="31" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1696,37 +1714,56 @@
     </row>
     <row r="33" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="C33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.43916617238933098</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.835605451873769</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.90752296578104596</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+      <c r="J33" s="6">
+        <v>0.5309239</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.892953</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.94298300000000002</v>
+      </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="7"/>
       <c r="P33" s="6">
-        <v>0.66569299999999998</v>
+        <v>0.66610357651026797</v>
       </c>
       <c r="Q33" s="6">
-        <v>0.90422999999999998</v>
+        <v>0.90778748640305595</v>
       </c>
       <c r="R33" s="6">
-        <v>0.97198600000000002</v>
+        <v>0.97222662155700101</v>
       </c>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
     </row>
     <row r="34" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -1739,9 +1776,15 @@
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
+      <c r="P34" s="6">
+        <v>0.66219899999999998</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0.90361093533127401</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0.97134283099715801</v>
+      </c>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
     </row>
@@ -1767,17 +1810,28 @@
       <c r="T35" s="6"/>
     </row>
     <row r="36" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+      <c r="J36" s="6">
+        <v>0.520983673424954</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0.89486151979039896</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0.93774798228002598</v>
+      </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="7"/>
@@ -1809,9 +1863,6 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>35</v>
-      </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -1834,8 +1885,9 @@
     </row>
     <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28" t="s">
-        <v>35</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -1849,484 +1901,621 @@
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+      <c r="P39" s="6">
+        <v>0.66569299999999998</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0.90422999999999998</v>
+      </c>
+      <c r="R39" s="6">
+        <v>0.97198600000000002</v>
+      </c>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
+    <row r="40" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+    </row>
+    <row r="41" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="42" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+    </row>
+    <row r="43" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+    </row>
+    <row r="44" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+    </row>
+    <row r="45" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D46" s="6">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E46" s="6">
         <v>0.81869999999999998</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F46" s="6">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6">
         <v>0.37009999999999998</v>
       </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="6">
+      <c r="I46" s="7"/>
+      <c r="J46" s="6">
         <v>0.4677</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K46" s="6">
         <v>0.83730000000000004</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L46" s="6">
         <v>0.90600000000000003</v>
       </c>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6">
+      <c r="M46" s="6"/>
+      <c r="N46" s="6">
         <v>0.3614</v>
       </c>
-      <c r="O40" s="7"/>
-      <c r="P40" s="6">
+      <c r="O46" s="7"/>
+      <c r="P46" s="6">
         <v>0.627</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q46" s="6">
         <v>0.878</v>
       </c>
-      <c r="R40" s="6">
+      <c r="R46" s="6">
         <v>0.9647</v>
-      </c>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3">
-        <v>0.62470000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="C41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="9">
-        <v>42.51</v>
-      </c>
-      <c r="E41" s="9">
-        <v>82.97</v>
-      </c>
-      <c r="F41" s="9">
-        <v>90.27</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11">
-        <v>0.37769999999999998</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9">
-        <v>48.62</v>
-      </c>
-      <c r="K41" s="9">
-        <v>87.25</v>
-      </c>
-      <c r="L41" s="9">
-        <v>93.14</v>
-      </c>
-      <c r="M41" s="9"/>
-      <c r="N41" s="11">
-        <v>0.40760000000000002</v>
-      </c>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9">
-        <v>63.77</v>
-      </c>
-      <c r="Q41" s="9">
-        <v>89.79</v>
-      </c>
-      <c r="R41" s="9">
-        <v>97.1</v>
-      </c>
-      <c r="S41" s="8"/>
-      <c r="T41" s="11">
-        <v>0.64100000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="C42" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="13">
-        <v>0.4365</v>
-      </c>
-      <c r="E42" s="13">
-        <v>0.83460000000000001</v>
-      </c>
-      <c r="F42" s="13">
-        <v>0.90629999999999999</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14">
-        <v>0.39729999999999999</v>
-      </c>
-      <c r="I42" s="15"/>
-      <c r="J42" s="13">
-        <v>0.49740000000000001</v>
-      </c>
-      <c r="K42" s="13">
-        <v>0.87780000000000002</v>
-      </c>
-      <c r="L42" s="13">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="O42" s="15"/>
-      <c r="P42" s="13">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="Q42" s="13">
-        <v>0.90390000000000004</v>
-      </c>
-      <c r="R42" s="13">
-        <v>0.97199999999999998</v>
-      </c>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13">
-        <v>0.65949999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C43" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.43480000000000002</v>
-      </c>
-      <c r="E43" s="16">
-        <v>0.83489999999999998</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0.9073</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6">
-        <v>0.39419999999999999</v>
-      </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6">
-        <v>0.502</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0.88019999999999998</v>
-      </c>
-      <c r="L43" s="16">
-        <v>0.93840000000000001</v>
-      </c>
-      <c r="M43" s="6"/>
-      <c r="N43" s="16">
-        <v>0.43809999999999999</v>
-      </c>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6">
-        <v>0.65469999999999995</v>
-      </c>
-      <c r="Q43" s="6">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="R43" s="6">
-        <v>0.97250000000000003</v>
-      </c>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6">
-        <v>0.66139999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.43149999999999999</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.83409999999999995</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.90590000000000004</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3">
-        <v>0.49930000000000002</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0.87290000000000001</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0.93389999999999995</v>
-      </c>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3">
-        <v>0.42930000000000001</v>
-      </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="3">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="Q44" s="17">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0.97260000000000002</v>
-      </c>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3">
-        <v>0.65810000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="1">
-        <v>43.45</v>
-      </c>
-      <c r="E45" s="1">
-        <v>83.11</v>
-      </c>
-      <c r="F45" s="1">
-        <v>90.55</v>
-      </c>
-      <c r="G45" s="18"/>
-      <c r="H45" s="3">
-        <v>0.3896</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1">
-        <v>49.24</v>
-      </c>
-      <c r="K45" s="1">
-        <v>87.43</v>
-      </c>
-      <c r="L45" s="1">
-        <v>93.52</v>
-      </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="3">
-        <v>0.42209999999999998</v>
-      </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="4">
-        <v>65.39</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>90.27</v>
-      </c>
-      <c r="R45" s="4">
-        <v>97.27</v>
-      </c>
-      <c r="S45" s="1"/>
-      <c r="T45" s="3">
-        <v>0.65659999999999996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.42909999999999998</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0.83479999999999999</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3">
-        <v>0.38979999999999998</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3">
-        <v>0.49349999999999999</v>
-      </c>
-      <c r="K46" s="17">
-        <v>0.87919999999999998</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0.93830000000000002</v>
-      </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3">
-        <v>0.43259999999999998</v>
-      </c>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3">
-        <v>0.6482</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0.97209999999999996</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3">
+        <v>0.62470000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="28"/>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="9">
+        <v>42.51</v>
+      </c>
+      <c r="E47" s="9">
+        <v>82.97</v>
+      </c>
+      <c r="F47" s="9">
+        <v>90.27</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11">
+        <v>0.37769999999999998</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9">
+        <v>48.62</v>
+      </c>
+      <c r="K47" s="9">
+        <v>87.25</v>
+      </c>
+      <c r="L47" s="9">
+        <v>93.14</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c r="N47" s="11">
+        <v>0.40760000000000002</v>
+      </c>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9">
+        <v>63.77</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>89.79</v>
+      </c>
+      <c r="R47" s="9">
+        <v>97.1</v>
+      </c>
+      <c r="S47" s="8"/>
+      <c r="T47" s="11">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="C48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="13">
+        <v>0.4365</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0.90629999999999999</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="I48" s="15"/>
+      <c r="J48" s="13">
+        <v>0.49740000000000001</v>
+      </c>
+      <c r="K48" s="13">
+        <v>0.87780000000000002</v>
+      </c>
+      <c r="L48" s="13">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O48" s="15"/>
+      <c r="P48" s="13">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="Q48" s="13">
+        <v>0.90390000000000004</v>
+      </c>
+      <c r="R48" s="13">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13">
+        <v>0.65949999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0.83489999999999998</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.9073</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6">
+        <v>0.502</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="M49" s="6"/>
+      <c r="N49" s="16">
+        <v>0.43809999999999999</v>
+      </c>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6">
+        <v>0.65469999999999995</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="R49" s="6">
+        <v>0.97250000000000003</v>
+      </c>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6">
+        <v>0.66139999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0.83409999999999995</v>
+      </c>
+      <c r="F50" s="3">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3">
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="3">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="Q50" s="17">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3">
+        <v>0.65810000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="1">
+        <v>43.45</v>
+      </c>
+      <c r="E51" s="1">
+        <v>83.11</v>
+      </c>
+      <c r="F51" s="1">
+        <v>90.55</v>
+      </c>
+      <c r="G51" s="18"/>
+      <c r="H51" s="3">
+        <v>0.3896</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1">
+        <v>49.24</v>
+      </c>
+      <c r="K51" s="1">
+        <v>87.43</v>
+      </c>
+      <c r="L51" s="1">
+        <v>93.52</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="3">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="O51" s="1"/>
+      <c r="P51" s="4">
+        <v>65.39</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>90.27</v>
+      </c>
+      <c r="R51" s="4">
+        <v>97.27</v>
+      </c>
+      <c r="S51" s="1"/>
+      <c r="T51" s="3">
+        <v>0.65659999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.42909999999999998</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.83479999999999999</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="K52" s="17">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3">
+        <v>0.43259999999999998</v>
+      </c>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3">
+        <v>0.6482</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C47" s="32" t="s">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C53" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="33">
+      <c r="D53" s="33">
         <v>0.43919999999999998</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E53" s="33">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F47" s="33">
+      <c r="F53" s="33">
         <v>0.90769999999999995</v>
       </c>
-      <c r="G47" s="34"/>
-      <c r="H47" s="35">
+      <c r="G53" s="34"/>
+      <c r="H53" s="35">
         <v>0.39300000000000002</v>
       </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="33">
+      <c r="I53" s="32"/>
+      <c r="J53" s="33">
         <v>0.503</v>
       </c>
-      <c r="K47" s="35">
+      <c r="K53" s="35">
         <v>0.87680000000000002</v>
       </c>
-      <c r="L47" s="35">
+      <c r="L53" s="35">
         <v>0.93659999999999999</v>
       </c>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35">
+      <c r="M53" s="35"/>
+      <c r="N53" s="35">
         <v>0.43430000000000002</v>
       </c>
-      <c r="O47" s="32"/>
-      <c r="P47" s="33">
+      <c r="O53" s="32"/>
+      <c r="P53" s="33">
         <v>0.6583</v>
       </c>
-      <c r="Q47" s="35">
+      <c r="Q53" s="35">
         <v>0.90510000000000002</v>
       </c>
-      <c r="R47" s="33">
+      <c r="R53" s="33">
         <v>0.97299999999999998</v>
       </c>
-      <c r="S47" s="1"/>
-      <c r="T47" s="17">
+      <c r="S53" s="1"/>
+      <c r="T53" s="17">
         <v>0.66559999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
+    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D54" s="4">
         <v>42.83</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E54" s="4">
         <v>83.36</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F54" s="4">
         <v>90.7</v>
       </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4">
         <v>39.229999999999997</v>
       </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
         <v>49.84</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K54" s="4">
         <v>87.5</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L54" s="4">
         <v>93.41</v>
       </c>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4">
         <v>42.63</v>
       </c>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4">
+      <c r="O54" s="4"/>
+      <c r="P54" s="4">
         <v>65.8</v>
       </c>
-      <c r="Q48" s="4">
+      <c r="Q54" s="4">
         <v>90.5</v>
       </c>
-      <c r="R48" s="4">
+      <c r="R54" s="4">
         <v>97.3</v>
       </c>
-      <c r="S48" s="4"/>
-      <c r="T48" s="4">
+      <c r="S54" s="4"/>
+      <c r="T54" s="4">
         <v>66.290000000000006</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="19">
+      <c r="D55" s="19">
         <v>0.4335</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E55" s="19">
         <v>0.83350000000000002</v>
       </c>
-      <c r="F49" s="19">
+      <c r="F55" s="19">
         <v>0.90259999999999996</v>
       </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="19">
+      <c r="G55" s="20"/>
+      <c r="H55" s="19">
         <v>0.38850000000000001</v>
       </c>
-      <c r="I49" s="21"/>
-      <c r="J49" s="19">
+      <c r="I55" s="21"/>
+      <c r="J55" s="19">
         <v>0.49130000000000001</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K55" s="19">
         <v>0.87970000000000004</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L55" s="19">
         <v>0.93069999999999997</v>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19">
+      <c r="M55" s="19"/>
+      <c r="N55" s="19">
         <v>0.41320000000000001</v>
       </c>
-      <c r="O49" s="21"/>
-      <c r="P49" s="19">
+      <c r="O55" s="21"/>
+      <c r="P55" s="19">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Q49" s="19">
+      <c r="Q55" s="19">
         <v>0.90269999999999995</v>
       </c>
-      <c r="R49" s="19">
+      <c r="R55" s="19">
         <v>0.97240000000000004</v>
       </c>
-      <c r="S49" s="22"/>
-      <c r="T49" s="23">
+      <c r="S55" s="22"/>
+      <c r="T55" s="23">
         <v>0.66069999999999995</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>31</v>
       </c>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="105">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -338,12 +338,15 @@
   </si>
   <si>
     <t>2embPpiAnnotE256H4L12I768Set0</t>
+  </si>
+  <si>
+    <t>NoPpiEp10e10Drop0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -802,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R41" sqref="P41:R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,6 +1938,9 @@
       <c r="T40" s="6"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
@@ -1943,15 +1949,27 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="J41" s="6">
+        <v>0.40104148966138098</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.78469118831988205</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0.89141190674054405</v>
+      </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
+      <c r="P41" s="6">
+        <v>0.59847806990903096</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>0.74540495542180496</v>
+      </c>
+      <c r="R41" s="6">
+        <v>0.94279293529049801</v>
+      </c>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="106">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -341,14 +341,18 @@
   </si>
   <si>
     <t>NoPpiEp10e10Drop0.1</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE256H1L12I768Set0/BertAve12Ep10e12Drop0.1Lr5e5None</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -481,7 +485,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -521,6 +525,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -803,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T61"/>
+  <dimension ref="A4:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R41" sqref="P41:R41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1735,18 +1741,20 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="7"/>
-      <c r="J33" s="6">
+      <c r="J33" s="40">
         <v>0.5309239</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="40">
         <v>0.892953</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="40">
         <v>0.94298300000000002</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="7"/>
+      <c r="O33" s="39">
+        <v>4.1920459275095398E-2</v>
+      </c>
       <c r="P33" s="6">
         <v>0.66610357651026797</v>
       </c>
@@ -1866,6 +1874,9 @@
       <c r="T37" s="6"/>
     </row>
     <row r="38" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="6"/>
@@ -1874,9 +1885,15 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+      <c r="J38" s="6">
+        <v>0.51423909004761503</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0.88734048870237103</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0.93880771591373202</v>
+      </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="7"/>
@@ -1887,9 +1904,6 @@
       <c r="T38" s="6"/>
     </row>
     <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
-        <v>96</v>
-      </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="6"/>
@@ -1898,21 +1912,23 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+      <c r="J39" s="6">
+        <v>0.51169393197777102</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.89076338804911404</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.94032778400047801</v>
+      </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="6">
-        <v>0.66569299999999998</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>0.90422999999999998</v>
-      </c>
-      <c r="R39" s="6">
-        <v>0.97198600000000002</v>
-      </c>
+      <c r="O39" s="39">
+        <v>4.2612862119596799E-2</v>
+      </c>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
     </row>
@@ -1938,9 +1954,6 @@
       <c r="T40" s="6"/>
     </row>
     <row r="41" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>104</v>
-      </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
@@ -1949,27 +1962,15 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="6">
-        <v>0.40104148966138098</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0.78469118831988205</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0.89141190674054405</v>
-      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="6">
-        <v>0.59847806990903096</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>0.74540495542180496</v>
-      </c>
-      <c r="R41" s="6">
-        <v>0.94279293529049801</v>
-      </c>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
       <c r="S41" s="6"/>
       <c r="T41" s="6"/>
     </row>
@@ -2017,7 +2018,7 @@
     </row>
     <row r="44" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -2033,16 +2034,20 @@
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="P44" s="6">
+        <v>0.66569299999999998</v>
+      </c>
+      <c r="Q44" s="6">
+        <v>0.90422999999999998</v>
+      </c>
+      <c r="R44" s="6">
+        <v>0.97198600000000002</v>
+      </c>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
     </row>
     <row r="45" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -2062,478 +2067,603 @@
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0.89700000000000002</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="6">
-        <v>0.37009999999999998</v>
-      </c>
+      <c r="H46" s="6"/>
       <c r="I46" s="7"/>
       <c r="J46" s="6">
-        <v>0.4677</v>
+        <v>0.40104148966138098</v>
       </c>
       <c r="K46" s="6">
-        <v>0.83730000000000004</v>
+        <v>0.78469118831988205</v>
       </c>
       <c r="L46" s="6">
-        <v>0.90600000000000003</v>
+        <v>0.89141190674054405</v>
       </c>
       <c r="M46" s="6"/>
-      <c r="N46" s="6">
-        <v>0.3614</v>
-      </c>
+      <c r="N46" s="6"/>
       <c r="O46" s="7"/>
       <c r="P46" s="6">
+        <v>0.59847806990903096</v>
+      </c>
+      <c r="Q46" s="6">
+        <v>0.74540495542180496</v>
+      </c>
+      <c r="R46" s="6">
+        <v>0.94279293529049801</v>
+      </c>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+    </row>
+    <row r="47" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+    </row>
+    <row r="48" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+    </row>
+    <row r="49" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+    </row>
+    <row r="50" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="6">
+        <v>0.4677</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6">
+        <v>0.3614</v>
+      </c>
+      <c r="O51" s="7"/>
+      <c r="P51" s="6">
         <v>0.627</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="Q51" s="6">
         <v>0.878</v>
       </c>
-      <c r="R46" s="6">
+      <c r="R51" s="6">
         <v>0.9647</v>
       </c>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3">
+      <c r="S51" s="3"/>
+      <c r="T51" s="3">
         <v>0.62470000000000003</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="C47" s="8" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="C52" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D52" s="9">
         <v>42.51</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E52" s="9">
         <v>82.97</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F52" s="9">
         <v>90.27</v>
       </c>
-      <c r="G47" s="10"/>
-      <c r="H47" s="11">
+      <c r="G52" s="10"/>
+      <c r="H52" s="11">
         <v>0.37769999999999998</v>
       </c>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9">
+      <c r="I52" s="9"/>
+      <c r="J52" s="9">
         <v>48.62</v>
       </c>
-      <c r="K47" s="9">
+      <c r="K52" s="9">
         <v>87.25</v>
       </c>
-      <c r="L47" s="9">
+      <c r="L52" s="9">
         <v>93.14</v>
       </c>
-      <c r="M47" s="9"/>
-      <c r="N47" s="11">
+      <c r="M52" s="9"/>
+      <c r="N52" s="11">
         <v>0.40760000000000002</v>
       </c>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9">
+      <c r="O52" s="9"/>
+      <c r="P52" s="9">
         <v>63.77</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="Q52" s="9">
         <v>89.79</v>
       </c>
-      <c r="R47" s="9">
+      <c r="R52" s="9">
         <v>97.1</v>
       </c>
-      <c r="S47" s="8"/>
-      <c r="T47" s="11">
+      <c r="S52" s="8"/>
+      <c r="T52" s="11">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="C48" s="12" t="s">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="C53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D53" s="13">
         <v>0.4365</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E53" s="13">
         <v>0.83460000000000001</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F53" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="14">
+      <c r="G53" s="13"/>
+      <c r="H53" s="14">
         <v>0.39729999999999999</v>
       </c>
-      <c r="I48" s="15"/>
-      <c r="J48" s="13">
+      <c r="I53" s="15"/>
+      <c r="J53" s="13">
         <v>0.49740000000000001</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K53" s="13">
         <v>0.87780000000000002</v>
       </c>
-      <c r="L48" s="13">
+      <c r="L53" s="13">
         <v>0.93500000000000005</v>
       </c>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13">
+      <c r="M53" s="13"/>
+      <c r="N53" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O48" s="15"/>
-      <c r="P48" s="13">
+      <c r="O53" s="15"/>
+      <c r="P53" s="13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q48" s="13">
+      <c r="Q53" s="13">
         <v>0.90390000000000004</v>
       </c>
-      <c r="R48" s="13">
+      <c r="R53" s="13">
         <v>0.97199999999999998</v>
       </c>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13">
+      <c r="S53" s="13"/>
+      <c r="T53" s="13">
         <v>0.65949999999999998</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C49" s="6" t="s">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D54" s="6">
         <v>0.43480000000000002</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E54" s="16">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F54" s="6">
         <v>0.9073</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6">
+      <c r="G54" s="6"/>
+      <c r="H54" s="6">
         <v>0.39419999999999999</v>
       </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6">
+      <c r="I54" s="6"/>
+      <c r="J54" s="6">
         <v>0.502</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K54" s="6">
         <v>0.88019999999999998</v>
       </c>
-      <c r="L49" s="16">
+      <c r="L54" s="16">
         <v>0.93840000000000001</v>
       </c>
-      <c r="M49" s="6"/>
-      <c r="N49" s="16">
+      <c r="M54" s="6"/>
+      <c r="N54" s="16">
         <v>0.43809999999999999</v>
       </c>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6">
+      <c r="O54" s="6"/>
+      <c r="P54" s="6">
         <v>0.65469999999999995</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="Q54" s="6">
         <v>0.90480000000000005</v>
       </c>
-      <c r="R49" s="6">
+      <c r="R54" s="6">
         <v>0.97250000000000003</v>
       </c>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6">
+      <c r="S54" s="6"/>
+      <c r="T54" s="6">
         <v>0.66139999999999999</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C50" s="1" t="s">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D55" s="3">
         <v>0.43149999999999999</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E55" s="3">
         <v>0.83409999999999995</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F55" s="3">
         <v>0.90590000000000004</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3">
+      <c r="G55" s="3"/>
+      <c r="H55" s="3">
         <v>0.39169999999999999</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3">
         <v>0.49930000000000002</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K55" s="3">
         <v>0.87290000000000001</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L55" s="3">
         <v>0.93389999999999995</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3">
         <v>0.42930000000000001</v>
       </c>
-      <c r="O50" s="4"/>
-      <c r="P50" s="3">
+      <c r="O55" s="4"/>
+      <c r="P55" s="3">
         <v>0.65239999999999998</v>
       </c>
-      <c r="Q50" s="17">
+      <c r="Q55" s="17">
         <v>0.90569999999999995</v>
       </c>
-      <c r="R50" s="3">
+      <c r="R55" s="3">
         <v>0.97260000000000002</v>
       </c>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3">
         <v>0.65810000000000002</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D56" s="1">
         <v>43.45</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E56" s="1">
         <v>83.11</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F56" s="1">
         <v>90.55</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="3">
+      <c r="G56" s="18"/>
+      <c r="H56" s="3">
         <v>0.3896</v>
       </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1">
+      <c r="I56" s="1"/>
+      <c r="J56" s="1">
         <v>49.24</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K56" s="1">
         <v>87.43</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L56" s="1">
         <v>93.52</v>
       </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="3">
+      <c r="M56" s="1"/>
+      <c r="N56" s="3">
         <v>0.42209999999999998</v>
       </c>
-      <c r="O51" s="1"/>
-      <c r="P51" s="4">
+      <c r="O56" s="1"/>
+      <c r="P56" s="4">
         <v>65.39</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q56" s="1">
         <v>90.27</v>
       </c>
-      <c r="R51" s="4">
+      <c r="R56" s="4">
         <v>97.27</v>
       </c>
-      <c r="S51" s="1"/>
-      <c r="T51" s="3">
+      <c r="S56" s="1"/>
+      <c r="T56" s="3">
         <v>0.65659999999999996</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C52" s="1" t="s">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D57" s="3">
         <v>0.42909999999999998</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E57" s="3">
         <v>0.83479999999999999</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F57" s="3">
         <v>0.90569999999999995</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3">
+      <c r="G57" s="3"/>
+      <c r="H57" s="3">
         <v>0.38979999999999998</v>
       </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3">
+      <c r="I57" s="3"/>
+      <c r="J57" s="3">
         <v>0.49349999999999999</v>
       </c>
-      <c r="K52" s="17">
+      <c r="K57" s="17">
         <v>0.87919999999999998</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L57" s="3">
         <v>0.93830000000000002</v>
       </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3">
+      <c r="M57" s="3"/>
+      <c r="N57" s="3">
         <v>0.43259999999999998</v>
       </c>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3">
+      <c r="O57" s="3"/>
+      <c r="P57" s="3">
         <v>0.6482</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q57" s="3">
         <v>0.90500000000000003</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R57" s="3">
         <v>0.97209999999999996</v>
       </c>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3">
+      <c r="S57" s="3"/>
+      <c r="T57" s="3">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C53" s="32" t="s">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C58" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="33">
+      <c r="D58" s="33">
         <v>0.43919999999999998</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E58" s="33">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F53" s="33">
+      <c r="F58" s="33">
         <v>0.90769999999999995</v>
       </c>
-      <c r="G53" s="34"/>
-      <c r="H53" s="35">
+      <c r="G58" s="34"/>
+      <c r="H58" s="35">
         <v>0.39300000000000002</v>
       </c>
-      <c r="I53" s="32"/>
-      <c r="J53" s="33">
+      <c r="I58" s="32"/>
+      <c r="J58" s="33">
         <v>0.503</v>
       </c>
-      <c r="K53" s="35">
+      <c r="K58" s="35">
         <v>0.87680000000000002</v>
       </c>
-      <c r="L53" s="35">
+      <c r="L58" s="35">
         <v>0.93659999999999999</v>
       </c>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35">
+      <c r="M58" s="35"/>
+      <c r="N58" s="35">
         <v>0.43430000000000002</v>
       </c>
-      <c r="O53" s="32"/>
-      <c r="P53" s="33">
+      <c r="O58" s="32"/>
+      <c r="P58" s="33">
         <v>0.6583</v>
       </c>
-      <c r="Q53" s="35">
+      <c r="Q58" s="35">
         <v>0.90510000000000002</v>
       </c>
-      <c r="R53" s="33">
+      <c r="R58" s="33">
         <v>0.97299999999999998</v>
       </c>
-      <c r="S53" s="1"/>
-      <c r="T53" s="17">
+      <c r="S58" s="1"/>
+      <c r="T58" s="17">
         <v>0.66559999999999997</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D59" s="4">
         <v>42.83</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E59" s="4">
         <v>83.36</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F59" s="4">
         <v>90.7</v>
       </c>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4">
+      <c r="G59" s="4"/>
+      <c r="H59" s="4">
         <v>39.229999999999997</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4">
+      <c r="I59" s="4"/>
+      <c r="J59" s="4">
         <v>49.84</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K59" s="4">
         <v>87.5</v>
       </c>
-      <c r="L54" s="4">
+      <c r="L59" s="4">
         <v>93.41</v>
       </c>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4">
+      <c r="M59" s="4"/>
+      <c r="N59" s="4">
         <v>42.63</v>
       </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4">
+      <c r="O59" s="4"/>
+      <c r="P59" s="4">
         <v>65.8</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="Q59" s="4">
         <v>90.5</v>
       </c>
-      <c r="R54" s="4">
+      <c r="R59" s="4">
         <v>97.3</v>
       </c>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4">
+      <c r="S59" s="4"/>
+      <c r="T59" s="4">
         <v>66.290000000000006</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="19">
+      <c r="D60" s="19">
         <v>0.4335</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E60" s="19">
         <v>0.83350000000000002</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F60" s="19">
         <v>0.90259999999999996</v>
       </c>
-      <c r="G55" s="20"/>
-      <c r="H55" s="19">
+      <c r="G60" s="20"/>
+      <c r="H60" s="19">
         <v>0.38850000000000001</v>
       </c>
-      <c r="I55" s="21"/>
-      <c r="J55" s="19">
+      <c r="I60" s="21"/>
+      <c r="J60" s="19">
         <v>0.49130000000000001</v>
       </c>
-      <c r="K55" s="19">
+      <c r="K60" s="19">
         <v>0.87970000000000004</v>
       </c>
-      <c r="L55" s="19">
+      <c r="L60" s="19">
         <v>0.93069999999999997</v>
       </c>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19">
+      <c r="M60" s="19"/>
+      <c r="N60" s="19">
         <v>0.41320000000000001</v>
       </c>
-      <c r="O55" s="21"/>
-      <c r="P55" s="19">
+      <c r="O60" s="21"/>
+      <c r="P60" s="19">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Q55" s="19">
+      <c r="Q60" s="19">
         <v>0.90269999999999995</v>
       </c>
-      <c r="R55" s="19">
+      <c r="R60" s="19">
         <v>0.97240000000000004</v>
       </c>
-      <c r="S55" s="22"/>
-      <c r="T55" s="23">
+      <c r="S60" s="22"/>
+      <c r="T60" s="23">
         <v>0.66069999999999995</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
         <v>31</v>
       </c>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="109">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -344,15 +344,24 @@
   </si>
   <si>
     <t>2embPpiAnnotE256H1L12I768Set0/BertAve12Ep10e12Drop0.1Lr5e5None</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE256H1L12I512Set0/NoPpiEp10e10Drop0.1</t>
+  </si>
+  <si>
+    <t>no init GO encoder</t>
+  </si>
+  <si>
+    <t>No type emb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -525,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -809,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:T66"/>
+  <dimension ref="A4:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,125 +829,129 @@
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2"/>
+      <c r="N5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25"/>
+      <c r="E6" s="26">
         <v>0.34050000000000002</v>
       </c>
-      <c r="E6" s="26">
+      <c r="F6" s="26">
         <v>0.62670000000000003</v>
       </c>
-      <c r="F6" s="26">
+      <c r="G6" s="26">
         <v>0.81889999999999996</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26">
         <v>0.23710000000000001</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="26">
+      <c r="J6" s="27"/>
+      <c r="K6" s="26">
         <v>0.38629999999999998</v>
       </c>
-      <c r="K6" s="26">
+      <c r="L6" s="26">
         <v>0.72419999999999995</v>
       </c>
-      <c r="L6" s="26">
+      <c r="M6" s="26">
         <v>0.86729999999999996</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26">
+      <c r="N6" s="26"/>
+      <c r="O6" s="26">
         <v>0.25840000000000002</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="26">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="26">
         <v>0.57199999999999995</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="R6" s="26">
         <v>0.67010000000000003</v>
       </c>
-      <c r="R6" s="26">
+      <c r="S6" s="26">
         <v>0.92390000000000005</v>
       </c>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26">
+      <c r="T6" s="26"/>
+      <c r="U6" s="26">
         <v>0.51829999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
@@ -946,43 +959,44 @@
         <v>22</v>
       </c>
       <c r="C7" s="25"/>
-      <c r="D7" s="26">
+      <c r="D7" s="25"/>
+      <c r="E7" s="26">
         <v>0.34649999999999997</v>
       </c>
-      <c r="E7" s="26">
+      <c r="F7" s="26">
         <v>0.64170000000000005</v>
       </c>
-      <c r="F7" s="26">
+      <c r="G7" s="26">
         <v>0.83460000000000001</v>
       </c>
-      <c r="G7" s="26"/>
       <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="26">
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="26">
         <v>0.39579999999999999</v>
       </c>
-      <c r="K7" s="26">
+      <c r="L7" s="26">
         <v>0.76959999999999995</v>
       </c>
-      <c r="L7" s="26">
+      <c r="M7" s="26">
         <v>0.89039999999999997</v>
       </c>
-      <c r="M7" s="26"/>
       <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="26">
+      <c r="O7" s="26"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="26">
         <v>0.57369999999999999</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="R7" s="26">
         <v>0.67589999999999995</v>
       </c>
-      <c r="R7" s="26">
+      <c r="S7" s="26">
         <v>0.92869999999999997</v>
       </c>
-      <c r="S7" s="26"/>
       <c r="T7" s="26"/>
-    </row>
-    <row r="8" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>25</v>
       </c>
@@ -990,37 +1004,38 @@
         <v>20</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6">
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6">
         <v>0.38469999999999999</v>
       </c>
-      <c r="K8" s="6">
+      <c r="L8" s="6">
         <v>0.77070000000000005</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>0.88870000000000005</v>
       </c>
-      <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="6">
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="6">
         <v>0.60209999999999997</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <v>0.75190000000000001</v>
       </c>
-      <c r="R8" s="6">
+      <c r="S8" s="6">
         <v>0.94389999999999996</v>
       </c>
-      <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1028,134 +1043,138 @@
         <v>18</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
         <v>0.37890000000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>0.71919999999999995</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>0.8518</v>
       </c>
-      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6">
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6">
         <v>0.38790000000000002</v>
       </c>
-      <c r="K9" s="6">
+      <c r="L9" s="6">
         <v>0.77239999999999998</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>0.88349999999999995</v>
       </c>
-      <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="6">
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="6">
         <v>0.59709999999999996</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <v>0.74370000000000003</v>
       </c>
-      <c r="R9" s="6">
+      <c r="S9" s="6">
         <v>0.93920000000000003</v>
       </c>
-      <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="26"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="26" t="s">
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="26">
+      <c r="L10" s="26">
         <v>0.77729999999999999</v>
       </c>
-      <c r="L10" s="26">
+      <c r="M10" s="26">
         <v>0.89700000000000002</v>
       </c>
-      <c r="M10" s="26"/>
       <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="26" t="s">
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="R10" s="26">
         <v>0.73909999999999998</v>
       </c>
-      <c r="R10" s="26">
+      <c r="S10" s="26">
         <v>0.94120000000000004</v>
       </c>
-      <c r="S10" s="26"/>
       <c r="T10" s="26"/>
-    </row>
-    <row r="11" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="31">
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="31">
         <v>0.46839999999999998</v>
       </c>
-      <c r="K11" s="31">
+      <c r="L11" s="31">
         <v>0.86660000000000004</v>
       </c>
-      <c r="L11" s="31">
+      <c r="M11" s="31">
         <v>0.92869999999999997</v>
       </c>
-      <c r="M11" s="26"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="26">
+      <c r="O11" s="26"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="26">
         <v>0.65210000000000001</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="R11" s="26">
         <v>0.89180000000000004</v>
       </c>
-      <c r="R11" s="26">
+      <c r="S11" s="26">
         <v>0.97009999999999996</v>
       </c>
-      <c r="S11" s="26"/>
       <c r="T11" s="26"/>
-    </row>
-    <row r="12" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>19</v>
       </c>
@@ -1163,37 +1182,38 @@
         <v>18</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6">
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6">
         <v>0.40579999999999999</v>
       </c>
-      <c r="K13" s="6">
+      <c r="L13" s="6">
         <v>0.79730000000000001</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <v>0.89429999999999998</v>
       </c>
-      <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="6">
+      <c r="O13" s="6"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="6">
         <v>0.60599999999999998</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="R13" s="6">
         <v>0.75949999999999995</v>
       </c>
-      <c r="R13" s="6">
+      <c r="S13" s="6">
         <v>0.94520000000000004</v>
       </c>
-      <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>19</v>
       </c>
@@ -1201,31 +1221,32 @@
         <v>20</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6">
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6">
         <v>0.40679999999999999</v>
       </c>
-      <c r="K14" s="6">
+      <c r="L14" s="6">
         <v>0.79210000000000003</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>0.8871</v>
       </c>
-      <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>23</v>
       </c>
@@ -1233,51 +1254,53 @@
         <v>18</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6">
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6">
         <v>0.41039999999999999</v>
       </c>
-      <c r="K15" s="6">
+      <c r="L15" s="6">
         <v>0.79279999999999995</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>0.88839999999999997</v>
       </c>
-      <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>28</v>
       </c>
@@ -1285,37 +1308,38 @@
         <v>15</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="25"/>
       <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26">
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="26">
         <v>0.41120000000000001</v>
       </c>
-      <c r="K17" s="26">
+      <c r="L17" s="26">
         <v>0.80179999999999996</v>
       </c>
-      <c r="L17" s="26">
+      <c r="M17" s="26">
         <v>0.89929999999999999</v>
       </c>
-      <c r="M17" s="26"/>
       <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="26">
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="26">
         <v>0.58860000000000001</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="R17" s="26">
         <v>0.75490000000000002</v>
       </c>
-      <c r="R17" s="26">
+      <c r="S17" s="26">
         <v>0.94579999999999997</v>
       </c>
-      <c r="S17" s="26"/>
       <c r="T17" s="26"/>
-    </row>
-    <row r="18" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="26"/>
+    </row>
+    <row r="18" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>30</v>
       </c>
@@ -1323,46 +1347,48 @@
         <v>15</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>29</v>
       </c>
@@ -1370,1300 +1396,1508 @@
         <v>15</v>
       </c>
       <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="26">
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="26">
         <v>0.502</v>
       </c>
-      <c r="K20" s="26">
+      <c r="L20" s="26">
         <v>0.88660000000000005</v>
       </c>
-      <c r="L20" s="26">
+      <c r="M20" s="26">
         <v>0.93840000000000001</v>
       </c>
-      <c r="M20" s="26"/>
       <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="26">
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="26">
         <v>0.65739999999999998</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="R20" s="26">
         <v>0.90769999999999995</v>
       </c>
-      <c r="R20" s="26">
+      <c r="S20" s="26">
         <v>0.97309999999999997</v>
       </c>
-      <c r="S20" s="26"/>
       <c r="T20" s="26"/>
-    </row>
-    <row r="21" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="26"/>
+    </row>
+    <row r="21" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="26">
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="26">
         <v>0.50470000000000004</v>
       </c>
-      <c r="K21" s="26">
+      <c r="L21" s="26">
         <v>0.88619999999999999</v>
       </c>
-      <c r="L21" s="26">
+      <c r="M21" s="26">
         <v>0.94006000000000001</v>
       </c>
-      <c r="M21" s="26"/>
       <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
-    </row>
-    <row r="22" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="26"/>
+    </row>
+    <row r="22" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="7"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="6">
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="6">
         <v>0.50919999999999999</v>
       </c>
-      <c r="K23" s="6">
+      <c r="L23" s="6">
         <v>0.8871</v>
       </c>
-      <c r="L23" s="6">
+      <c r="M23" s="6">
         <v>0.93799999999999994</v>
       </c>
-      <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="7"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="7"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>36</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="6">
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="6">
         <v>0.49408999999999997</v>
       </c>
-      <c r="K25" s="6">
+      <c r="L25" s="6">
         <v>0.88570000000000004</v>
       </c>
-      <c r="L25" s="6">
+      <c r="M25" s="6">
         <v>0.93967000000000001</v>
       </c>
-      <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="7"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
-    </row>
-    <row r="26" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="7"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
-    </row>
-    <row r="27" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="6">
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="6">
         <v>0.50070000000000003</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>0.88312000000000002</v>
       </c>
-      <c r="L27" s="6">
+      <c r="M27" s="6">
         <v>0.93794</v>
       </c>
-      <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="7"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
-    </row>
-    <row r="28" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="7"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
-    </row>
-    <row r="29" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>99</v>
-      </c>
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="6">
-        <v>0.51929999999999998</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0.89648000000000005</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0.94398000000000004</v>
-      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
-    </row>
-    <row r="30" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="6">
-        <v>0.43213083677139902</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0.83454316071685597</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0.90633091683560396</v>
-      </c>
+      <c r="D30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="6">
-        <v>0.52579759999999998</v>
-      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="6">
-        <v>0.8861</v>
+        <v>0.43413721381438802</v>
       </c>
       <c r="L30" s="6">
-        <v>0.93849190000000005</v>
-      </c>
-      <c r="M30" s="6"/>
+        <v>0.84059518185658699</v>
+      </c>
+      <c r="M30" s="6">
+        <v>0.92174507542770701</v>
+      </c>
       <c r="N30" s="6"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
-    </row>
-    <row r="31" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>101</v>
-      </c>
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="6">
-        <v>0.51198109999999997</v>
-      </c>
-      <c r="K31" s="6">
-        <v>0.89452399999999999</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0.94331580000000004</v>
-      </c>
+      <c r="I31" s="6"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="7"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
-    </row>
-    <row r="32" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="7"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
-    </row>
-    <row r="33" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
-        <v>102</v>
-      </c>
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0.43916617238933098</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0.835605451873769</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0.90752296578104596</v>
-      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="40">
-        <v>0.5309239</v>
-      </c>
-      <c r="K33" s="40">
-        <v>0.892953</v>
-      </c>
-      <c r="L33" s="40">
-        <v>0.94298300000000002</v>
-      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="39">
-        <v>4.1920459275095398E-2</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0.66610357651026797</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>0.90778748640305595</v>
-      </c>
-      <c r="R33" s="6">
-        <v>0.97222662155700101</v>
-      </c>
+      <c r="O33" s="6"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
-    </row>
-    <row r="34" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
-        <v>102</v>
-      </c>
+      <c r="U33" s="6"/>
+    </row>
+    <row r="34" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="6">
-        <v>0.66219899999999998</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>0.90361093533127401</v>
-      </c>
-      <c r="R34" s="6">
-        <v>0.97134283099715801</v>
-      </c>
+      <c r="O34" s="6"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
-    </row>
-    <row r="35" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="7"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
-    </row>
-    <row r="36" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U35" s="6"/>
+    </row>
+    <row r="36" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="6">
-        <v>0.520983673424954</v>
-      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="6">
-        <v>0.89486151979039896</v>
+        <v>0.51929999999999998</v>
       </c>
       <c r="L36" s="6">
-        <v>0.93774798228002598</v>
-      </c>
-      <c r="M36" s="6"/>
+        <v>0.89648000000000005</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0.94398000000000004</v>
+      </c>
       <c r="N36" s="6"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="7"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
-    </row>
-    <row r="37" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U36" s="6"/>
+    </row>
+    <row r="37" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6">
+        <v>0.43213083677139902</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.83454316071685597</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0.90633091683560396</v>
+      </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="6">
+        <v>0.52579759999999998</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0.8861</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0.93849190000000005</v>
+      </c>
       <c r="N37" s="6"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="7"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
-    </row>
-    <row r="38" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="6"/>
+    </row>
+    <row r="38" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="6">
-        <v>0.51423909004761503</v>
-      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="6">
-        <v>0.88734048870237103</v>
+        <v>0.51198109999999997</v>
       </c>
       <c r="L38" s="6">
-        <v>0.93880771591373202</v>
-      </c>
-      <c r="M38" s="6"/>
+        <v>0.89452399999999999</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0.94331580000000004</v>
+      </c>
       <c r="N38" s="6"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="7"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
-    </row>
-    <row r="39" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U38" s="6"/>
+    </row>
+    <row r="39" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="6">
-        <v>0.51169393197777102</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0.89076338804911404</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0.94032778400047801</v>
-      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="39">
-        <v>4.2612862119596799E-2</v>
-      </c>
-      <c r="P39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="7"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
-    </row>
-    <row r="40" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U39" s="6"/>
+    </row>
+    <row r="40" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="C40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6">
+        <v>0.43916617238933098</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.835605451873769</v>
+      </c>
+      <c r="G40" s="6">
+        <v>0.90752296578104596</v>
+      </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="40">
+        <v>0.5309239</v>
+      </c>
+      <c r="L40" s="40">
+        <v>0.892953</v>
+      </c>
+      <c r="M40" s="40">
+        <v>0.94298300000000002</v>
+      </c>
       <c r="N40" s="6"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="39">
+        <v>4.1920459275095398E-2</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0.66610357651026797</v>
+      </c>
+      <c r="R40" s="6">
+        <v>0.90778748640305595</v>
+      </c>
+      <c r="S40" s="6">
+        <v>0.97222662155700101</v>
+      </c>
       <c r="T40" s="6"/>
-    </row>
-    <row r="41" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U40" s="6"/>
+    </row>
+    <row r="41" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="C41" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="6">
+        <v>0.66219899999999998</v>
+      </c>
+      <c r="R41" s="6">
+        <v>0.90361093533127401</v>
+      </c>
+      <c r="S41" s="6">
+        <v>0.97134283099715801</v>
+      </c>
       <c r="T41" s="6"/>
-    </row>
-    <row r="42" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U41" s="6"/>
+    </row>
+    <row r="42" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="7"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
-    </row>
-    <row r="43" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U42" s="6"/>
+    </row>
+    <row r="43" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="28" t="s">
+        <v>103</v>
+      </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="6">
+        <v>0.520983673424954</v>
+      </c>
+      <c r="L43" s="6">
+        <v>0.89486151979039896</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0.93774798228002598</v>
+      </c>
       <c r="N43" s="6"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="7"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
-    </row>
-    <row r="44" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>96</v>
-      </c>
+      <c r="U43" s="6"/>
+    </row>
+    <row r="44" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="6">
-        <v>0.66569299999999998</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>0.90422999999999998</v>
-      </c>
-      <c r="R44" s="6">
-        <v>0.97198600000000002</v>
-      </c>
+      <c r="O44" s="6"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
-    </row>
-    <row r="45" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U44" s="6"/>
+    </row>
+    <row r="45" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="6">
+        <v>0.51423909004761503</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.88734048870237103</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0.93880771591373202</v>
+      </c>
       <c r="N45" s="6"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="7"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
-    </row>
-    <row r="46" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="U45" s="6"/>
+    </row>
+    <row r="46" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="6">
-        <v>0.40104148966138098</v>
-      </c>
+      <c r="I46" s="6"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="6">
-        <v>0.78469118831988205</v>
+        <v>0.51169393197777102</v>
       </c>
       <c r="L46" s="6">
-        <v>0.89141190674054405</v>
-      </c>
-      <c r="M46" s="6"/>
+        <v>0.89076338804911404</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0.94032778400047801</v>
+      </c>
       <c r="N46" s="6"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="6">
-        <v>0.59847806990903096</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>0.74540495542180496</v>
-      </c>
-      <c r="R46" s="6">
-        <v>0.94279293529049801</v>
-      </c>
+      <c r="O46" s="6"/>
+      <c r="P46" s="39">
+        <v>4.2612862119596799E-2</v>
+      </c>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
-    </row>
-    <row r="47" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U46" s="6"/>
+    </row>
+    <row r="47" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="7"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
-    </row>
-    <row r="48" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U47" s="6"/>
+    </row>
+    <row r="48" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="7"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="7"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
-    </row>
-    <row r="49" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="U48" s="6"/>
+    </row>
+    <row r="49" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="7"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
-    </row>
-    <row r="50" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="U49" s="6"/>
+    </row>
+    <row r="50" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="7"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="7"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="6"/>
+    </row>
+    <row r="51" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="6">
+        <v>0.66569299999999998</v>
+      </c>
+      <c r="R51" s="6">
+        <v>0.90422999999999998</v>
+      </c>
+      <c r="S51" s="6">
+        <v>0.97198600000000002</v>
+      </c>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+    </row>
+    <row r="52" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+    </row>
+    <row r="53" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="6">
+        <v>0.40104148966138098</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.78469118831988205</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0.89141190674054405</v>
+      </c>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="6">
+        <v>0.59847806990903096</v>
+      </c>
+      <c r="R53" s="6">
+        <v>0.74540495542180496</v>
+      </c>
+      <c r="S53" s="6">
+        <v>0.94279293529049801</v>
+      </c>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+    </row>
+    <row r="54" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+    </row>
+    <row r="55" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+    </row>
+    <row r="56" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+    </row>
+    <row r="57" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D58" s="5"/>
+      <c r="E58" s="6">
         <v>0.41799999999999998</v>
       </c>
-      <c r="E51" s="6">
+      <c r="F58" s="6">
         <v>0.81869999999999998</v>
       </c>
-      <c r="F51" s="6">
+      <c r="G58" s="6">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6">
+      <c r="H58" s="6"/>
+      <c r="I58" s="6">
         <v>0.37009999999999998</v>
       </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="6">
+      <c r="J58" s="7"/>
+      <c r="K58" s="6">
         <v>0.4677</v>
       </c>
-      <c r="K51" s="6">
+      <c r="L58" s="6">
         <v>0.83730000000000004</v>
       </c>
-      <c r="L51" s="6">
+      <c r="M58" s="6">
         <v>0.90600000000000003</v>
       </c>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6">
+      <c r="N58" s="6"/>
+      <c r="O58" s="6">
         <v>0.3614</v>
       </c>
-      <c r="O51" s="7"/>
-      <c r="P51" s="6">
+      <c r="P58" s="7"/>
+      <c r="Q58" s="6">
         <v>0.627</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="R58" s="6">
         <v>0.878</v>
       </c>
-      <c r="R51" s="6">
+      <c r="S58" s="6">
         <v>0.9647</v>
       </c>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3">
+      <c r="T58" s="3"/>
+      <c r="U58" s="3">
         <v>0.62470000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="C52" s="8" t="s">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="28"/>
+      <c r="C59" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D59" s="8"/>
+      <c r="E59" s="9">
         <v>42.51</v>
       </c>
-      <c r="E52" s="9">
+      <c r="F59" s="9">
         <v>82.97</v>
       </c>
-      <c r="F52" s="9">
+      <c r="G59" s="9">
         <v>90.27</v>
       </c>
-      <c r="G52" s="10"/>
-      <c r="H52" s="11">
+      <c r="H59" s="10"/>
+      <c r="I59" s="11">
         <v>0.37769999999999998</v>
       </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9">
+      <c r="J59" s="9"/>
+      <c r="K59" s="9">
         <v>48.62</v>
       </c>
-      <c r="K52" s="9">
+      <c r="L59" s="9">
         <v>87.25</v>
       </c>
-      <c r="L52" s="9">
+      <c r="M59" s="9">
         <v>93.14</v>
       </c>
-      <c r="M52" s="9"/>
-      <c r="N52" s="11">
+      <c r="N59" s="9"/>
+      <c r="O59" s="11">
         <v>0.40760000000000002</v>
       </c>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9">
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9">
         <v>63.77</v>
       </c>
-      <c r="Q52" s="9">
+      <c r="R59" s="9">
         <v>89.79</v>
       </c>
-      <c r="R52" s="9">
+      <c r="S59" s="9">
         <v>97.1</v>
       </c>
-      <c r="S52" s="8"/>
-      <c r="T52" s="11">
+      <c r="T59" s="8"/>
+      <c r="U59" s="11">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="C53" s="12" t="s">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="28"/>
+      <c r="C60" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D60" s="12"/>
+      <c r="E60" s="13">
         <v>0.4365</v>
       </c>
-      <c r="E53" s="13">
+      <c r="F60" s="13">
         <v>0.83460000000000001</v>
       </c>
-      <c r="F53" s="13">
+      <c r="G60" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="14">
+      <c r="H60" s="13"/>
+      <c r="I60" s="14">
         <v>0.39729999999999999</v>
       </c>
-      <c r="I53" s="15"/>
-      <c r="J53" s="13">
+      <c r="J60" s="15"/>
+      <c r="K60" s="13">
         <v>0.49740000000000001</v>
       </c>
-      <c r="K53" s="13">
+      <c r="L60" s="13">
         <v>0.87780000000000002</v>
       </c>
-      <c r="L53" s="13">
+      <c r="M60" s="13">
         <v>0.93500000000000005</v>
       </c>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13">
+      <c r="N60" s="13"/>
+      <c r="O60" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="O53" s="15"/>
-      <c r="P53" s="13">
+      <c r="P60" s="15"/>
+      <c r="Q60" s="13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="Q53" s="13">
+      <c r="R60" s="13">
         <v>0.90390000000000004</v>
       </c>
-      <c r="R53" s="13">
+      <c r="S60" s="13">
         <v>0.97199999999999998</v>
       </c>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13">
+      <c r="T60" s="13"/>
+      <c r="U60" s="13">
         <v>0.65949999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C54" s="6" t="s">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C61" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6">
         <v>0.43480000000000002</v>
       </c>
-      <c r="E54" s="16">
+      <c r="F61" s="16">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F54" s="6">
+      <c r="G61" s="6">
         <v>0.9073</v>
       </c>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6">
         <v>0.39419999999999999</v>
       </c>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6">
+      <c r="J61" s="6"/>
+      <c r="K61" s="6">
         <v>0.502</v>
       </c>
-      <c r="K54" s="6">
+      <c r="L61" s="6">
         <v>0.88019999999999998</v>
       </c>
-      <c r="L54" s="16">
+      <c r="M61" s="16">
         <v>0.93840000000000001</v>
       </c>
-      <c r="M54" s="6"/>
-      <c r="N54" s="16">
+      <c r="N61" s="6"/>
+      <c r="O61" s="16">
         <v>0.43809999999999999</v>
       </c>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6">
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6">
         <v>0.65469999999999995</v>
       </c>
-      <c r="Q54" s="6">
+      <c r="R61" s="6">
         <v>0.90480000000000005</v>
       </c>
-      <c r="R54" s="6">
+      <c r="S61" s="6">
         <v>0.97250000000000003</v>
       </c>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6">
+      <c r="T61" s="6"/>
+      <c r="U61" s="6">
         <v>0.66139999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D62" s="1"/>
+      <c r="E62" s="3">
         <v>0.43149999999999999</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F62" s="3">
         <v>0.83409999999999995</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G62" s="3">
         <v>0.90590000000000004</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3">
+      <c r="H62" s="3"/>
+      <c r="I62" s="3">
         <v>0.39169999999999999</v>
       </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3">
+      <c r="J62" s="3"/>
+      <c r="K62" s="3">
         <v>0.49930000000000002</v>
       </c>
-      <c r="K55" s="3">
+      <c r="L62" s="3">
         <v>0.87290000000000001</v>
       </c>
-      <c r="L55" s="3">
+      <c r="M62" s="3">
         <v>0.93389999999999995</v>
       </c>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3">
+      <c r="N62" s="3"/>
+      <c r="O62" s="3">
         <v>0.42930000000000001</v>
       </c>
-      <c r="O55" s="4"/>
-      <c r="P55" s="3">
+      <c r="P62" s="4"/>
+      <c r="Q62" s="3">
         <v>0.65239999999999998</v>
       </c>
-      <c r="Q55" s="17">
+      <c r="R62" s="17">
         <v>0.90569999999999995</v>
       </c>
-      <c r="R55" s="3">
+      <c r="S62" s="3">
         <v>0.97260000000000002</v>
       </c>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3">
+      <c r="T62" s="3"/>
+      <c r="U62" s="3">
         <v>0.65810000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
         <v>43.45</v>
       </c>
-      <c r="E56" s="1">
+      <c r="F63" s="1">
         <v>83.11</v>
       </c>
-      <c r="F56" s="1">
+      <c r="G63" s="1">
         <v>90.55</v>
       </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="3">
+      <c r="H63" s="18"/>
+      <c r="I63" s="3">
         <v>0.3896</v>
       </c>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1">
         <v>49.24</v>
       </c>
-      <c r="K56" s="1">
+      <c r="L63" s="1">
         <v>87.43</v>
       </c>
-      <c r="L56" s="1">
+      <c r="M63" s="1">
         <v>93.52</v>
       </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="3">
+      <c r="N63" s="1"/>
+      <c r="O63" s="3">
         <v>0.42209999999999998</v>
       </c>
-      <c r="O56" s="1"/>
-      <c r="P56" s="4">
+      <c r="P63" s="1"/>
+      <c r="Q63" s="4">
         <v>65.39</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="R63" s="1">
         <v>90.27</v>
       </c>
-      <c r="R56" s="4">
+      <c r="S63" s="4">
         <v>97.27</v>
       </c>
-      <c r="S56" s="1"/>
-      <c r="T56" s="3">
+      <c r="T63" s="1"/>
+      <c r="U63" s="3">
         <v>0.65659999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D64" s="1"/>
+      <c r="E64" s="3">
         <v>0.42909999999999998</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F64" s="3">
         <v>0.83479999999999999</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G64" s="3">
         <v>0.90569999999999995</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3">
         <v>0.38979999999999998</v>
       </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3">
+      <c r="J64" s="3"/>
+      <c r="K64" s="3">
         <v>0.49349999999999999</v>
       </c>
-      <c r="K57" s="17">
+      <c r="L64" s="17">
         <v>0.87919999999999998</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M64" s="3">
         <v>0.93830000000000002</v>
       </c>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3">
+      <c r="N64" s="3"/>
+      <c r="O64" s="3">
         <v>0.43259999999999998</v>
       </c>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3">
         <v>0.6482</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R64" s="3">
         <v>0.90500000000000003</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S64" s="3">
         <v>0.97209999999999996</v>
       </c>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3">
+      <c r="T64" s="3"/>
+      <c r="U64" s="3">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C58" s="32" t="s">
+    <row r="65" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C65" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="33">
+      <c r="D65" s="32"/>
+      <c r="E65" s="33">
         <v>0.43919999999999998</v>
       </c>
-      <c r="E58" s="33">
+      <c r="F65" s="33">
         <v>0.83489999999999998</v>
       </c>
-      <c r="F58" s="33">
+      <c r="G65" s="33">
         <v>0.90769999999999995</v>
       </c>
-      <c r="G58" s="34"/>
-      <c r="H58" s="35">
+      <c r="H65" s="34"/>
+      <c r="I65" s="35">
         <v>0.39300000000000002</v>
       </c>
-      <c r="I58" s="32"/>
-      <c r="J58" s="33">
+      <c r="J65" s="32"/>
+      <c r="K65" s="33">
         <v>0.503</v>
       </c>
-      <c r="K58" s="35">
+      <c r="L65" s="35">
         <v>0.87680000000000002</v>
       </c>
-      <c r="L58" s="35">
+      <c r="M65" s="35">
         <v>0.93659999999999999</v>
       </c>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35">
+      <c r="N65" s="35"/>
+      <c r="O65" s="35">
         <v>0.43430000000000002</v>
       </c>
-      <c r="O58" s="32"/>
-      <c r="P58" s="33">
+      <c r="P65" s="32"/>
+      <c r="Q65" s="33">
         <v>0.6583</v>
       </c>
-      <c r="Q58" s="35">
+      <c r="R65" s="35">
         <v>0.90510000000000002</v>
       </c>
-      <c r="R58" s="33">
+      <c r="S65" s="33">
         <v>0.97299999999999998</v>
       </c>
-      <c r="S58" s="1"/>
-      <c r="T58" s="17">
+      <c r="T65" s="1"/>
+      <c r="U65" s="17">
         <v>0.66559999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C59" s="1" t="s">
+    <row r="66" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D66" s="1"/>
+      <c r="E66" s="4">
         <v>42.83</v>
       </c>
-      <c r="E59" s="4">
+      <c r="F66" s="4">
         <v>83.36</v>
       </c>
-      <c r="F59" s="4">
+      <c r="G66" s="4">
         <v>90.7</v>
       </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4">
         <v>39.229999999999997</v>
       </c>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4">
+      <c r="J66" s="4"/>
+      <c r="K66" s="4">
         <v>49.84</v>
       </c>
-      <c r="K59" s="4">
+      <c r="L66" s="4">
         <v>87.5</v>
       </c>
-      <c r="L59" s="4">
+      <c r="M66" s="4">
         <v>93.41</v>
       </c>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4">
+      <c r="N66" s="4"/>
+      <c r="O66" s="4">
         <v>42.63</v>
       </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4">
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4">
         <v>65.8</v>
       </c>
-      <c r="Q59" s="4">
+      <c r="R66" s="4">
         <v>90.5</v>
       </c>
-      <c r="R59" s="4">
+      <c r="S66" s="4">
         <v>97.3</v>
       </c>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4">
+      <c r="T66" s="4"/>
+      <c r="U66" s="4">
         <v>66.290000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
+    <row r="67" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="19">
+      <c r="D67" s="1"/>
+      <c r="E67" s="19">
         <v>0.4335</v>
       </c>
-      <c r="E60" s="19">
+      <c r="F67" s="19">
         <v>0.83350000000000002</v>
       </c>
-      <c r="F60" s="19">
+      <c r="G67" s="19">
         <v>0.90259999999999996</v>
       </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="19">
+      <c r="H67" s="20"/>
+      <c r="I67" s="19">
         <v>0.38850000000000001</v>
       </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="19">
+      <c r="J67" s="21"/>
+      <c r="K67" s="19">
         <v>0.49130000000000001</v>
       </c>
-      <c r="K60" s="19">
+      <c r="L67" s="19">
         <v>0.87970000000000004</v>
       </c>
-      <c r="L60" s="19">
+      <c r="M67" s="19">
         <v>0.93069999999999997</v>
       </c>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19">
+      <c r="N67" s="19"/>
+      <c r="O67" s="19">
         <v>0.41320000000000001</v>
       </c>
-      <c r="O60" s="21"/>
-      <c r="P60" s="19">
+      <c r="P67" s="21"/>
+      <c r="Q67" s="19">
         <v>0.65659999999999996</v>
       </c>
-      <c r="Q60" s="19">
+      <c r="R67" s="19">
         <v>0.90269999999999995</v>
       </c>
-      <c r="R60" s="19">
+      <c r="S67" s="19">
         <v>0.97240000000000004</v>
       </c>
-      <c r="S60" s="22"/>
-      <c r="T60" s="23">
+      <c r="T67" s="22"/>
+      <c r="U67" s="23">
         <v>0.66069999999999995</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+    <row r="72" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="73" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
         <v>31</v>
       </c>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="117">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -346,13 +346,37 @@
     <t>2embPpiAnnotE256H1L12I768Set0/BertAve12Ep10e12Drop0.1Lr5e5None</t>
   </si>
   <si>
-    <t>2embPpiAnnotE256H1L12I512Set0/NoPpiEp10e10Drop0.1</t>
-  </si>
-  <si>
     <t>no init GO encoder</t>
   </si>
   <si>
     <t>No type emb</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE256H1L12I512Set0/NoPpiNoTypeBert12Ep10e10Drop0.1</t>
+  </si>
+  <si>
+    <t>init Bert12</t>
+  </si>
+  <si>
+    <t>test loss</t>
+  </si>
+  <si>
+    <t>dev loss</t>
+  </si>
+  <si>
+    <t>freeze_pretrained_vec": true</t>
+  </si>
+  <si>
+    <t>2embPpiAnnotE256H1L12I512Set0/NoPpiNoTypeEp10e10Drop0.1</t>
+  </si>
+  <si>
+    <t>type emb true</t>
+  </si>
+  <si>
+    <t>input 256 hidden 256 ppi</t>
+  </si>
+  <si>
+    <t>end2end GO label</t>
   </si>
 </sst>
 </file>
@@ -818,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:U73"/>
+  <dimension ref="A4:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,11 +856,11 @@
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="9" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="22" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,15 +881,17 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -892,19 +918,21 @@
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="25" t="s">
         <v>7</v>
       </c>
@@ -937,21 +965,23 @@
         <v>0.25840000000000002</v>
       </c>
       <c r="P6" s="27"/>
-      <c r="Q6" s="26">
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="26">
         <v>0.57199999999999995</v>
       </c>
-      <c r="R6" s="26">
+      <c r="T6" s="26">
         <v>0.67010000000000003</v>
       </c>
-      <c r="S6" s="26">
+      <c r="U6" s="26">
         <v>0.92390000000000005</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26">
+      <c r="V6" s="26"/>
+      <c r="W6" s="26">
         <v>0.51829999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
@@ -984,19 +1014,21 @@
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
       <c r="P7" s="27"/>
-      <c r="Q7" s="26">
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="26">
         <v>0.57369999999999999</v>
       </c>
-      <c r="R7" s="26">
+      <c r="T7" s="26">
         <v>0.67589999999999995</v>
       </c>
-      <c r="S7" s="26">
+      <c r="U7" s="26">
         <v>0.92869999999999997</v>
       </c>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-    </row>
-    <row r="8" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+    </row>
+    <row r="8" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>25</v>
       </c>
@@ -1023,19 +1055,21 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="6">
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="6">
         <v>0.60209999999999997</v>
       </c>
-      <c r="R8" s="6">
+      <c r="T8" s="6">
         <v>0.75190000000000001</v>
       </c>
-      <c r="S8" s="6">
+      <c r="U8" s="6">
         <v>0.94389999999999996</v>
       </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+    </row>
+    <row r="9" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1068,19 +1102,21 @@
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="7"/>
-      <c r="Q9" s="6">
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="6">
         <v>0.59709999999999996</v>
       </c>
-      <c r="R9" s="6">
+      <c r="T9" s="6">
         <v>0.74370000000000003</v>
       </c>
-      <c r="S9" s="6">
+      <c r="U9" s="6">
         <v>0.93920000000000003</v>
       </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+    </row>
+    <row r="10" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
@@ -1105,19 +1141,21 @@
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="27"/>
-      <c r="Q10" s="26" t="s">
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="26">
+      <c r="T10" s="26">
         <v>0.73909999999999998</v>
       </c>
-      <c r="S10" s="26">
+      <c r="U10" s="26">
         <v>0.94120000000000004</v>
       </c>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-    </row>
-    <row r="11" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+    </row>
+    <row r="11" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>26</v>
       </c>
@@ -1141,19 +1179,21 @@
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="27"/>
-      <c r="Q11" s="26">
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="26">
         <v>0.65210000000000001</v>
       </c>
-      <c r="R11" s="26">
+      <c r="T11" s="26">
         <v>0.89180000000000004</v>
       </c>
-      <c r="S11" s="26">
+      <c r="U11" s="26">
         <v>0.97009999999999996</v>
       </c>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-    </row>
-    <row r="12" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+    </row>
+    <row r="12" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -1168,13 +1208,15 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
-    </row>
-    <row r="13" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>19</v>
       </c>
@@ -1201,19 +1243,21 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="6">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="6">
         <v>0.60599999999999998</v>
       </c>
-      <c r="R13" s="6">
+      <c r="T13" s="6">
         <v>0.75949999999999995</v>
       </c>
-      <c r="S13" s="6">
+      <c r="U13" s="6">
         <v>0.94520000000000004</v>
       </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>19</v>
       </c>
@@ -1240,13 +1284,15 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>23</v>
       </c>
@@ -1273,13 +1319,15 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
@@ -1294,13 +1342,15 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
-    </row>
-    <row r="17" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>28</v>
       </c>
@@ -1327,19 +1377,21 @@
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
       <c r="P17" s="27"/>
-      <c r="Q17" s="26">
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="26">
         <v>0.58860000000000001</v>
       </c>
-      <c r="R17" s="26">
+      <c r="T17" s="26">
         <v>0.75490000000000002</v>
       </c>
-      <c r="S17" s="26">
+      <c r="U17" s="26">
         <v>0.94579999999999997</v>
       </c>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-    </row>
-    <row r="18" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+    </row>
+    <row r="18" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>30</v>
       </c>
@@ -1360,13 +1412,15 @@
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
-    </row>
-    <row r="19" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1382,13 +1436,15 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
-    </row>
-    <row r="20" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>29</v>
       </c>
@@ -1415,19 +1471,21 @@
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
       <c r="P20" s="27"/>
-      <c r="Q20" s="26">
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="26">
         <v>0.65739999999999998</v>
       </c>
-      <c r="R20" s="26">
+      <c r="T20" s="26">
         <v>0.90769999999999995</v>
       </c>
-      <c r="S20" s="26">
+      <c r="U20" s="26">
         <v>0.97309999999999997</v>
       </c>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-    </row>
-    <row r="21" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+    </row>
+    <row r="21" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>37</v>
       </c>
@@ -1452,13 +1510,15 @@
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
       <c r="P21" s="27"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
-    </row>
-    <row r="22" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+    </row>
+    <row r="22" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1474,13 +1534,15 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
-    </row>
-    <row r="23" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>32</v>
       </c>
@@ -1505,13 +1567,15 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
-    </row>
-    <row r="24" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1527,13 +1591,15 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
-    </row>
-    <row r="25" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>36</v>
       </c>
@@ -1558,13 +1624,15 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
-    </row>
-    <row r="26" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1580,13 +1648,15 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
-    </row>
-    <row r="27" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>38</v>
       </c>
@@ -1611,13 +1681,15 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
-    </row>
-    <row r="28" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1633,13 +1705,15 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
-    </row>
-    <row r="29" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1655,24 +1729,36 @@
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="7"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
+      <c r="Q29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="R29" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
-    </row>
-    <row r="30" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.35404188032199202</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.68562932115446795</v>
+      </c>
+      <c r="G30" s="6">
+        <v>0.85097746487881898</v>
+      </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
@@ -1688,59 +1774,109 @@
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-    </row>
-    <row r="31" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="Q30" s="39">
+        <v>4.7257E-2</v>
+      </c>
+      <c r="R30" s="39">
+        <v>4.7258528256936598E-2</v>
+      </c>
+      <c r="S30" s="6">
+        <v>0.59798275250642696</v>
+      </c>
+      <c r="T30" s="6">
+        <v>0.757679713552465</v>
+      </c>
+      <c r="U30" s="6">
+        <v>0.94589534219438698</v>
+      </c>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>108</v>
+      </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
+      <c r="K31" s="6">
+        <v>0.40408129216357502</v>
+      </c>
+      <c r="L31" s="6">
+        <v>0.79076577208003596</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0.89173938877665904</v>
+      </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
+      <c r="P31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q31" s="39">
+        <v>4.7498800000000001E-2</v>
+      </c>
+      <c r="R31" s="39">
+        <v>5.2412652103082498E-2</v>
+      </c>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
-    </row>
-    <row r="32" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="28" t="s">
+        <v>115</v>
+      </c>
       <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
+      <c r="K32" s="6">
+        <v>0.52497242748937301</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.89571650250248902</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.94300275811376499</v>
+      </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
+      <c r="Q32" s="39">
+        <v>3.5161459043737499E-2</v>
+      </c>
+      <c r="R32" s="39">
+        <v>4.1037345544872601E-2</v>
+      </c>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
-    </row>
-    <row r="33" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+    </row>
+    <row r="33" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1756,13 +1892,15 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
-    </row>
-    <row r="34" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1778,13 +1916,15 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="7"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
-    </row>
-    <row r="35" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1800,13 +1940,15 @@
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
-    </row>
-    <row r="36" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+    </row>
+    <row r="36" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>99</v>
       </c>
@@ -1831,13 +1973,15 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
-    </row>
-    <row r="37" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+    </row>
+    <row r="37" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
         <v>100</v>
       </c>
@@ -1868,13 +2012,15 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="7"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
-    </row>
-    <row r="38" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+    </row>
+    <row r="38" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="28" t="s">
         <v>101</v>
       </c>
@@ -1899,13 +2045,15 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="7"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
       <c r="S38" s="6"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
-    </row>
-    <row r="39" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+    </row>
+    <row r="39" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1921,13 +2069,15 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="7"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
-    </row>
-    <row r="40" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+    </row>
+    <row r="40" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28" t="s">
         <v>102</v>
       </c>
@@ -1962,19 +2112,25 @@
       <c r="P40" s="39">
         <v>4.1920459275095398E-2</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="Q40" s="39">
+        <v>3.5513733944519503E-2</v>
+      </c>
+      <c r="R40" s="39">
+        <v>4.1920459275095398E-2</v>
+      </c>
+      <c r="S40" s="6">
         <v>0.66610357651026797</v>
       </c>
-      <c r="R40" s="6">
+      <c r="T40" s="6">
         <v>0.90778748640305595</v>
       </c>
-      <c r="S40" s="6">
+      <c r="U40" s="6">
         <v>0.97222662155700101</v>
       </c>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-    </row>
-    <row r="41" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+    </row>
+    <row r="41" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28" t="s">
         <v>102</v>
       </c>
@@ -1995,19 +2151,21 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="7"/>
-      <c r="Q41" s="6">
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="6">
         <v>0.66219899999999998</v>
       </c>
-      <c r="R41" s="6">
+      <c r="T41" s="6">
         <v>0.90361093533127401</v>
       </c>
-      <c r="S41" s="6">
+      <c r="U41" s="6">
         <v>0.97134283099715801</v>
       </c>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-    </row>
-    <row r="42" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+    </row>
+    <row r="42" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2023,13 +2181,15 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="7"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
-    </row>
-    <row r="43" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+    </row>
+    <row r="43" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
         <v>103</v>
       </c>
@@ -2056,13 +2216,15 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="7"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
-    </row>
-    <row r="44" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+    </row>
+    <row r="44" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2078,13 +2240,15 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="7"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
-    </row>
-    <row r="45" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+    </row>
+    <row r="45" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28" t="s">
         <v>105</v>
       </c>
@@ -2109,13 +2273,15 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="7"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
-    </row>
-    <row r="46" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+    </row>
+    <row r="46" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2139,13 +2305,15 @@
       <c r="P46" s="39">
         <v>4.2612862119596799E-2</v>
       </c>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="39"/>
       <c r="S46" s="6"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
-    </row>
-    <row r="47" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+    </row>
+    <row r="47" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2161,13 +2329,15 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
       <c r="P47" s="7"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
-    </row>
-    <row r="48" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+    </row>
+    <row r="48" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2183,13 +2353,15 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="7"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
-    </row>
-    <row r="49" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+    </row>
+    <row r="49" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2205,13 +2377,15 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="7"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
-    </row>
-    <row r="50" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+    </row>
+    <row r="50" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2227,13 +2401,15 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="7"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
-    </row>
-    <row r="51" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+    </row>
+    <row r="51" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
         <v>96</v>
       </c>
@@ -2252,19 +2428,21 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
-      <c r="Q51" s="6">
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="6">
         <v>0.66569299999999998</v>
       </c>
-      <c r="R51" s="6">
+      <c r="T51" s="6">
         <v>0.90422999999999998</v>
       </c>
-      <c r="S51" s="6">
+      <c r="U51" s="6">
         <v>0.97198600000000002</v>
       </c>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-    </row>
-    <row r="52" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+    </row>
+    <row r="52" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2280,13 +2458,15 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
       <c r="P52" s="7"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
-    </row>
-    <row r="53" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+    </row>
+    <row r="53" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28" t="s">
         <v>104</v>
       </c>
@@ -2311,19 +2491,21 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
-      <c r="Q53" s="6">
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="6">
         <v>0.59847806990903096</v>
       </c>
-      <c r="R53" s="6">
+      <c r="T53" s="6">
         <v>0.74540495542180496</v>
       </c>
-      <c r="S53" s="6">
+      <c r="U53" s="6">
         <v>0.94279293529049801</v>
       </c>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-    </row>
-    <row r="54" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+    </row>
+    <row r="54" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2339,13 +2521,15 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
       <c r="P54" s="7"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
-    </row>
-    <row r="55" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+    </row>
+    <row r="55" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2361,13 +2545,15 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
       <c r="P55" s="7"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
-    </row>
-    <row r="56" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+    </row>
+    <row r="56" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>35</v>
       </c>
@@ -2386,13 +2572,15 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
       <c r="P56" s="7"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
-    </row>
-    <row r="57" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+    </row>
+    <row r="57" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>35</v>
       </c>
@@ -2410,13 +2598,15 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
       <c r="P57" s="7"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>35</v>
       </c>
@@ -2452,21 +2642,23 @@
         <v>0.3614</v>
       </c>
       <c r="P58" s="7"/>
-      <c r="Q58" s="6">
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="6">
         <v>0.627</v>
       </c>
-      <c r="R58" s="6">
+      <c r="T58" s="6">
         <v>0.878</v>
       </c>
-      <c r="S58" s="6">
+      <c r="U58" s="6">
         <v>0.9647</v>
       </c>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3">
+      <c r="V58" s="3"/>
+      <c r="W58" s="3">
         <v>0.62470000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="28"/>
       <c r="C59" s="8" t="s">
         <v>9</v>
@@ -2500,21 +2692,23 @@
         <v>0.40760000000000002</v>
       </c>
       <c r="P59" s="9"/>
-      <c r="Q59" s="9">
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9">
         <v>63.77</v>
       </c>
-      <c r="R59" s="9">
+      <c r="T59" s="9">
         <v>89.79</v>
       </c>
-      <c r="S59" s="9">
+      <c r="U59" s="9">
         <v>97.1</v>
       </c>
-      <c r="T59" s="8"/>
-      <c r="U59" s="11">
+      <c r="V59" s="8"/>
+      <c r="W59" s="11">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="28"/>
       <c r="C60" s="12" t="s">
         <v>10</v>
@@ -2548,21 +2742,23 @@
         <v>0.41799999999999998</v>
       </c>
       <c r="P60" s="15"/>
-      <c r="Q60" s="13">
+      <c r="Q60" s="15"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="R60" s="13">
+      <c r="T60" s="13">
         <v>0.90390000000000004</v>
       </c>
-      <c r="S60" s="13">
+      <c r="U60" s="13">
         <v>0.97199999999999998</v>
       </c>
-      <c r="T60" s="13"/>
-      <c r="U60" s="13">
+      <c r="V60" s="13"/>
+      <c r="W60" s="13">
         <v>0.65949999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C61" s="6" t="s">
         <v>11</v>
       </c>
@@ -2595,21 +2791,23 @@
         <v>0.43809999999999999</v>
       </c>
       <c r="P61" s="6"/>
-      <c r="Q61" s="6">
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6">
         <v>0.65469999999999995</v>
       </c>
-      <c r="R61" s="6">
+      <c r="T61" s="6">
         <v>0.90480000000000005</v>
       </c>
-      <c r="S61" s="6">
+      <c r="U61" s="6">
         <v>0.97250000000000003</v>
       </c>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6">
+      <c r="V61" s="6"/>
+      <c r="W61" s="6">
         <v>0.66139999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C62" s="1" t="s">
         <v>12</v>
       </c>
@@ -2642,21 +2840,23 @@
         <v>0.42930000000000001</v>
       </c>
       <c r="P62" s="4"/>
-      <c r="Q62" s="3">
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="3">
         <v>0.65239999999999998</v>
       </c>
-      <c r="R62" s="17">
+      <c r="T62" s="17">
         <v>0.90569999999999995</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>0.97260000000000002</v>
       </c>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3">
+      <c r="V62" s="3"/>
+      <c r="W62" s="3">
         <v>0.65810000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C63" s="1" t="s">
         <v>13</v>
       </c>
@@ -2689,21 +2889,23 @@
         <v>0.42209999999999998</v>
       </c>
       <c r="P63" s="1"/>
-      <c r="Q63" s="4">
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="4">
         <v>65.39</v>
       </c>
-      <c r="R63" s="1">
+      <c r="T63" s="1">
         <v>90.27</v>
       </c>
-      <c r="S63" s="4">
+      <c r="U63" s="4">
         <v>97.27</v>
       </c>
-      <c r="T63" s="1"/>
-      <c r="U63" s="3">
+      <c r="V63" s="1"/>
+      <c r="W63" s="3">
         <v>0.65659999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C64" s="1" t="s">
         <v>14</v>
       </c>
@@ -2736,21 +2938,23 @@
         <v>0.43259999999999998</v>
       </c>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3">
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3">
         <v>0.6482</v>
       </c>
-      <c r="R64" s="3">
+      <c r="T64" s="3">
         <v>0.90500000000000003</v>
       </c>
-      <c r="S64" s="3">
+      <c r="U64" s="3">
         <v>0.97209999999999996</v>
       </c>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3">
+      <c r="V64" s="3"/>
+      <c r="W64" s="3">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="65" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C65" s="32" t="s">
         <v>15</v>
       </c>
@@ -2783,21 +2987,23 @@
         <v>0.43430000000000002</v>
       </c>
       <c r="P65" s="32"/>
-      <c r="Q65" s="33">
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="33">
         <v>0.6583</v>
       </c>
-      <c r="R65" s="35">
+      <c r="T65" s="35">
         <v>0.90510000000000002</v>
       </c>
-      <c r="S65" s="33">
+      <c r="U65" s="33">
         <v>0.97299999999999998</v>
       </c>
-      <c r="T65" s="1"/>
-      <c r="U65" s="17">
+      <c r="V65" s="1"/>
+      <c r="W65" s="17">
         <v>0.66559999999999997</v>
       </c>
     </row>
-    <row r="66" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C66" s="1" t="s">
         <v>16</v>
       </c>
@@ -2830,21 +3036,23 @@
         <v>42.63</v>
       </c>
       <c r="P66" s="4"/>
-      <c r="Q66" s="4">
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4">
         <v>65.8</v>
       </c>
-      <c r="R66" s="4">
+      <c r="T66" s="4">
         <v>90.5</v>
       </c>
-      <c r="S66" s="4">
+      <c r="U66" s="4">
         <v>97.3</v>
       </c>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4">
+      <c r="V66" s="4"/>
+      <c r="W66" s="4">
         <v>66.290000000000006</v>
       </c>
     </row>
-    <row r="67" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>17</v>
       </c>
@@ -2877,26 +3085,28 @@
         <v>0.41320000000000001</v>
       </c>
       <c r="P67" s="21"/>
-      <c r="Q67" s="19">
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="19">
         <v>0.65659999999999996</v>
       </c>
-      <c r="R67" s="19">
+      <c r="T67" s="19">
         <v>0.90269999999999995</v>
       </c>
-      <c r="S67" s="19">
+      <c r="U67" s="19">
         <v>0.97240000000000004</v>
       </c>
-      <c r="T67" s="22"/>
-      <c r="U67" s="23">
+      <c r="V67" s="22"/>
+      <c r="W67" s="23">
         <v>0.66069999999999995</v>
       </c>
     </row>
-    <row r="72" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>31</v>
       </c>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Prelim" sheetId="1" r:id="rId1"/>
+    <sheet name="10Nov2019" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="145">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -133,9 +134,6 @@
     <t>58.13% *AsIsE768I768H6L8Drop0.1</t>
   </si>
   <si>
-    <t>2embMutPosPpiGeluH1L12BertLabDrop0.1</t>
-  </si>
-  <si>
     <t>2embPpiGeluE768H1L12I768PretrainLabelDrop0.1</t>
   </si>
   <si>
@@ -377,15 +375,104 @@
   </si>
   <si>
     <t>end2end GO label</t>
+  </si>
+  <si>
+    <t>PpiFrNoTypeEp10e10Drop0.1</t>
+  </si>
+  <si>
+    <t>PpiFrYesTypeEp10e10Drop0.1</t>
+  </si>
+  <si>
+    <t>NoPpiYesTypeEp10e10Drop0.1</t>
+  </si>
+  <si>
+    <t>PpiNoTypeEp10e10Drop0.1</t>
+  </si>
+  <si>
+    <t>train loss</t>
+  </si>
+  <si>
+    <t>NoPpiNoTypeFreezeBert12Ep10e10Drop0.1</t>
+  </si>
+  <si>
+    <t>no layernorm, freeze input</t>
+  </si>
+  <si>
+    <t>worst result, so layernorm helps</t>
+  </si>
+  <si>
+    <t>here, we redo experiments with code that handles proper flags</t>
+  </si>
+  <si>
+    <t>previous trials shows we do not need input 768, we need only 256</t>
+  </si>
+  <si>
+    <t>having more heads did not greatly increase results</t>
+  </si>
+  <si>
+    <t>input 256</t>
+  </si>
+  <si>
+    <t>hidden 256</t>
+  </si>
+  <si>
+    <t>head=1</t>
+  </si>
+  <si>
+    <t>layer=12</t>
+  </si>
+  <si>
+    <t>ppi vector pretrained 256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO label vector pretrained 256 </t>
+  </si>
+  <si>
+    <t>aa type</t>
+  </si>
+  <si>
+    <t>GO label</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>bert12-&gt;freeze-&gt;layernorm</t>
+  </si>
+  <si>
+    <t>ppi last</t>
+  </si>
+  <si>
+    <t>Protein Net, exclude label vec</t>
+  </si>
+  <si>
+    <t>Joint Layer, exclude label vec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add bert12 dim768 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -513,12 +600,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -560,8 +648,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -842,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:W73"/>
+  <dimension ref="A4:X79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T64" sqref="T64:V65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,10 +948,11 @@
     <col min="5" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="9" width="9.140625" hidden="1" customWidth="1"/>
     <col min="14" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="22" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -883,15 +975,16 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
@@ -920,19 +1013,20 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="2"/>
+      <c r="T5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1" t="s">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="25" t="s">
         <v>7</v>
       </c>
@@ -967,21 +1061,22 @@
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="26">
+      <c r="S6" s="27"/>
+      <c r="T6" s="26">
         <v>0.57199999999999995</v>
       </c>
-      <c r="T6" s="26">
+      <c r="U6" s="26">
         <v>0.67010000000000003</v>
       </c>
-      <c r="U6" s="26">
+      <c r="V6" s="26">
         <v>0.92390000000000005</v>
       </c>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26">
+      <c r="W6" s="26"/>
+      <c r="X6" s="26">
         <v>0.51829999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>21</v>
       </c>
@@ -1016,19 +1111,20 @@
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
-      <c r="S7" s="26">
+      <c r="S7" s="27"/>
+      <c r="T7" s="26">
         <v>0.57369999999999999</v>
       </c>
-      <c r="T7" s="26">
+      <c r="U7" s="26">
         <v>0.67589999999999995</v>
       </c>
-      <c r="U7" s="26">
+      <c r="V7" s="26">
         <v>0.92869999999999997</v>
       </c>
-      <c r="V7" s="26"/>
       <c r="W7" s="26"/>
-    </row>
-    <row r="8" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="26"/>
+    </row>
+    <row r="8" spans="1:24" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>25</v>
       </c>
@@ -1057,19 +1153,20 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="6">
+      <c r="S8" s="7"/>
+      <c r="T8" s="6">
         <v>0.60209999999999997</v>
       </c>
-      <c r="T8" s="6">
+      <c r="U8" s="6">
         <v>0.75190000000000001</v>
       </c>
-      <c r="U8" s="6">
+      <c r="V8" s="6">
         <v>0.94389999999999996</v>
       </c>
-      <c r="V8" s="6"/>
       <c r="W8" s="6"/>
-    </row>
-    <row r="9" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1104,19 +1201,20 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="6">
+      <c r="S9" s="7"/>
+      <c r="T9" s="6">
         <v>0.59709999999999996</v>
       </c>
-      <c r="T9" s="6">
+      <c r="U9" s="6">
         <v>0.74370000000000003</v>
       </c>
-      <c r="U9" s="6">
+      <c r="V9" s="6">
         <v>0.93920000000000003</v>
       </c>
-      <c r="V9" s="6"/>
       <c r="W9" s="6"/>
-    </row>
-    <row r="10" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
@@ -1143,19 +1241,20 @@
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
-      <c r="S10" s="26" t="s">
+      <c r="S10" s="27"/>
+      <c r="T10" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="T10" s="26">
+      <c r="U10" s="26">
         <v>0.73909999999999998</v>
       </c>
-      <c r="U10" s="26">
+      <c r="V10" s="26">
         <v>0.94120000000000004</v>
       </c>
-      <c r="V10" s="26"/>
       <c r="W10" s="26"/>
-    </row>
-    <row r="11" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="26"/>
+    </row>
+    <row r="11" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>26</v>
       </c>
@@ -1181,19 +1280,20 @@
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="26">
+      <c r="S11" s="27"/>
+      <c r="T11" s="26">
         <v>0.65210000000000001</v>
       </c>
-      <c r="T11" s="26">
+      <c r="U11" s="26">
         <v>0.89180000000000004</v>
       </c>
-      <c r="U11" s="26">
+      <c r="V11" s="26">
         <v>0.97009999999999996</v>
       </c>
-      <c r="V11" s="26"/>
       <c r="W11" s="26"/>
-    </row>
-    <row r="12" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="26"/>
+    </row>
+    <row r="12" spans="1:24" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="6"/>
@@ -1210,13 +1310,14 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="6"/>
+      <c r="S12" s="7"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="1:24" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>19</v>
       </c>
@@ -1245,19 +1346,20 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="6">
+      <c r="S13" s="7"/>
+      <c r="T13" s="6">
         <v>0.60599999999999998</v>
       </c>
-      <c r="T13" s="6">
+      <c r="U13" s="6">
         <v>0.75949999999999995</v>
       </c>
-      <c r="U13" s="6">
+      <c r="V13" s="6">
         <v>0.94520000000000004</v>
       </c>
-      <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="1:24" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>19</v>
       </c>
@@ -1286,13 +1388,14 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="6"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="1:24" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>23</v>
       </c>
@@ -1321,13 +1424,14 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="6"/>
+      <c r="S15" s="7"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="6"/>
@@ -1344,13 +1448,14 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="6"/>
+      <c r="S16" s="7"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>28</v>
       </c>
@@ -1379,19 +1484,20 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="26">
+      <c r="S17" s="27"/>
+      <c r="T17" s="26">
         <v>0.58860000000000001</v>
       </c>
-      <c r="T17" s="26">
+      <c r="U17" s="26">
         <v>0.75490000000000002</v>
       </c>
-      <c r="U17" s="26">
+      <c r="V17" s="26">
         <v>0.94579999999999997</v>
       </c>
-      <c r="V17" s="26"/>
       <c r="W17" s="26"/>
-    </row>
-    <row r="18" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="26"/>
+    </row>
+    <row r="18" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>30</v>
       </c>
@@ -1414,13 +1520,14 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="6"/>
+      <c r="S18" s="7"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
-    </row>
-    <row r="19" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="6"/>
+    </row>
+    <row r="19" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1438,13 +1545,14 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="6"/>
+      <c r="S19" s="7"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="6"/>
+    </row>
+    <row r="20" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>29</v>
       </c>
@@ -1473,21 +1581,22 @@
       <c r="P20" s="27"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="26">
+      <c r="S20" s="27"/>
+      <c r="T20" s="26">
         <v>0.65739999999999998</v>
       </c>
-      <c r="T20" s="26">
+      <c r="U20" s="26">
         <v>0.90769999999999995</v>
       </c>
-      <c r="U20" s="26">
+      <c r="V20" s="26">
         <v>0.97309999999999997</v>
       </c>
-      <c r="V20" s="26"/>
       <c r="W20" s="26"/>
-    </row>
-    <row r="21" spans="1:23" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="26"/>
+    </row>
+    <row r="21" spans="1:24" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -1512,13 +1621,14 @@
       <c r="P21" s="27"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
-      <c r="S21" s="26"/>
+      <c r="S21" s="27"/>
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
       <c r="V21" s="26"/>
       <c r="W21" s="26"/>
-    </row>
-    <row r="22" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="26"/>
+    </row>
+    <row r="22" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1536,13 +1646,14 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="6"/>
+      <c r="S22" s="7"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
-    </row>
-    <row r="23" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="6"/>
+    </row>
+    <row r="23" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>32</v>
       </c>
@@ -1569,13 +1680,14 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="6"/>
+      <c r="S23" s="7"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
-    </row>
-    <row r="24" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="6"/>
+    </row>
+    <row r="24" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1593,15 +1705,16 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="6"/>
+      <c r="S24" s="7"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
-    </row>
-    <row r="25" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X24" s="6"/>
+    </row>
+    <row r="25" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1626,13 +1739,14 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="6"/>
+      <c r="S25" s="7"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
-    </row>
-    <row r="26" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X25" s="6"/>
+    </row>
+    <row r="26" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1650,15 +1764,16 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="6"/>
+      <c r="S26" s="7"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
-    </row>
-    <row r="27" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="6"/>
+    </row>
+    <row r="27" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1683,13 +1798,14 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="6"/>
+      <c r="S27" s="7"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
-    </row>
-    <row r="28" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="6"/>
+    </row>
+    <row r="28" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1707,13 +1823,17 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="6"/>
+      <c r="S28" s="7"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
-    </row>
-    <row r="29" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="6"/>
+    </row>
+    <row r="29" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1730,25 +1850,28 @@
       <c r="O29" s="6"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="S29" s="6"/>
+      <c r="S29" s="7" t="s">
+        <v>109</v>
+      </c>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
-    </row>
-    <row r="30" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="6"/>
+    </row>
+    <row r="30" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="6">
         <v>0.35404188032199202</v>
@@ -1762,46 +1885,47 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="6">
+      <c r="K30" s="40">
         <v>0.43413721381438802</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="40">
         <v>0.84059518185658699</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="40">
         <v>0.92174507542770701</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q30" s="39">
+        <v>105</v>
+      </c>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="39">
         <v>4.7257E-2</v>
       </c>
-      <c r="R30" s="39">
+      <c r="S30" s="39">
         <v>4.7258528256936598E-2</v>
       </c>
-      <c r="S30" s="6">
+      <c r="T30" s="6">
         <v>0.59798275250642696</v>
       </c>
-      <c r="T30" s="6">
+      <c r="U30" s="6">
         <v>0.757679713552465</v>
       </c>
-      <c r="U30" s="6">
+      <c r="V30" s="6">
         <v>0.94589534219438698</v>
       </c>
-      <c r="V30" s="6"/>
       <c r="W30" s="6"/>
-    </row>
-    <row r="31" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="6"/>
+    </row>
+    <row r="31" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1809,42 +1933,41 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="6">
+      <c r="K31" s="11">
         <v>0.40408129216357502</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="11">
         <v>0.79076577208003596</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="11">
         <v>0.89173938877665904</v>
       </c>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
       <c r="P31" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q31" s="39">
+        <v>108</v>
+      </c>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="39">
         <v>4.7498800000000001E-2</v>
       </c>
-      <c r="R31" s="39">
+      <c r="S31" s="39">
         <v>5.2412652103082498E-2</v>
       </c>
-      <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
-    </row>
-    <row r="32" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="6"/>
+    </row>
+    <row r="32" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1853,108 +1976,157 @@
       <c r="I32" s="6"/>
       <c r="J32" s="7"/>
       <c r="K32" s="6">
-        <v>0.52497242748937301</v>
+        <v>0.47566398921654102</v>
       </c>
       <c r="L32" s="6">
-        <v>0.89571650250248902</v>
+        <v>0.84405080649754105</v>
       </c>
       <c r="M32" s="6">
-        <v>0.94300275811376499</v>
+        <v>0.92051855478715705</v>
       </c>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="39">
-        <v>3.5161459043737499E-2</v>
-      </c>
-      <c r="R32" s="39">
-        <v>4.1037345544872601E-2</v>
-      </c>
-      <c r="S32" s="6"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39">
+        <v>4.6118542378074397E-2</v>
+      </c>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
-    </row>
-    <row r="33" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="6"/>
+    </row>
+    <row r="33" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
+      <c r="K33" s="6">
+        <v>0.485681593218527</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.87586599959642397</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0.93627788500424103</v>
+      </c>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="6"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39">
+        <v>4.4049561360450601E-2</v>
+      </c>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
-    </row>
-    <row r="34" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="6"/>
+    </row>
+    <row r="34" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
+      <c r="K34" s="6">
+        <v>0.52497242748937301</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.89571650250248902</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0.94300275811376499</v>
+      </c>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="6"/>
+      <c r="R34" s="39">
+        <v>3.5161459043737499E-2</v>
+      </c>
+      <c r="S34" s="39">
+        <v>4.1037345544872601E-2</v>
+      </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
-    </row>
-    <row r="35" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="6"/>
+    </row>
+    <row r="35" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="28" t="s">
+        <v>116</v>
+      </c>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
+      <c r="K35" s="6">
+        <v>0.403514437553602</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0.784566161901735</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0.89509642529058098</v>
+      </c>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="6"/>
+      <c r="R35" s="39">
+        <v>4.7047402874008201E-2</v>
+      </c>
+      <c r="S35" s="39">
+        <v>5.1916477679709097E-2</v>
+      </c>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
-    </row>
-    <row r="36" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="6"/>
+    </row>
+    <row r="36" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -1962,68 +2134,71 @@
       <c r="I36" s="6"/>
       <c r="J36" s="7"/>
       <c r="K36" s="6">
-        <v>0.51929999999999998</v>
+        <v>0.50462098776559206</v>
       </c>
       <c r="L36" s="6">
-        <v>0.89648000000000005</v>
+        <v>0.86006995097959105</v>
       </c>
       <c r="M36" s="6">
-        <v>0.94398000000000004</v>
+        <v>0.92062375596325097</v>
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="6"/>
+      <c r="S36" s="39">
+        <v>4.6490427484136003E-2</v>
+      </c>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
-    </row>
-    <row r="37" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="6"/>
+    </row>
+    <row r="37" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="6">
-        <v>0.43213083677139902</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0.83454316071685597</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0.90633091683560396</v>
-      </c>
+      <c r="C37" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="6">
-        <v>0.52579759999999998</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0.8861</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0.93849190000000005</v>
+      <c r="K37" s="11">
+        <v>0.403788458691139</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0.77201166065288196</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0.89107163296565195</v>
       </c>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
       <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
+      <c r="Q37" s="39">
+        <v>4.2240439144169903E-2</v>
+      </c>
       <c r="R37" s="7"/>
-      <c r="S37" s="6"/>
+      <c r="S37" s="39">
+        <v>5.1334919339327503E-2</v>
+      </c>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
-    </row>
-    <row r="38" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>101</v>
-      </c>
+      <c r="X37" s="6"/>
+    </row>
+    <row r="38" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2033,27 +2208,22 @@
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="7"/>
-      <c r="K38" s="6">
-        <v>0.51198109999999997</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0.89452399999999999</v>
-      </c>
-      <c r="M38" s="6">
-        <v>0.94331580000000004</v>
-      </c>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="6"/>
+      <c r="S38" s="39"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-    </row>
-    <row r="39" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="6"/>
+    </row>
+    <row r="39" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2071,73 +2241,41 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="6"/>
+      <c r="S39" s="39"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
-    </row>
-    <row r="40" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28" t="s">
-        <v>102</v>
-      </c>
+      <c r="X39" s="6"/>
+    </row>
+    <row r="40" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="6">
-        <v>0.43916617238933098</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0.835605451873769</v>
-      </c>
-      <c r="G40" s="6">
-        <v>0.90752296578104596</v>
-      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="40">
-        <v>0.5309239</v>
-      </c>
-      <c r="L40" s="40">
-        <v>0.892953</v>
-      </c>
-      <c r="M40" s="40">
-        <v>0.94298300000000002</v>
-      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
-      <c r="P40" s="39">
-        <v>4.1920459275095398E-2</v>
-      </c>
-      <c r="Q40" s="39">
-        <v>3.5513733944519503E-2</v>
-      </c>
-      <c r="R40" s="39">
-        <v>4.1920459275095398E-2</v>
-      </c>
-      <c r="S40" s="6">
-        <v>0.66610357651026797</v>
-      </c>
-      <c r="T40" s="6">
-        <v>0.90778748640305595</v>
-      </c>
-      <c r="U40" s="6">
-        <v>0.97222662155700101</v>
-      </c>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
-    </row>
-    <row r="41" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28" t="s">
-        <v>102</v>
-      </c>
+      <c r="X40" s="6"/>
+    </row>
+    <row r="41" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2153,19 +2291,17 @@
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="6">
-        <v>0.66219899999999998</v>
-      </c>
-      <c r="T41" s="6">
-        <v>0.90361093533127401</v>
-      </c>
-      <c r="U41" s="6">
-        <v>0.97134283099715801</v>
-      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
-    </row>
-    <row r="42" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X41" s="6"/>
+    </row>
+    <row r="42" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2175,56 +2311,71 @@
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="7"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
+      <c r="K42" s="6">
+        <v>0.51929999999999998</v>
+      </c>
+      <c r="L42" s="6">
+        <v>0.89648000000000005</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0.94398000000000004</v>
+      </c>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="6"/>
+      <c r="S42" s="7"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
-    </row>
-    <row r="43" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X42" s="6"/>
+    </row>
+    <row r="43" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B43" s="5"/>
-      <c r="C43" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="E43" s="6">
+        <v>0.43213083677139902</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.83454316071685597</v>
+      </c>
+      <c r="G43" s="6">
+        <v>0.90633091683560396</v>
+      </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="7"/>
       <c r="K43" s="6">
-        <v>0.520983673424954</v>
+        <v>0.52579759999999998</v>
       </c>
       <c r="L43" s="6">
-        <v>0.89486151979039896</v>
+        <v>0.8861</v>
       </c>
       <c r="M43" s="6">
-        <v>0.93774798228002598</v>
+        <v>0.93849190000000005</v>
       </c>
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="6"/>
+      <c r="S43" s="7"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-    </row>
-    <row r="44" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X43" s="6"/>
+    </row>
+    <row r="44" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="28" t="s">
+        <v>100</v>
+      </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2234,24 +2385,28 @@
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="7"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+      <c r="K44" s="6">
+        <v>0.51198109999999997</v>
+      </c>
+      <c r="L44" s="6">
+        <v>0.89452399999999999</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0.94331580000000004</v>
+      </c>
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="6"/>
+      <c r="S44" s="7"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-    </row>
-    <row r="45" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>105</v>
-      </c>
+      <c r="X44" s="6"/>
+    </row>
+    <row r="45" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2261,61 +2416,83 @@
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="6">
-        <v>0.51423909004761503</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0.88734048870237103</v>
-      </c>
-      <c r="M45" s="6">
-        <v>0.93880771591373202</v>
-      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="6"/>
+      <c r="S45" s="7"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-    </row>
-    <row r="46" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X45" s="6"/>
+    </row>
+    <row r="46" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="E46" s="6">
+        <v>0.43916617238933098</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.835605451873769</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.90752296578104596</v>
+      </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="7"/>
-      <c r="K46" s="6">
-        <v>0.51169393197777102</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0.89076338804911404</v>
-      </c>
-      <c r="M46" s="6">
-        <v>0.94032778400047801</v>
+      <c r="K46" s="40">
+        <v>0.5309239</v>
+      </c>
+      <c r="L46" s="40">
+        <v>0.892953</v>
+      </c>
+      <c r="M46" s="40">
+        <v>0.94298300000000002</v>
       </c>
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
       <c r="P46" s="39">
-        <v>4.2612862119596799E-2</v>
+        <v>4.1920459275095398E-2</v>
       </c>
       <c r="Q46" s="39"/>
-      <c r="R46" s="39"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
+      <c r="R46" s="39">
+        <v>3.5513733944519503E-2</v>
+      </c>
+      <c r="S46" s="39">
+        <v>4.1920459275095398E-2</v>
+      </c>
+      <c r="T46" s="6">
+        <v>0.66610357651026797</v>
+      </c>
+      <c r="U46" s="6">
+        <v>0.90778748640305595</v>
+      </c>
+      <c r="V46" s="6">
+        <v>0.97222662155700101</v>
+      </c>
       <c r="W46" s="6"/>
-    </row>
-    <row r="47" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X46" s="6"/>
+    </row>
+    <row r="47" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>101</v>
+      </c>
       <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2331,13 +2508,20 @@
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="6">
+        <v>0.66219899999999998</v>
+      </c>
+      <c r="U47" s="6">
+        <v>0.90361093533127401</v>
+      </c>
+      <c r="V47" s="6">
+        <v>0.97134283099715801</v>
+      </c>
       <c r="W47" s="6"/>
-    </row>
-    <row r="48" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X47" s="6"/>
+    </row>
+    <row r="48" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2355,15 +2539,21 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="6"/>
+      <c r="S48" s="7"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
-    </row>
-    <row r="49" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X48" s="6"/>
+    </row>
+    <row r="49" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>102</v>
+      </c>
       <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -2371,21 +2561,28 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
+      <c r="K49" s="6">
+        <v>0.520983673424954</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0.89486151979039896</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0.93774798228002598</v>
+      </c>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="6"/>
+      <c r="S49" s="7"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
-    </row>
-    <row r="50" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X49" s="6"/>
+    </row>
+    <row r="50" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2403,15 +2600,16 @@
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="6"/>
+      <c r="S50" s="7"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
-    </row>
-    <row r="51" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X50" s="6"/>
+    </row>
+    <row r="51" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -2422,27 +2620,28 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
+      <c r="K51" s="6">
+        <v>0.51423909004761503</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.88734048870237103</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0.93880771591373202</v>
+      </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="6">
-        <v>0.66569299999999998</v>
-      </c>
-      <c r="T51" s="6">
-        <v>0.90422999999999998</v>
-      </c>
-      <c r="U51" s="6">
-        <v>0.97198600000000002</v>
-      </c>
+      <c r="S51" s="7"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
-    </row>
-    <row r="52" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X51" s="6"/>
+    </row>
+    <row r="52" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2452,24 +2651,30 @@
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
       <c r="J52" s="7"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
+      <c r="K52" s="6">
+        <v>0.51169393197777102</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0.89076338804911404</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0.94032778400047801</v>
+      </c>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="6"/>
+      <c r="P52" s="39">
+        <v>4.2612862119596799E-2</v>
+      </c>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
-    </row>
-    <row r="53" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="X52" s="6"/>
+    </row>
+    <row r="53" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -2479,33 +2684,22 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="7"/>
-      <c r="K53" s="6">
-        <v>0.40104148966138098</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0.78469118831988205</v>
-      </c>
-      <c r="M53" s="6">
-        <v>0.89141190674054405</v>
-      </c>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="6">
-        <v>0.59847806990903096</v>
-      </c>
-      <c r="T53" s="6">
-        <v>0.74540495542180496</v>
-      </c>
-      <c r="U53" s="6">
-        <v>0.94279293529049801</v>
-      </c>
+      <c r="S53" s="7"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
-    </row>
-    <row r="54" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X53" s="6"/>
+    </row>
+    <row r="54" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2523,13 +2717,14 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="6"/>
+      <c r="S54" s="7"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
-    </row>
-    <row r="55" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X54" s="6"/>
+    </row>
+    <row r="55" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2547,16 +2742,14 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="6"/>
+      <c r="S55" s="7"/>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
-    </row>
-    <row r="56" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
-        <v>35</v>
-      </c>
+      <c r="X55" s="6"/>
+    </row>
+    <row r="56" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2574,16 +2767,18 @@
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="6"/>
+      <c r="S56" s="7"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
-    </row>
-    <row r="57" spans="1:23" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X56" s="6"/>
+    </row>
+    <row r="57" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
-        <v>35</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
@@ -2600,514 +2795,693 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="6">
+        <v>0.66569299999999998</v>
+      </c>
+      <c r="U57" s="6">
+        <v>0.90422999999999998</v>
+      </c>
+      <c r="V57" s="6">
+        <v>0.97198600000000002</v>
+      </c>
       <c r="W57" s="6"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="X57" s="6"/>
+    </row>
+    <row r="58" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="6">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="F58" s="6">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="G58" s="6">
-        <v>0.89700000000000002</v>
-      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="6">
-        <v>0.37009999999999998</v>
-      </c>
+      <c r="I58" s="6"/>
       <c r="J58" s="7"/>
-      <c r="K58" s="6">
-        <v>0.4677</v>
-      </c>
-      <c r="L58" s="6">
-        <v>0.83730000000000004</v>
-      </c>
-      <c r="M58" s="6">
-        <v>0.90600000000000003</v>
-      </c>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="6">
-        <v>0.3614</v>
-      </c>
+      <c r="O58" s="6"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="6">
+      <c r="S58" s="7"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+    </row>
+    <row r="59" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="6">
+        <v>0.40104148966138098</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0.78469118831988205</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0.89141190674054405</v>
+      </c>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="6">
+        <v>0.59847806990903096</v>
+      </c>
+      <c r="U59" s="6">
+        <v>0.74540495542180496</v>
+      </c>
+      <c r="V59" s="6">
+        <v>0.94279293529049801</v>
+      </c>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+    </row>
+    <row r="60" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+    </row>
+    <row r="61" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+    </row>
+    <row r="62" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+    </row>
+    <row r="63" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="28"/>
+      <c r="C64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="G64" s="6">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="6">
+        <v>0.4677</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="M64" s="6">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6">
+        <v>0.3614</v>
+      </c>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="6">
         <v>0.627</v>
       </c>
-      <c r="T58" s="6">
+      <c r="U64" s="6">
         <v>0.878</v>
       </c>
-      <c r="U58" s="6">
+      <c r="V64" s="6">
         <v>0.9647</v>
       </c>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3">
+      <c r="W64" s="3"/>
+      <c r="X64" s="3">
         <v>0.62470000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="C59" s="8" t="s">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65" s="28"/>
+      <c r="C65" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9">
+      <c r="D65" s="8"/>
+      <c r="E65" s="9">
         <v>42.51</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F65" s="9">
         <v>82.97</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G65" s="9">
         <v>90.27</v>
       </c>
-      <c r="H59" s="10"/>
-      <c r="I59" s="11">
+      <c r="H65" s="10"/>
+      <c r="I65" s="11">
         <v>0.37769999999999998</v>
       </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9">
         <v>48.62</v>
       </c>
-      <c r="L59" s="9">
+      <c r="L65" s="9">
         <v>87.25</v>
       </c>
-      <c r="M59" s="9">
+      <c r="M65" s="9">
         <v>93.14</v>
       </c>
-      <c r="N59" s="9"/>
-      <c r="O59" s="11">
+      <c r="N65" s="9"/>
+      <c r="O65" s="11">
         <v>0.40760000000000002</v>
       </c>
-      <c r="P59" s="9"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="9"/>
-      <c r="S59" s="9">
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9">
         <v>63.77</v>
       </c>
-      <c r="T59" s="9">
+      <c r="U65" s="9">
         <v>89.79</v>
       </c>
-      <c r="U59" s="9">
+      <c r="V65" s="9">
         <v>97.1</v>
       </c>
-      <c r="V59" s="8"/>
-      <c r="W59" s="11">
+      <c r="W65" s="8"/>
+      <c r="X65" s="11">
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="C60" s="12" t="s">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66" s="28"/>
+      <c r="C66" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13">
+      <c r="D66" s="12"/>
+      <c r="E66" s="13">
         <v>0.4365</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F66" s="13">
         <v>0.83460000000000001</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G66" s="13">
         <v>0.90629999999999999</v>
       </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="14">
+      <c r="H66" s="13"/>
+      <c r="I66" s="14">
         <v>0.39729999999999999</v>
       </c>
-      <c r="J60" s="15"/>
-      <c r="K60" s="13">
+      <c r="J66" s="15"/>
+      <c r="K66" s="13">
         <v>0.49740000000000001</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L66" s="13">
         <v>0.87780000000000002</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M66" s="13">
         <v>0.93500000000000005</v>
       </c>
-      <c r="N60" s="13"/>
-      <c r="O60" s="13">
+      <c r="N66" s="13"/>
+      <c r="O66" s="13">
         <v>0.41799999999999998</v>
       </c>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="15"/>
-      <c r="R60" s="15"/>
-      <c r="S60" s="13">
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="T60" s="13">
+      <c r="U66" s="13">
         <v>0.90390000000000004</v>
       </c>
-      <c r="U60" s="13">
+      <c r="V66" s="13">
         <v>0.97199999999999998</v>
       </c>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13">
+      <c r="W66" s="13"/>
+      <c r="X66" s="13">
         <v>0.65949999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C61" s="6" t="s">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C67" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6">
         <v>0.43480000000000002</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F67" s="16">
         <v>0.83489999999999998</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G67" s="6">
         <v>0.9073</v>
       </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6">
+      <c r="H67" s="6"/>
+      <c r="I67" s="6">
         <v>0.39419999999999999</v>
       </c>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6">
+      <c r="J67" s="6"/>
+      <c r="K67" s="6">
         <v>0.502</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L67" s="6">
         <v>0.88019999999999998</v>
       </c>
-      <c r="M61" s="16">
+      <c r="M67" s="16">
         <v>0.93840000000000001</v>
       </c>
-      <c r="N61" s="6"/>
-      <c r="O61" s="16">
+      <c r="N67" s="6"/>
+      <c r="O67" s="16">
         <v>0.43809999999999999</v>
       </c>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6">
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6">
         <v>0.65469999999999995</v>
       </c>
-      <c r="T61" s="6">
+      <c r="U67" s="6">
         <v>0.90480000000000005</v>
       </c>
-      <c r="U61" s="6">
+      <c r="V67" s="6">
         <v>0.97250000000000003</v>
       </c>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6">
+      <c r="W67" s="6"/>
+      <c r="X67" s="6">
         <v>0.66139999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="3">
+      <c r="D68" s="1"/>
+      <c r="E68" s="3">
         <v>0.43149999999999999</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F68" s="3">
         <v>0.83409999999999995</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G68" s="3">
         <v>0.90590000000000004</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3">
+      <c r="H68" s="3"/>
+      <c r="I68" s="3">
         <v>0.39169999999999999</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3">
+      <c r="J68" s="3"/>
+      <c r="K68" s="3">
         <v>0.49930000000000002</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L68" s="3">
         <v>0.87290000000000001</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M68" s="3">
         <v>0.93389999999999995</v>
       </c>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3">
+      <c r="N68" s="3"/>
+      <c r="O68" s="3">
         <v>0.42930000000000001</v>
       </c>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="3">
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="3">
         <v>0.65239999999999998</v>
       </c>
-      <c r="T62" s="17">
+      <c r="U68" s="17">
         <v>0.90569999999999995</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V68" s="3">
         <v>0.97260000000000002</v>
       </c>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3">
+      <c r="W68" s="3"/>
+      <c r="X68" s="3">
         <v>0.65810000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
         <v>43.45</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F69" s="1">
         <v>83.11</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G69" s="1">
         <v>90.55</v>
       </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="3">
+      <c r="H69" s="18"/>
+      <c r="I69" s="3">
         <v>0.3896</v>
       </c>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1">
         <v>49.24</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L69" s="1">
         <v>87.43</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M69" s="1">
         <v>93.52</v>
       </c>
-      <c r="N63" s="1"/>
-      <c r="O63" s="3">
+      <c r="N69" s="1"/>
+      <c r="O69" s="3">
         <v>0.42209999999999998</v>
       </c>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="4">
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="4">
         <v>65.39</v>
       </c>
-      <c r="T63" s="1">
+      <c r="U69" s="1">
         <v>90.27</v>
       </c>
-      <c r="U63" s="4">
+      <c r="V69" s="4">
         <v>97.27</v>
       </c>
-      <c r="V63" s="1"/>
-      <c r="W63" s="3">
+      <c r="W69" s="1"/>
+      <c r="X69" s="3">
         <v>0.65659999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="3">
+      <c r="D70" s="1"/>
+      <c r="E70" s="3">
         <v>0.42909999999999998</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F70" s="3">
         <v>0.83479999999999999</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G70" s="3">
         <v>0.90569999999999995</v>
       </c>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3">
+      <c r="H70" s="3"/>
+      <c r="I70" s="3">
         <v>0.38979999999999998</v>
       </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3">
+      <c r="J70" s="3"/>
+      <c r="K70" s="3">
         <v>0.49349999999999999</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L70" s="17">
         <v>0.87919999999999998</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M70" s="3">
         <v>0.93830000000000002</v>
       </c>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3">
+      <c r="N70" s="3"/>
+      <c r="O70" s="3">
         <v>0.43259999999999998</v>
       </c>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3">
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3">
         <v>0.6482</v>
       </c>
-      <c r="T64" s="3">
+      <c r="U70" s="3">
         <v>0.90500000000000003</v>
       </c>
-      <c r="U64" s="3">
+      <c r="V70" s="3">
         <v>0.97209999999999996</v>
       </c>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3">
+      <c r="W70" s="3"/>
+      <c r="X70" s="3">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C65" s="32" t="s">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C71" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="32"/>
-      <c r="E65" s="33">
+      <c r="D71" s="32"/>
+      <c r="E71" s="33">
         <v>0.43919999999999998</v>
       </c>
-      <c r="F65" s="33">
+      <c r="F71" s="33">
         <v>0.83489999999999998</v>
       </c>
-      <c r="G65" s="33">
+      <c r="G71" s="33">
         <v>0.90769999999999995</v>
       </c>
-      <c r="H65" s="34"/>
-      <c r="I65" s="35">
+      <c r="H71" s="34"/>
+      <c r="I71" s="35">
         <v>0.39300000000000002</v>
       </c>
-      <c r="J65" s="32"/>
-      <c r="K65" s="33">
+      <c r="J71" s="32"/>
+      <c r="K71" s="33">
         <v>0.503</v>
       </c>
-      <c r="L65" s="35">
+      <c r="L71" s="35">
         <v>0.87680000000000002</v>
       </c>
-      <c r="M65" s="35">
+      <c r="M71" s="35">
         <v>0.93659999999999999</v>
       </c>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35">
+      <c r="N71" s="35"/>
+      <c r="O71" s="35">
         <v>0.43430000000000002</v>
       </c>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="33">
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="33">
         <v>0.6583</v>
       </c>
-      <c r="T65" s="35">
+      <c r="U71" s="35">
         <v>0.90510000000000002</v>
       </c>
-      <c r="U65" s="33">
+      <c r="V71" s="33">
         <v>0.97299999999999998</v>
       </c>
-      <c r="V65" s="1"/>
-      <c r="W65" s="17">
+      <c r="W71" s="1"/>
+      <c r="X71" s="17">
         <v>0.66559999999999997</v>
       </c>
     </row>
-    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C66" s="1" t="s">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="4">
+      <c r="D72" s="1"/>
+      <c r="E72" s="4">
         <v>42.83</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F72" s="4">
         <v>83.36</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G72" s="4">
         <v>90.7</v>
       </c>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4">
         <v>39.229999999999997</v>
       </c>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4">
+      <c r="J72" s="4"/>
+      <c r="K72" s="4">
         <v>49.84</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L72" s="4">
         <v>87.5</v>
       </c>
-      <c r="M66" s="4">
+      <c r="M72" s="4">
         <v>93.41</v>
       </c>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4">
+      <c r="N72" s="4"/>
+      <c r="O72" s="4">
         <v>42.63</v>
       </c>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4">
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4">
         <v>65.8</v>
       </c>
-      <c r="T66" s="4">
+      <c r="U72" s="4">
         <v>90.5</v>
       </c>
-      <c r="U66" s="4">
+      <c r="V72" s="4">
         <v>97.3</v>
       </c>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4">
+      <c r="W72" s="4"/>
+      <c r="X72" s="4">
         <v>66.290000000000006</v>
       </c>
     </row>
-    <row r="67" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C67" s="1" t="s">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="19">
+      <c r="D73" s="1"/>
+      <c r="E73" s="19">
         <v>0.4335</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F73" s="19">
         <v>0.83350000000000002</v>
       </c>
-      <c r="G67" s="19">
+      <c r="G73" s="19">
         <v>0.90259999999999996</v>
       </c>
-      <c r="H67" s="20"/>
-      <c r="I67" s="19">
+      <c r="H73" s="20"/>
+      <c r="I73" s="19">
         <v>0.38850000000000001</v>
       </c>
-      <c r="J67" s="21"/>
-      <c r="K67" s="19">
+      <c r="J73" s="21"/>
+      <c r="K73" s="19">
         <v>0.49130000000000001</v>
       </c>
-      <c r="L67" s="19">
+      <c r="L73" s="19">
         <v>0.87970000000000004</v>
       </c>
-      <c r="M67" s="19">
+      <c r="M73" s="19">
         <v>0.93069999999999997</v>
       </c>
-      <c r="N67" s="19"/>
-      <c r="O67" s="19">
+      <c r="N73" s="19"/>
+      <c r="O73" s="19">
         <v>0.41320000000000001</v>
       </c>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="19">
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="19">
         <v>0.65659999999999996</v>
       </c>
-      <c r="T67" s="19">
+      <c r="U73" s="19">
         <v>0.90269999999999995</v>
       </c>
-      <c r="U67" s="19">
+      <c r="V73" s="19">
         <v>0.97240000000000004</v>
       </c>
-      <c r="V67" s="22"/>
-      <c r="W67" s="23">
+      <c r="W73" s="22"/>
+      <c r="X73" s="23">
         <v>0.66069999999999995</v>
       </c>
     </row>
-    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3118,6 +3492,507 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:U26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="E10" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26">
+        <v>0.34050000000000002</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.62670000000000003</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.81889999999999996</v>
+      </c>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26">
+        <v>0.38629999999999998</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0.72419999999999995</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0.86729999999999996</v>
+      </c>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="26">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="R10" s="26">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="S10" s="26">
+        <v>0.92390000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E11" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.83460000000000001</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="26">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0.76959999999999995</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="26">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="R11" s="26">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="S11" s="26">
+        <v>0.92869999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E12" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="26">
+        <v>0.4677</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="M12" s="26">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="26">
+        <v>0.627</v>
+      </c>
+      <c r="R12" s="26">
+        <v>0.878</v>
+      </c>
+      <c r="S12" s="26">
+        <v>0.9647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E13" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="27">
+        <v>48.62</v>
+      </c>
+      <c r="L13" s="27">
+        <v>87.25</v>
+      </c>
+      <c r="M13" s="27">
+        <v>93.14</v>
+      </c>
+      <c r="N13" s="26"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="27">
+        <v>63.77</v>
+      </c>
+      <c r="R13" s="27">
+        <v>89.79</v>
+      </c>
+      <c r="S13" s="27">
+        <v>97.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="T16" t="s">
+        <v>120</v>
+      </c>
+      <c r="U16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="41">
+        <v>0.40326794737190902</v>
+      </c>
+      <c r="L17" s="41">
+        <v>0.77992288244587304</v>
+      </c>
+      <c r="M17" s="41">
+        <v>0.89643268200654302</v>
+      </c>
+      <c r="N17" s="42">
+        <v>4.4325446345408998E-2</v>
+      </c>
+      <c r="O17" s="42">
+        <v>5.0013094739035202E-2</v>
+      </c>
+      <c r="Q17" s="41">
+        <v>0.59486973887480998</v>
+      </c>
+      <c r="R17" s="41">
+        <v>0.74918103311133299</v>
+      </c>
+      <c r="S17" s="41">
+        <v>0.94572578270612895</v>
+      </c>
+      <c r="U17">
+        <v>5.5321342714533601E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="41">
+        <v>0.485681593218527</v>
+      </c>
+      <c r="L18" s="41">
+        <v>0.87586599959642397</v>
+      </c>
+      <c r="M18" s="41">
+        <v>0.93627788500424103</v>
+      </c>
+      <c r="N18" s="42">
+        <v>2.8760288764905599E-2</v>
+      </c>
+      <c r="O18" s="42">
+        <v>4.4049561360450601E-2</v>
+      </c>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="41">
+        <v>0.47566398921654102</v>
+      </c>
+      <c r="L19" s="41">
+        <v>0.84405080649754105</v>
+      </c>
+      <c r="M19" s="41">
+        <v>0.92051855478715705</v>
+      </c>
+      <c r="N19" s="42">
+        <v>3.2037597043465003E-2</v>
+      </c>
+      <c r="O19" s="42">
+        <v>4.6118542378074397E-2</v>
+      </c>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0.52719019632316599</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.89044415843526803</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.94233414227701595</v>
+      </c>
+      <c r="N20" s="42">
+        <v>2.5079185192247801E-2</v>
+      </c>
+      <c r="O20" s="42">
+        <v>4.2406372327575999E-2</v>
+      </c>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="41">
+        <v>0.52181982596156395</v>
+      </c>
+      <c r="L22" s="41">
+        <v>0.89093869573544204</v>
+      </c>
+      <c r="M22" s="41">
+        <v>0.94258284186542496</v>
+      </c>
+      <c r="N22" s="42">
+        <v>2.8461095022346401E-2</v>
+      </c>
+      <c r="O22" s="42">
+        <v>4.1900366180971801E-2</v>
+      </c>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
@@ -3129,7 +4004,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3147,10 +4022,10 @@
         <v>-1</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1">
         <v>0</v>
@@ -3168,12 +4043,12 @@
         <v>-1</v>
       </c>
       <c r="O1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="36">
         <v>1</v>
@@ -3191,7 +4066,7 @@
         <v>-1</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="36">
         <v>1</v>
@@ -3211,7 +4086,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="38">
         <v>2</v>
@@ -3229,7 +4104,7 @@
         <v>-1</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -3249,7 +4124,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="38">
         <v>3</v>
@@ -3267,7 +4142,7 @@
         <v>-1</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -3287,7 +4162,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3305,7 +4180,7 @@
         <v>-1</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5" s="38">
         <v>4</v>
@@ -3325,7 +4200,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3343,7 +4218,7 @@
         <v>-1</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>5</v>
@@ -3363,7 +4238,7 @@
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="36">
         <v>6</v>
@@ -3381,7 +4256,7 @@
         <v>-1</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="36">
         <v>6</v>
@@ -3401,7 +4276,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3419,7 +4294,7 @@
         <v>-1</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -3439,7 +4314,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3457,7 +4332,7 @@
         <v>-1</v>
       </c>
       <c r="I9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>8</v>
@@ -3477,7 +4352,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="38">
         <v>9</v>
@@ -3495,7 +4370,7 @@
         <v>-1</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>9</v>
@@ -3515,7 +4390,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="38">
         <v>10</v>
@@ -3533,7 +4408,7 @@
         <v>-1</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -3553,7 +4428,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3571,7 +4446,7 @@
         <v>-1</v>
       </c>
       <c r="I12" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="38">
         <v>11</v>
@@ -3591,7 +4466,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3609,10 +4484,10 @@
         <v>-1</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3630,12 +4505,12 @@
         <v>-1</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="36">
         <v>1</v>
@@ -3653,7 +4528,7 @@
         <v>-1</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J15" s="36">
         <v>1</v>
@@ -3673,7 +4548,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -3691,7 +4566,7 @@
         <v>-1</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -3711,7 +4586,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -3729,7 +4604,7 @@
         <v>-1</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -3749,7 +4624,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -3767,7 +4642,7 @@
         <v>-1</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J18">
         <v>4</v>
@@ -3787,7 +4662,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -3805,7 +4680,7 @@
         <v>-1</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19">
         <v>5</v>
@@ -3825,7 +4700,7 @@
     </row>
     <row r="20" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="36">
         <v>6</v>
@@ -3843,7 +4718,7 @@
         <v>-1</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J20" s="36">
         <v>6</v>
@@ -3863,7 +4738,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="38">
         <v>7</v>
@@ -3881,7 +4756,7 @@
         <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J21">
         <v>7</v>
@@ -3901,7 +4776,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="38">
         <v>8</v>
@@ -3919,7 +4794,7 @@
         <v>-1</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>8</v>
@@ -3939,7 +4814,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="38">
         <v>9</v>
@@ -3957,7 +4832,7 @@
         <v>-1</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J23">
         <v>9</v>
@@ -3977,7 +4852,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="38">
         <v>10</v>
@@ -3995,7 +4870,7 @@
         <v>-1</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -4015,7 +4890,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -4033,7 +4908,7 @@
         <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J25">
         <v>11</v>
@@ -4053,7 +4928,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4071,10 +4946,10 @@
         <v>-1</v>
       </c>
       <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
         <v>47</v>
-      </c>
-      <c r="I27" t="s">
-        <v>48</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4092,12 +4967,12 @@
         <v>-1</v>
       </c>
       <c r="O27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="36">
         <v>1</v>
@@ -4115,7 +4990,7 @@
         <v>-1</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J28" s="36">
         <v>1</v>
@@ -4135,7 +5010,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -4153,7 +5028,7 @@
         <v>-1</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -4173,7 +5048,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -4191,7 +5066,7 @@
         <v>-1</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -4211,7 +5086,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -4229,7 +5104,7 @@
         <v>-1</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>4</v>
@@ -4249,7 +5124,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -4267,7 +5142,7 @@
         <v>-1</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -4287,7 +5162,7 @@
     </row>
     <row r="33" spans="1:14" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="36">
         <v>6</v>
@@ -4305,7 +5180,7 @@
         <v>-1</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J33" s="36">
         <v>6</v>
@@ -4325,7 +5200,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>7</v>
@@ -4343,7 +5218,7 @@
         <v>-1</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J34">
         <v>7</v>
@@ -4363,7 +5238,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="38">
         <v>8</v>
@@ -4381,7 +5256,7 @@
         <v>-1</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J35">
         <v>8</v>
@@ -4401,7 +5276,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="38">
         <v>9</v>
@@ -4419,7 +5294,7 @@
         <v>-1</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J36">
         <v>9</v>
@@ -4439,7 +5314,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="38">
         <v>10</v>
@@ -4457,7 +5332,7 @@
         <v>-1</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J37">
         <v>10</v>
@@ -4477,7 +5352,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>11</v>
@@ -4495,7 +5370,7 @@
         <v>-1</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>11</v>
@@ -4518,7 +5393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S111"/>
   <sheetViews>
@@ -4530,7 +5405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1">
         <v>0</v>
@@ -4548,10 +5423,10 @@
         <v>-1</v>
       </c>
       <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
         <v>50</v>
-      </c>
-      <c r="J1" t="s">
-        <v>51</v>
       </c>
       <c r="K1">
         <v>0</v>
@@ -4571,7 +5446,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -4589,7 +5464,7 @@
         <v>-1</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -4607,15 +5482,15 @@
         <v>-1</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -4633,7 +5508,7 @@
         <v>-1</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -4651,12 +5526,12 @@
         <v>-1</v>
       </c>
       <c r="Q3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -4674,10 +5549,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -4697,7 +5572,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -4715,10 +5590,10 @@
         <v>-1</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -4738,7 +5613,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -4756,7 +5631,7 @@
         <v>-1</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -4777,7 +5652,7 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="36">
         <v>6</v>
@@ -4795,7 +5670,7 @@
         <v>-1</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
         <v>6</v>
@@ -4815,7 +5690,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4833,7 +5708,7 @@
         <v>-1</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K8">
         <v>7</v>
@@ -4853,7 +5728,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -4871,7 +5746,7 @@
         <v>-1</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -4891,7 +5766,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -4909,7 +5784,7 @@
         <v>-1</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>9</v>
@@ -4929,7 +5804,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -4947,7 +5822,7 @@
         <v>-1</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -4967,7 +5842,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4985,7 +5860,7 @@
         <v>-1</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" s="36">
         <v>11</v>
@@ -5005,7 +5880,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -5023,7 +5898,7 @@
         <v>-1</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -5043,7 +5918,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -5061,10 +5936,10 @@
         <v>-1</v>
       </c>
       <c r="H17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -5082,15 +5957,15 @@
         <v>-1</v>
       </c>
       <c r="P17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -5108,7 +5983,7 @@
         <v>-1</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5128,7 +6003,7 @@
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -5146,7 +6021,7 @@
         <v>-1</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -5166,7 +6041,7 @@
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -5184,7 +6059,7 @@
         <v>-1</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -5204,7 +6079,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -5222,7 +6097,7 @@
         <v>-1</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -5242,7 +6117,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -5260,13 +6135,13 @@
         <v>-1</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" t="s">
         <v>59</v>
-      </c>
-      <c r="J22" t="s">
-        <v>60</v>
       </c>
       <c r="K22">
         <v>6</v>
@@ -5284,15 +6159,15 @@
         <v>-1</v>
       </c>
       <c r="P22" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q22" t="s">
         <v>62</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -5310,10 +6185,10 @@
         <v>-1</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K23">
         <v>7</v>
@@ -5333,7 +6208,7 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -5351,7 +6226,7 @@
         <v>-1</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24">
         <v>8</v>
@@ -5371,7 +6246,7 @@
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -5389,7 +6264,7 @@
         <v>-1</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25">
         <v>9</v>
@@ -5409,7 +6284,7 @@
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>10</v>
@@ -5427,7 +6302,7 @@
         <v>-1</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K26">
         <v>10</v>
@@ -5447,7 +6322,7 @@
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -5465,7 +6340,7 @@
         <v>-1</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27">
         <v>11</v>
@@ -5485,7 +6360,7 @@
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -5503,7 +6378,7 @@
         <v>-1</v>
       </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -5523,7 +6398,7 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5541,13 +6416,13 @@
         <v>-1</v>
       </c>
       <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
         <v>66</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>67</v>
-      </c>
-      <c r="J31" t="s">
-        <v>68</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -5565,12 +6440,12 @@
         <v>-1</v>
       </c>
       <c r="P31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -5588,10 +6463,10 @@
         <v>-1</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -5609,12 +6484,12 @@
         <v>-1</v>
       </c>
       <c r="R32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -5632,7 +6507,7 @@
         <v>-1</v>
       </c>
       <c r="J33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -5652,7 +6527,7 @@
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -5670,7 +6545,7 @@
         <v>-1</v>
       </c>
       <c r="J34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -5690,7 +6565,7 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -5708,7 +6583,7 @@
         <v>-1</v>
       </c>
       <c r="J35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -5728,7 +6603,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -5746,10 +6621,10 @@
         <v>-1</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K36">
         <v>6</v>
@@ -5767,15 +6642,15 @@
         <v>-1</v>
       </c>
       <c r="P36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q36" t="s">
         <v>70</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -5793,7 +6668,7 @@
         <v>-1</v>
       </c>
       <c r="J37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K37">
         <v>7</v>
@@ -5813,7 +6688,7 @@
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -5831,7 +6706,7 @@
         <v>-1</v>
       </c>
       <c r="J38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K38">
         <v>8</v>
@@ -5851,7 +6726,7 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <v>9</v>
@@ -5869,7 +6744,7 @@
         <v>-1</v>
       </c>
       <c r="J39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K39">
         <v>9</v>
@@ -5889,7 +6764,7 @@
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>10</v>
@@ -5907,7 +6782,7 @@
         <v>-1</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K40">
         <v>10</v>
@@ -5927,7 +6802,7 @@
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>11</v>
@@ -5945,7 +6820,7 @@
         <v>-1</v>
       </c>
       <c r="J41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K41">
         <v>11</v>
@@ -5965,7 +6840,7 @@
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5983,7 +6858,7 @@
         <v>-1</v>
       </c>
       <c r="J44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -6003,7 +6878,7 @@
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -6021,7 +6896,7 @@
         <v>-1</v>
       </c>
       <c r="J45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -6041,7 +6916,7 @@
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -6059,7 +6934,7 @@
         <v>-1</v>
       </c>
       <c r="J46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -6079,7 +6954,7 @@
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -6097,7 +6972,7 @@
         <v>-1</v>
       </c>
       <c r="J47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -6117,7 +6992,7 @@
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -6135,7 +7010,7 @@
         <v>-1</v>
       </c>
       <c r="J48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K48">
         <v>4</v>
@@ -6155,7 +7030,7 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -6173,7 +7048,7 @@
         <v>-1</v>
       </c>
       <c r="J49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K49">
         <v>5</v>
@@ -6193,7 +7068,7 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -6211,10 +7086,10 @@
         <v>-1</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -6232,12 +7107,12 @@
         <v>-1</v>
       </c>
       <c r="P50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -6255,10 +7130,10 @@
         <v>-1</v>
       </c>
       <c r="H51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s">
         <v>74</v>
-      </c>
-      <c r="J51" t="s">
-        <v>75</v>
       </c>
       <c r="K51">
         <v>7</v>
@@ -6278,7 +7153,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -6296,10 +7171,10 @@
         <v>-1</v>
       </c>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -6319,7 +7194,7 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53">
         <v>9</v>
@@ -6337,7 +7212,7 @@
         <v>-1</v>
       </c>
       <c r="J53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -6357,7 +7232,7 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C54">
         <v>10</v>
@@ -6375,7 +7250,7 @@
         <v>-1</v>
       </c>
       <c r="J54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K54">
         <v>10</v>
@@ -6395,7 +7270,7 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55">
         <v>11</v>
@@ -6413,7 +7288,7 @@
         <v>-1</v>
       </c>
       <c r="J55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K55">
         <v>11</v>
@@ -6433,7 +7308,7 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6451,7 +7326,7 @@
         <v>-1</v>
       </c>
       <c r="J58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -6471,7 +7346,7 @@
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -6489,7 +7364,7 @@
         <v>-1</v>
       </c>
       <c r="J59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -6509,7 +7384,7 @@
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -6527,7 +7402,7 @@
         <v>-1</v>
       </c>
       <c r="J60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -6547,7 +7422,7 @@
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -6565,7 +7440,7 @@
         <v>-1</v>
       </c>
       <c r="J61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -6585,7 +7460,7 @@
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6603,7 +7478,7 @@
         <v>-1</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K62">
         <v>4</v>
@@ -6623,7 +7498,7 @@
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -6641,7 +7516,7 @@
         <v>-1</v>
       </c>
       <c r="J63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K63">
         <v>5</v>
@@ -6661,7 +7536,7 @@
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -6679,10 +7554,10 @@
         <v>-1</v>
       </c>
       <c r="H64" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" t="s">
         <v>84</v>
-      </c>
-      <c r="J64" t="s">
-        <v>85</v>
       </c>
       <c r="K64">
         <v>6</v>
@@ -6700,12 +7575,12 @@
         <v>-1</v>
       </c>
       <c r="P64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65">
         <v>7</v>
@@ -6723,10 +7598,10 @@
         <v>-1</v>
       </c>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K65">
         <v>7</v>
@@ -6744,12 +7619,12 @@
         <v>-1</v>
       </c>
       <c r="P65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66">
         <v>8</v>
@@ -6767,7 +7642,7 @@
         <v>-1</v>
       </c>
       <c r="J66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K66">
         <v>8</v>
@@ -6787,7 +7662,7 @@
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C67">
         <v>9</v>
@@ -6805,7 +7680,7 @@
         <v>-1</v>
       </c>
       <c r="J67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K67">
         <v>9</v>
@@ -6825,7 +7700,7 @@
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68">
         <v>10</v>
@@ -6843,7 +7718,7 @@
         <v>-1</v>
       </c>
       <c r="J68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K68">
         <v>10</v>
@@ -6863,7 +7738,7 @@
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69">
         <v>11</v>
@@ -6881,7 +7756,7 @@
         <v>-1</v>
       </c>
       <c r="J69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K69">
         <v>11</v>
@@ -6901,7 +7776,7 @@
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -6919,7 +7794,7 @@
         <v>-1</v>
       </c>
       <c r="J72" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -6939,7 +7814,7 @@
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6957,7 +7832,7 @@
         <v>-1</v>
       </c>
       <c r="J73" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -6977,7 +7852,7 @@
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6995,7 +7870,7 @@
         <v>-1</v>
       </c>
       <c r="J74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -7015,7 +7890,7 @@
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7033,7 +7908,7 @@
         <v>-1</v>
       </c>
       <c r="J75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7053,7 +7928,7 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -7071,7 +7946,7 @@
         <v>-1</v>
       </c>
       <c r="J76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K76">
         <v>4</v>
@@ -7091,7 +7966,7 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -7109,7 +7984,7 @@
         <v>-1</v>
       </c>
       <c r="J77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K77">
         <v>5</v>
@@ -7129,7 +8004,7 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -7147,7 +8022,7 @@
         <v>-1</v>
       </c>
       <c r="J78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K78">
         <v>6</v>
@@ -7167,7 +8042,7 @@
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79">
         <v>7</v>
@@ -7185,7 +8060,7 @@
         <v>-1</v>
       </c>
       <c r="J79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K79">
         <v>7</v>
@@ -7205,7 +8080,7 @@
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C80">
         <v>8</v>
@@ -7223,7 +8098,7 @@
         <v>-1</v>
       </c>
       <c r="J80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K80">
         <v>8</v>
@@ -7243,7 +8118,7 @@
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -7261,7 +8136,7 @@
         <v>-1</v>
       </c>
       <c r="J81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K81">
         <v>9</v>
@@ -7281,7 +8156,7 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82">
         <v>10</v>
@@ -7299,7 +8174,7 @@
         <v>-1</v>
       </c>
       <c r="J82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K82">
         <v>10</v>
@@ -7319,7 +8194,7 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83">
         <v>11</v>
@@ -7337,7 +8212,7 @@
         <v>-1</v>
       </c>
       <c r="J83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K83">
         <v>11</v>
@@ -7357,7 +8232,7 @@
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -7375,7 +8250,7 @@
         <v>-1</v>
       </c>
       <c r="J86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -7393,12 +8268,12 @@
         <v>-1</v>
       </c>
       <c r="P86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -7416,10 +8291,10 @@
         <v>-1</v>
       </c>
       <c r="H87" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" t="s">
         <v>92</v>
-      </c>
-      <c r="J87" t="s">
-        <v>93</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -7437,12 +8312,12 @@
         <v>-1</v>
       </c>
       <c r="P87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7460,7 +8335,7 @@
         <v>-1</v>
       </c>
       <c r="J88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -7480,7 +8355,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89">
         <v>3</v>
@@ -7498,7 +8373,7 @@
         <v>-1</v>
       </c>
       <c r="J89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K89">
         <v>3</v>
@@ -7518,7 +8393,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -7536,7 +8411,7 @@
         <v>-1</v>
       </c>
       <c r="J90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K90">
         <v>4</v>
@@ -7556,7 +8431,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91">
         <v>5</v>
@@ -7574,7 +8449,7 @@
         <v>-1</v>
       </c>
       <c r="J91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K91">
         <v>5</v>
@@ -7594,7 +8469,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -7612,10 +8487,10 @@
         <v>-1</v>
       </c>
       <c r="H92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K92">
         <v>6</v>
@@ -7635,7 +8510,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>7</v>
@@ -7653,7 +8528,7 @@
         <v>-1</v>
       </c>
       <c r="J93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K93">
         <v>7</v>
@@ -7673,7 +8548,7 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94">
         <v>8</v>
@@ -7691,7 +8566,7 @@
         <v>-1</v>
       </c>
       <c r="J94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K94">
         <v>8</v>
@@ -7711,7 +8586,7 @@
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C95">
         <v>9</v>
@@ -7729,7 +8604,7 @@
         <v>-1</v>
       </c>
       <c r="J95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K95">
         <v>9</v>
@@ -7749,7 +8624,7 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96">
         <v>10</v>
@@ -7767,7 +8642,7 @@
         <v>-1</v>
       </c>
       <c r="J96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K96">
         <v>10</v>
@@ -7787,7 +8662,7 @@
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C97">
         <v>11</v>
@@ -7805,7 +8680,7 @@
         <v>-1</v>
       </c>
       <c r="J97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K97">
         <v>11</v>
@@ -7825,7 +8700,7 @@
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -7845,7 +8720,7 @@
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7865,7 +8740,7 @@
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -7885,7 +8760,7 @@
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -7905,7 +8780,7 @@
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -7925,7 +8800,7 @@
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -7945,7 +8820,7 @@
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C106">
         <v>6</v>
@@ -7965,7 +8840,7 @@
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C107">
         <v>7</v>
@@ -7985,7 +8860,7 @@
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C108">
         <v>8</v>
@@ -8005,7 +8880,7 @@
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C109">
         <v>9</v>
@@ -8025,7 +8900,7 @@
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C110">
         <v>10</v>
@@ -8045,7 +8920,7 @@
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C111">
         <v>11</v>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="146">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -462,17 +462,20 @@
   </si>
   <si>
     <t xml:space="preserve">add bert12 dim768 </t>
+  </si>
+  <si>
+    <t>bert12-&gt;unfreeze-&gt;layernorm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -606,7 +609,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -649,7 +652,9 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3495,11 +3500,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:J20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3796,19 +3805,19 @@
       <c r="C17" t="s">
         <v>137</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="43">
         <v>0.40326794737190902</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="43">
         <v>0.77992288244587304</v>
       </c>
-      <c r="M17" s="41">
+      <c r="M17" s="43">
         <v>0.89643268200654302</v>
       </c>
-      <c r="N17" s="42">
+      <c r="N17" s="44">
         <v>4.4325446345408998E-2</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="44">
         <v>5.0013094739035202E-2</v>
       </c>
       <c r="Q17" s="41">
@@ -3819,6 +3828,9 @@
       </c>
       <c r="S17" s="41">
         <v>0.94572578270612895</v>
+      </c>
+      <c r="T17">
+        <v>5.4420958964907298E-2</v>
       </c>
       <c r="U17">
         <v>5.5321342714533601E-2</v>
@@ -3957,11 +3969,21 @@
       <c r="C23" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
+      <c r="K23" s="43">
+        <v>0.39728044509084198</v>
+      </c>
+      <c r="L23" s="43">
+        <v>0.76987304761827202</v>
+      </c>
+      <c r="M23" s="43">
+        <v>0.88266797860906099</v>
+      </c>
+      <c r="N23" s="44">
+        <v>4.0290715267610099E-2</v>
+      </c>
+      <c r="O23" s="44">
+        <v>5.2531731185968301E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K24" s="41"/>
@@ -3974,21 +3996,60 @@
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="41">
+        <v>0.52798739219405399</v>
+      </c>
+      <c r="L25" s="41">
+        <v>0.88908131752518804</v>
+      </c>
+      <c r="M25" s="41">
+        <v>0.93999240479022494</v>
+      </c>
+      <c r="N25" s="42">
+        <v>2.3933667898394601E-2</v>
+      </c>
+      <c r="O25" s="42">
+        <v>4.2602221911121202E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="43">
+        <v>0.40407461052249199</v>
+      </c>
+      <c r="L26" s="43">
+        <v>0.78409109272143296</v>
+      </c>
+      <c r="M26" s="43">
+        <v>0.88931404963882599</v>
+      </c>
+      <c r="N26" s="44">
+        <v>4.0847215751155602E-2</v>
+      </c>
+      <c r="O26" s="44">
+        <v>5.2182795027841303E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -609,7 +609,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -655,6 +655,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3498,34 +3501,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U26"/>
+  <dimension ref="A2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="9.140625" customWidth="1"/>
+    <col min="15" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3556,21 +3559,22 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
@@ -3581,25 +3585,26 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="2"/>
+      <c r="R9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -3616,30 +3621,31 @@
       <c r="I10" s="26">
         <v>0.81889999999999996</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="26">
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="26">
         <v>0.38629999999999998</v>
       </c>
-      <c r="L10" s="26">
+      <c r="M10" s="26">
         <v>0.72419999999999995</v>
       </c>
-      <c r="M10" s="26">
+      <c r="N10" s="26">
         <v>0.86729999999999996</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
+      <c r="O10" s="26"/>
       <c r="P10" s="27"/>
-      <c r="Q10" s="26">
+      <c r="Q10" s="27"/>
+      <c r="R10" s="26">
         <v>0.57199999999999995</v>
       </c>
-      <c r="R10" s="26">
+      <c r="S10" s="26">
         <v>0.67010000000000003</v>
       </c>
-      <c r="S10" s="26">
+      <c r="T10" s="26">
         <v>0.92390000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E11" s="24" t="s">
         <v>144</v>
       </c>
@@ -3653,30 +3659,31 @@
       <c r="I11" s="26">
         <v>0.83460000000000001</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="26">
+      <c r="J11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="26">
         <v>0.39579999999999999</v>
       </c>
-      <c r="L11" s="26">
+      <c r="M11" s="26">
         <v>0.76959999999999995</v>
       </c>
-      <c r="M11" s="26">
+      <c r="N11" s="26">
         <v>0.89039999999999997</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="24"/>
+      <c r="O11" s="26"/>
       <c r="P11" s="24"/>
-      <c r="Q11" s="26">
+      <c r="Q11" s="24"/>
+      <c r="R11" s="26">
         <v>0.57369999999999999</v>
       </c>
-      <c r="R11" s="26">
+      <c r="S11" s="26">
         <v>0.67589999999999995</v>
       </c>
-      <c r="S11" s="26">
+      <c r="T11" s="26">
         <v>0.92869999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E12" s="25" t="s">
         <v>142</v>
       </c>
@@ -3684,30 +3691,31 @@
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="26">
+      <c r="J12" s="26"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="26">
         <v>0.4677</v>
       </c>
-      <c r="L12" s="26">
+      <c r="M12" s="26">
         <v>0.83730000000000004</v>
       </c>
-      <c r="M12" s="26">
+      <c r="N12" s="26">
         <v>0.90600000000000003</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="24"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="24"/>
-      <c r="Q12" s="26">
+      <c r="Q12" s="24"/>
+      <c r="R12" s="26">
         <v>0.627</v>
       </c>
-      <c r="R12" s="26">
+      <c r="S12" s="26">
         <v>0.878</v>
       </c>
-      <c r="S12" s="26">
+      <c r="T12" s="26">
         <v>0.9647</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E13" s="25" t="s">
         <v>143</v>
       </c>
@@ -3715,64 +3723,67 @@
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="27">
+      <c r="J13" s="26"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="27">
         <v>48.62</v>
       </c>
-      <c r="L13" s="27">
+      <c r="M13" s="27">
         <v>87.25</v>
       </c>
-      <c r="M13" s="27">
+      <c r="N13" s="27">
         <v>93.14</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="24"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="24"/>
-      <c r="Q13" s="27">
+      <c r="Q13" s="24"/>
+      <c r="R13" s="27">
         <v>63.77</v>
       </c>
-      <c r="R13" s="27">
+      <c r="S13" s="27">
         <v>89.79</v>
       </c>
-      <c r="S13" s="27">
+      <c r="T13" s="27">
         <v>97.1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="28"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="28"/>
+      <c r="O14" s="6"/>
       <c r="P14" s="28"/>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="28"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E15" s="28"/>
       <c r="F15" s="28"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="28"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="28"/>
+      <c r="O15" s="6"/>
       <c r="P15" s="28"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="28"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>141</v>
       </c>
@@ -3782,20 +3793,23 @@
       <c r="C16" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="N16" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="O16" t="s">
         <v>120</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>109</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>120</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -3805,38 +3819,41 @@
       <c r="C17" t="s">
         <v>137</v>
       </c>
-      <c r="K17" s="43">
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="L17" s="43">
         <v>0.40326794737190902</v>
       </c>
-      <c r="L17" s="43">
+      <c r="M17" s="43">
         <v>0.77992288244587304</v>
       </c>
-      <c r="M17" s="43">
+      <c r="N17" s="43">
         <v>0.89643268200654302</v>
       </c>
-      <c r="N17" s="44">
+      <c r="O17" s="44">
         <v>4.4325446345408998E-2</v>
       </c>
-      <c r="O17" s="44">
+      <c r="P17" s="44">
         <v>5.0013094739035202E-2</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="R17" s="41">
         <v>0.59486973887480998</v>
       </c>
-      <c r="R17" s="41">
+      <c r="S17" s="41">
         <v>0.74918103311133299</v>
       </c>
-      <c r="S17" s="41">
+      <c r="T17" s="41">
         <v>0.94572578270612895</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>5.4420958964907298E-2</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>5.5321342714533601E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>138</v>
       </c>
@@ -3846,26 +3863,29 @@
       <c r="C18" t="s">
         <v>137</v>
       </c>
-      <c r="K18" s="41">
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="L18" s="41">
         <v>0.485681593218527</v>
       </c>
-      <c r="L18" s="41">
+      <c r="M18" s="41">
         <v>0.87586599959642397</v>
       </c>
-      <c r="M18" s="41">
+      <c r="N18" s="41">
         <v>0.93627788500424103</v>
       </c>
-      <c r="N18" s="42">
+      <c r="O18" s="42">
         <v>2.8760288764905599E-2</v>
       </c>
-      <c r="O18" s="42">
+      <c r="P18" s="42">
         <v>4.4049561360450601E-2</v>
       </c>
-      <c r="Q18" s="41"/>
       <c r="R18" s="41"/>
       <c r="S18" s="41"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T18" s="41"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>135</v>
       </c>
@@ -3875,26 +3895,29 @@
       <c r="C19" t="s">
         <v>137</v>
       </c>
-      <c r="K19" s="41">
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="L19" s="41">
         <v>0.47566398921654102</v>
       </c>
-      <c r="L19" s="41">
+      <c r="M19" s="41">
         <v>0.84405080649754105</v>
       </c>
-      <c r="M19" s="41">
+      <c r="N19" s="41">
         <v>0.92051855478715705</v>
       </c>
-      <c r="N19" s="42">
+      <c r="O19" s="42">
         <v>3.2037597043465003E-2</v>
       </c>
-      <c r="O19" s="42">
+      <c r="P19" s="42">
         <v>4.6118542378074397E-2</v>
       </c>
-      <c r="Q19" s="41"/>
       <c r="R19" s="41"/>
       <c r="S19" s="41"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T19" s="41"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>139</v>
       </c>
@@ -3904,33 +3927,39 @@
       <c r="C20" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="6">
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="L20" s="6">
         <v>0.52719019632316599</v>
       </c>
-      <c r="L20" s="6">
+      <c r="M20" s="6">
         <v>0.89044415843526803</v>
       </c>
-      <c r="M20" s="6">
+      <c r="N20" s="6">
         <v>0.94233414227701595</v>
       </c>
-      <c r="N20" s="42">
+      <c r="O20" s="42">
         <v>2.5079185192247801E-2</v>
       </c>
-      <c r="O20" s="42">
+      <c r="P20" s="42">
         <v>4.2406372327575999E-2</v>
       </c>
-      <c r="Q20" s="41"/>
       <c r="R20" s="41"/>
       <c r="S20" s="41"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N21" s="42"/>
+      <c r="T20" s="41"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
       <c r="O21" s="42"/>
-      <c r="Q21" s="41"/>
+      <c r="P21" s="42"/>
       <c r="R21" s="41"/>
       <c r="S21" s="41"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T21" s="41"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>139</v>
       </c>
@@ -3940,26 +3969,29 @@
       <c r="C22" t="s">
         <v>140</v>
       </c>
-      <c r="K22" s="41">
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="L22" s="41">
         <v>0.52181982596156395</v>
       </c>
-      <c r="L22" s="41">
+      <c r="M22" s="41">
         <v>0.89093869573544204</v>
       </c>
-      <c r="M22" s="41">
+      <c r="N22" s="41">
         <v>0.94258284186542496</v>
       </c>
-      <c r="N22" s="42">
+      <c r="O22" s="42">
         <v>2.8461095022346401E-2</v>
       </c>
-      <c r="O22" s="42">
+      <c r="P22" s="42">
         <v>4.1900366180971801E-2</v>
       </c>
-      <c r="Q22" s="41"/>
       <c r="R22" s="41"/>
       <c r="S22" s="41"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T22" s="41"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -3969,33 +4001,42 @@
       <c r="C23" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="43">
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="L23" s="43">
         <v>0.39728044509084198</v>
       </c>
-      <c r="L23" s="43">
+      <c r="M23" s="43">
         <v>0.76987304761827202</v>
       </c>
-      <c r="M23" s="43">
+      <c r="N23" s="43">
         <v>0.88266797860906099</v>
       </c>
-      <c r="N23" s="44">
+      <c r="O23" s="44">
         <v>4.0290715267610099E-2</v>
       </c>
-      <c r="O23" s="44">
+      <c r="P23" s="44">
         <v>5.2531731185968301E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K24" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
       <c r="O24" s="41"/>
-      <c r="Q24" s="6"/>
+      <c r="P24" s="41"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -4005,46 +4046,79 @@
       <c r="C25" t="s">
         <v>145</v>
       </c>
-      <c r="K25" s="41">
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="L25" s="41">
         <v>0.52798739219405399</v>
       </c>
-      <c r="L25" s="41">
+      <c r="M25" s="41">
         <v>0.88908131752518804</v>
       </c>
-      <c r="M25" s="41">
+      <c r="N25" s="41">
         <v>0.93999240479022494</v>
       </c>
-      <c r="N25" s="42">
+      <c r="O25" s="42">
         <v>2.3933667898394601E-2</v>
       </c>
-      <c r="O25" s="42">
+      <c r="P25" s="42">
         <v>4.2602221911121202E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+    </row>
+    <row r="26" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="K26" s="43">
+      <c r="G26" s="47">
+        <v>0.34893247055384802</v>
+      </c>
+      <c r="H26" s="47">
+        <v>0.67317502542262897</v>
+      </c>
+      <c r="I26" s="47">
+        <v>0.84248623447175797</v>
+      </c>
+      <c r="K26" s="36">
+        <v>0.110216817388472</v>
+      </c>
+      <c r="L26" s="45">
         <v>0.40407461052249199</v>
       </c>
-      <c r="L26" s="43">
+      <c r="M26" s="45">
         <v>0.78409109272143296</v>
       </c>
-      <c r="M26" s="43">
+      <c r="N26" s="45">
         <v>0.88931404963882599</v>
       </c>
-      <c r="N26" s="44">
+      <c r="O26" s="46">
         <v>4.0847215751155602E-2</v>
       </c>
-      <c r="O26" s="44">
+      <c r="P26" s="46">
         <v>5.2182795027841303E-2</v>
+      </c>
+      <c r="R26" s="47">
+        <v>0.60047364223300004</v>
+      </c>
+      <c r="S26" s="47">
+        <v>0.74598242392985104</v>
+      </c>
+      <c r="T26" s="47">
+        <v>0.94286147483809202</v>
+      </c>
+      <c r="U26" s="36">
+        <v>4.9549475900016203E-2</v>
+      </c>
+      <c r="V26" s="36">
+        <v>5.6839456085560298E-2</v>
       </c>
     </row>
   </sheetData>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="151">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -465,6 +465,21 @@
   </si>
   <si>
     <t>bert12-&gt;unfreeze-&gt;layernorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">running </t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>running nlp7</t>
+  </si>
+  <si>
+    <t>running nlp8</t>
+  </si>
+  <si>
+    <t>need redo</t>
   </si>
 </sst>
 </file>
@@ -609,7 +624,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -658,6 +673,9 @@
     <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -943,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:X79"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T64" sqref="T64:V65"/>
+    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3503,8 +3521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3688,9 +3706,15 @@
         <v>142</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="G12" s="26">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0.89700000000000002</v>
+      </c>
       <c r="J12" s="26"/>
       <c r="K12" s="24"/>
       <c r="L12" s="26">
@@ -3720,9 +3744,15 @@
         <v>143</v>
       </c>
       <c r="F13" s="24"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="G13" s="27">
+        <v>42.51</v>
+      </c>
+      <c r="H13" s="27">
+        <v>82.97</v>
+      </c>
+      <c r="I13" s="27">
+        <v>90.27</v>
+      </c>
       <c r="J13" s="26"/>
       <c r="K13" s="24"/>
       <c r="L13" s="27">
@@ -3819,7 +3849,9 @@
       <c r="C17" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="41"/>
+      <c r="G17" s="41" t="s">
+        <v>150</v>
+      </c>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
       <c r="L17" s="43">
@@ -3885,69 +3917,97 @@
       <c r="S18" s="41"/>
       <c r="T18" s="41"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="L19" s="41">
+      <c r="G19" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="L19" s="47">
         <v>0.47566398921654102</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="47">
         <v>0.84405080649754105</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="47">
         <v>0.92051855478715705</v>
       </c>
-      <c r="O19" s="42">
+      <c r="O19" s="48">
         <v>3.2037597043465003E-2</v>
       </c>
-      <c r="P19" s="42">
+      <c r="P19" s="48">
         <v>4.6118542378074397E-2</v>
       </c>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="R19" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+    </row>
+    <row r="20" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="L20" s="6">
+      <c r="G20" s="47">
+        <v>0.43734748978439902</v>
+      </c>
+      <c r="H20" s="47">
+        <v>0.83582195309103802</v>
+      </c>
+      <c r="I20" s="47">
+        <v>0.90654547633930604</v>
+      </c>
+      <c r="J20" s="36">
+        <v>7.6435628227395802E-2</v>
+      </c>
+      <c r="K20" s="36">
+        <v>9.4105249121416296E-2</v>
+      </c>
+      <c r="L20" s="11">
         <v>0.52719019632316599</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="11">
         <v>0.89044415843526803</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="11">
         <v>0.94233414227701595</v>
       </c>
-      <c r="O20" s="42">
+      <c r="O20" s="48">
         <v>2.5079185192247801E-2</v>
       </c>
-      <c r="P20" s="42">
+      <c r="P20" s="48">
         <v>4.2406372327575999E-2</v>
       </c>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
+      <c r="R20" s="47">
+        <v>0.66063238169757499</v>
+      </c>
+      <c r="S20" s="47">
+        <v>0.90979241274186395</v>
+      </c>
+      <c r="T20" s="47">
+        <v>0.97291791160275398</v>
+      </c>
+      <c r="U20" s="36">
+        <v>3.6398513055700001E-2</v>
+      </c>
+      <c r="V20" s="36">
+        <v>4.5410556638999199E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G21" s="41"/>
@@ -3959,37 +4019,41 @@
       <c r="S21" s="41"/>
       <c r="T21" s="41"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="L22" s="41">
+      <c r="G22" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="L22" s="49">
         <v>0.52181982596156395</v>
       </c>
-      <c r="M22" s="41">
+      <c r="M22" s="49">
         <v>0.89093869573544204</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="49">
         <v>0.94258284186542496</v>
       </c>
-      <c r="O22" s="42">
+      <c r="O22" s="50">
         <v>2.8461095022346401E-2</v>
       </c>
-      <c r="P22" s="42">
+      <c r="P22" s="50">
         <v>4.1900366180971801E-2</v>
       </c>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
+      <c r="R22" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4086,6 +4150,9 @@
       </c>
       <c r="I26" s="47">
         <v>0.84248623447175797</v>
+      </c>
+      <c r="J26" s="36">
+        <v>0.103582492198157</v>
       </c>
       <c r="K26" s="36">
         <v>0.110216817388472</v>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="146">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -465,21 +465,6 @@
   </si>
   <si>
     <t>bert12-&gt;unfreeze-&gt;layernorm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">running </t>
-  </si>
-  <si>
-    <t>running</t>
-  </si>
-  <si>
-    <t>running nlp7</t>
-  </si>
-  <si>
-    <t>running nlp8</t>
-  </si>
-  <si>
-    <t>need redo</t>
   </si>
 </sst>
 </file>
@@ -492,7 +477,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,8 +555,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -608,6 +599,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -624,7 +627,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -668,14 +671,21 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="9" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3522,7 +3532,7 @@
   <dimension ref="A2:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,24 +3859,34 @@
       <c r="C17" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="L17" s="43">
+      <c r="G17" s="41">
+        <v>0.34806500737194901</v>
+      </c>
+      <c r="H17" s="41">
+        <v>0.68344004743855602</v>
+      </c>
+      <c r="I17" s="41">
+        <v>0.848141905475712</v>
+      </c>
+      <c r="J17">
+        <v>0.102571719682701</v>
+      </c>
+      <c r="K17">
+        <v>0.10941309332454401</v>
+      </c>
+      <c r="L17" s="50">
         <v>0.40326794737190902</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="50">
         <v>0.77992288244587304</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="50">
         <v>0.89643268200654302</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="51">
         <v>4.4325446345408998E-2</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="51">
         <v>5.0013094739035202E-2</v>
       </c>
       <c r="R17" s="41">
@@ -3885,127 +3905,147 @@
         <v>5.5321342714533601E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:22" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="L18" s="41">
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="L18" s="53">
         <v>0.485681593218527</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="53">
         <v>0.87586599959642397</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="53">
         <v>0.93627788500424103</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="54">
         <v>2.8760288764905599E-2</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="54">
         <v>4.4049561360450601E-2</v>
       </c>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-    </row>
-    <row r="19" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+    </row>
+    <row r="19" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="L19" s="47">
+      <c r="G19" s="56">
+        <v>0.37528022552289197</v>
+      </c>
+      <c r="H19" s="56">
+        <v>0.70898888205050303</v>
+      </c>
+      <c r="I19" s="56">
+        <v>0.859816502371338</v>
+      </c>
+      <c r="J19" s="55">
+        <v>9.6331666316721604E-2</v>
+      </c>
+      <c r="K19" s="55">
+        <v>0.105713729081702</v>
+      </c>
+      <c r="L19" s="56">
         <v>0.47566398921654102</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="56">
         <v>0.84405080649754105</v>
       </c>
-      <c r="N19" s="47">
+      <c r="N19" s="56">
         <v>0.92051855478715705</v>
       </c>
-      <c r="O19" s="48">
+      <c r="O19" s="57">
         <v>3.2037597043465003E-2</v>
       </c>
-      <c r="P19" s="48">
+      <c r="P19" s="57">
         <v>4.6118542378074397E-2</v>
       </c>
-      <c r="R19" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-    </row>
-    <row r="20" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="R19" s="56">
+        <v>0.59955926502497103</v>
+      </c>
+      <c r="S19" s="56">
+        <v>0.78933125988883501</v>
+      </c>
+      <c r="T19" s="56">
+        <v>0.94869662089206597</v>
+      </c>
+      <c r="U19" s="55">
+        <v>5.0057571149238499E-2</v>
+      </c>
+      <c r="V19" s="55">
+        <v>5.4877029770464998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="48">
         <v>0.43734748978439902</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="48">
         <v>0.83582195309103802</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="48">
         <v>0.90654547633930604</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="28">
         <v>7.6435628227395802E-2</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="28">
         <v>9.4105249121416296E-2</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L20" s="6">
         <v>0.52719019632316599</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="6">
         <v>0.89044415843526803</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="6">
         <v>0.94233414227701595</v>
       </c>
-      <c r="O20" s="48">
+      <c r="O20" s="49">
         <v>2.5079185192247801E-2</v>
       </c>
-      <c r="P20" s="48">
+      <c r="P20" s="49">
         <v>4.2406372327575999E-2</v>
       </c>
-      <c r="R20" s="47">
+      <c r="R20" s="48">
         <v>0.66063238169757499</v>
       </c>
-      <c r="S20" s="47">
+      <c r="S20" s="48">
         <v>0.90979241274186395</v>
       </c>
-      <c r="T20" s="47">
+      <c r="T20" s="48">
         <v>0.97291791160275398</v>
       </c>
-      <c r="U20" s="36">
+      <c r="U20" s="28">
         <v>3.6398513055700001E-2</v>
       </c>
-      <c r="V20" s="36">
+      <c r="V20" s="28">
         <v>4.5410556638999199E-2</v>
       </c>
     </row>
@@ -4029,31 +4069,51 @@
       <c r="C22" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G22" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="L22" s="49">
+      <c r="G22" s="46">
+        <v>0.44214474328229503</v>
+      </c>
+      <c r="H22" s="46">
+        <v>0.84107673950456596</v>
+      </c>
+      <c r="I22" s="46">
+        <v>0.907716085449224</v>
+      </c>
+      <c r="J22" s="24">
+        <v>7.3904807642565407E-2</v>
+      </c>
+      <c r="K22" s="24">
+        <v>9.3746807413714606E-2</v>
+      </c>
+      <c r="L22" s="46">
         <v>0.52181982596156395</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="46">
         <v>0.89093869573544204</v>
       </c>
-      <c r="N22" s="49">
+      <c r="N22" s="46">
         <v>0.94258284186542496</v>
       </c>
-      <c r="O22" s="50">
+      <c r="O22" s="47">
         <v>2.8461095022346401E-2</v>
       </c>
-      <c r="P22" s="50">
+      <c r="P22" s="47">
         <v>4.1900366180971801E-2</v>
       </c>
-      <c r="R22" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="S22" s="49"/>
-      <c r="T22" s="49"/>
+      <c r="R22" s="46">
+        <v>0.664197295226434</v>
+      </c>
+      <c r="S22" s="46">
+        <v>0.90936678856998998</v>
+      </c>
+      <c r="T22" s="46">
+        <v>0.97201489595589596</v>
+      </c>
+      <c r="U22" s="24">
+        <v>3.5743781660970003E-2</v>
+      </c>
+      <c r="V22" s="24">
+        <v>4.5720232950223497E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -4068,19 +4128,19 @@
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
       <c r="I23" s="41"/>
-      <c r="L23" s="43">
+      <c r="L23" s="50">
         <v>0.39728044509084198</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="50">
         <v>0.76987304761827202</v>
       </c>
-      <c r="N23" s="43">
+      <c r="N23" s="50">
         <v>0.88266797860906099</v>
       </c>
-      <c r="O23" s="44">
+      <c r="O23" s="51">
         <v>4.0290715267610099E-2</v>
       </c>
-      <c r="P23" s="44">
+      <c r="P23" s="51">
         <v>5.2531731185968301E-2</v>
       </c>
       <c r="R23" s="41"/>
@@ -4142,13 +4202,13 @@
       <c r="C26" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="45">
         <v>0.34893247055384802</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="45">
         <v>0.67317502542262897</v>
       </c>
-      <c r="I26" s="47">
+      <c r="I26" s="45">
         <v>0.84248623447175797</v>
       </c>
       <c r="J26" s="36">
@@ -4157,28 +4217,28 @@
       <c r="K26" s="36">
         <v>0.110216817388472</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="43">
         <v>0.40407461052249199</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="43">
         <v>0.78409109272143296</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="43">
         <v>0.88931404963882599</v>
       </c>
-      <c r="O26" s="46">
+      <c r="O26" s="44">
         <v>4.0847215751155602E-2</v>
       </c>
-      <c r="P26" s="46">
+      <c r="P26" s="44">
         <v>5.2182795027841303E-2</v>
       </c>
-      <c r="R26" s="47">
+      <c r="R26" s="45">
         <v>0.60047364223300004</v>
       </c>
-      <c r="S26" s="47">
+      <c r="S26" s="45">
         <v>0.74598242392985104</v>
       </c>
-      <c r="T26" s="47">
+      <c r="T26" s="45">
         <v>0.94286147483809202</v>
       </c>
       <c r="U26" s="36">

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="145">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -417,9 +417,6 @@
   </si>
   <si>
     <t>head=1</t>
-  </si>
-  <si>
-    <t>layer=12</t>
   </si>
   <si>
     <t>ppi vector pretrained 256</t>
@@ -562,7 +559,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +604,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -627,7 +630,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -671,9 +674,6 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -683,9 +683,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="9" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="9" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -971,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:X79"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66:E73"/>
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3529,34 +3533,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V26"/>
+  <dimension ref="A2:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="11" width="9.140625" customWidth="1"/>
-    <col min="15" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" customWidth="1"/>
+    <col min="14" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -3572,679 +3576,676 @@
       <c r="E6" t="s">
         <v>131</v>
       </c>
-      <c r="F6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R8" s="1"/>
       <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="L9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="R9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26">
+        <v>0.34050000000000002</v>
+      </c>
       <c r="G10" s="26">
-        <v>0.34050000000000002</v>
+        <v>0.62670000000000003</v>
       </c>
       <c r="H10" s="26">
-        <v>0.62670000000000003</v>
-      </c>
-      <c r="I10" s="26">
         <v>0.81889999999999996</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26">
+        <v>0.38629999999999998</v>
+      </c>
       <c r="L10" s="26">
-        <v>0.38629999999999998</v>
+        <v>0.72419999999999995</v>
       </c>
       <c r="M10" s="26">
-        <v>0.72419999999999995</v>
-      </c>
-      <c r="N10" s="26">
         <v>0.86729999999999996</v>
       </c>
-      <c r="O10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="27"/>
       <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
+      <c r="Q10" s="26">
+        <v>0.57199999999999995</v>
+      </c>
       <c r="R10" s="26">
-        <v>0.57199999999999995</v>
+        <v>0.67010000000000003</v>
       </c>
       <c r="S10" s="26">
-        <v>0.67010000000000003</v>
-      </c>
-      <c r="T10" s="26">
         <v>0.92390000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E11" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="24"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D11" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="24"/>
+      <c r="F11" s="26">
+        <v>0.34649999999999997</v>
+      </c>
       <c r="G11" s="26">
-        <v>0.34649999999999997</v>
+        <v>0.64170000000000005</v>
       </c>
       <c r="H11" s="26">
-        <v>0.64170000000000005</v>
-      </c>
-      <c r="I11" s="26">
         <v>0.83460000000000001</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="24"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="26">
+        <v>0.39579999999999999</v>
+      </c>
       <c r="L11" s="26">
-        <v>0.39579999999999999</v>
+        <v>0.76959999999999995</v>
       </c>
       <c r="M11" s="26">
-        <v>0.76959999999999995</v>
-      </c>
-      <c r="N11" s="26">
         <v>0.89039999999999997</v>
       </c>
-      <c r="O11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
+      <c r="Q11" s="26">
+        <v>0.57369999999999999</v>
+      </c>
       <c r="R11" s="26">
-        <v>0.57369999999999999</v>
+        <v>0.67589999999999995</v>
       </c>
       <c r="S11" s="26">
-        <v>0.67589999999999995</v>
-      </c>
-      <c r="T11" s="26">
         <v>0.92869999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E12" s="25" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="I12" s="26"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="26">
+        <v>0.4677</v>
+      </c>
+      <c r="L12" s="26">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="M12" s="26">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="N12" s="26"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="26">
+        <v>0.627</v>
+      </c>
+      <c r="R12" s="26">
+        <v>0.878</v>
+      </c>
+      <c r="S12" s="26">
+        <v>0.9647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D13" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="26">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="H12" s="26">
-        <v>0.81869999999999998</v>
-      </c>
-      <c r="I12" s="26">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="26">
-        <v>0.4677</v>
-      </c>
-      <c r="M12" s="26">
-        <v>0.83730000000000004</v>
-      </c>
-      <c r="N12" s="26">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="O12" s="26"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="26">
-        <v>0.627</v>
-      </c>
-      <c r="S12" s="26">
-        <v>0.878</v>
-      </c>
-      <c r="T12" s="26">
-        <v>0.9647</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="E13" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="27">
+        <v>42.51</v>
+      </c>
       <c r="G13" s="27">
-        <v>42.51</v>
+        <v>82.97</v>
       </c>
       <c r="H13" s="27">
-        <v>82.97</v>
-      </c>
-      <c r="I13" s="27">
         <v>90.27</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="24"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="27">
+        <v>48.62</v>
+      </c>
       <c r="L13" s="27">
-        <v>48.62</v>
+        <v>87.25</v>
       </c>
       <c r="M13" s="27">
-        <v>87.25</v>
-      </c>
-      <c r="N13" s="27">
         <v>93.14</v>
       </c>
-      <c r="O13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="24"/>
       <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
+      <c r="Q13" s="27">
+        <v>63.77</v>
+      </c>
       <c r="R13" s="27">
-        <v>63.77</v>
+        <v>89.79</v>
       </c>
       <c r="S13" s="27">
-        <v>89.79</v>
-      </c>
-      <c r="T13" s="27">
         <v>97.1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D14" s="28"/>
       <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
+      <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="28"/>
       <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>134</v>
-      </c>
+      <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="N16" t="s">
+        <v>120</v>
+      </c>
       <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="T16" t="s">
         <v>120</v>
       </c>
-      <c r="P16" t="s">
+      <c r="U16" t="s">
         <v>109</v>
       </c>
-      <c r="U16" t="s">
-        <v>120</v>
-      </c>
-      <c r="V16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
         <v>135</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>136</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" s="41">
+        <v>0.34806500737194901</v>
+      </c>
+      <c r="G17" s="41">
+        <v>0.68344004743855602</v>
+      </c>
+      <c r="H17" s="41">
+        <v>0.848141905475712</v>
+      </c>
+      <c r="I17">
+        <v>0.102571719682701</v>
+      </c>
+      <c r="J17">
+        <v>0.10941309332454401</v>
+      </c>
+      <c r="K17" s="47">
+        <v>0.40326794737190902</v>
+      </c>
+      <c r="L17" s="47">
+        <v>0.77992288244587304</v>
+      </c>
+      <c r="M17" s="47">
+        <v>0.89643268200654302</v>
+      </c>
+      <c r="N17" s="48">
+        <v>4.4325446345408998E-2</v>
+      </c>
+      <c r="O17" s="48">
+        <v>5.0013094739035202E-2</v>
+      </c>
+      <c r="Q17" s="41">
+        <v>0.59486973887480998</v>
+      </c>
+      <c r="R17" s="41">
+        <v>0.74918103311133299</v>
+      </c>
+      <c r="S17" s="41">
+        <v>0.94572578270612895</v>
+      </c>
+      <c r="T17">
+        <v>5.4420958964907298E-2</v>
+      </c>
+      <c r="U17">
+        <v>5.5321342714533601E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="41">
-        <v>0.34806500737194901</v>
-      </c>
-      <c r="H17" s="41">
-        <v>0.68344004743855602</v>
-      </c>
-      <c r="I17" s="41">
-        <v>0.848141905475712</v>
-      </c>
-      <c r="J17">
-        <v>0.102571719682701</v>
-      </c>
-      <c r="K17">
-        <v>0.10941309332454401</v>
-      </c>
-      <c r="L17" s="50">
-        <v>0.40326794737190902</v>
-      </c>
-      <c r="M17" s="50">
-        <v>0.77992288244587304</v>
-      </c>
-      <c r="N17" s="50">
-        <v>0.89643268200654302</v>
-      </c>
-      <c r="O17" s="51">
-        <v>4.4325446345408998E-2</v>
-      </c>
-      <c r="P17" s="51">
-        <v>5.0013094739035202E-2</v>
-      </c>
-      <c r="R17" s="41">
-        <v>0.59486973887480998</v>
-      </c>
-      <c r="S17" s="41">
-        <v>0.74918103311133299</v>
-      </c>
-      <c r="T17" s="41">
-        <v>0.94572578270612895</v>
-      </c>
-      <c r="U17">
-        <v>5.4420958964907298E-2</v>
-      </c>
-      <c r="V17">
-        <v>5.5321342714533601E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="B18" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="K18" s="50">
+        <v>0.485681593218527</v>
+      </c>
+      <c r="L18" s="50">
+        <v>0.87586599959642397</v>
+      </c>
+      <c r="M18" s="50">
+        <v>0.93627788500424103</v>
+      </c>
+      <c r="N18" s="51">
+        <v>2.8760288764905599E-2</v>
+      </c>
+      <c r="O18" s="51">
+        <v>4.4049561360450601E-2</v>
+      </c>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+    </row>
+    <row r="19" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="53">
+        <v>0.37528022552289197</v>
+      </c>
+      <c r="G19" s="53">
+        <v>0.70898888205050303</v>
+      </c>
+      <c r="H19" s="53">
+        <v>0.859816502371338</v>
+      </c>
+      <c r="I19" s="52">
+        <v>9.6331666316721604E-2</v>
+      </c>
+      <c r="J19" s="52">
+        <v>0.105713729081702</v>
+      </c>
+      <c r="K19" s="53">
+        <v>0.47566398921654102</v>
+      </c>
+      <c r="L19" s="53">
+        <v>0.84405080649754105</v>
+      </c>
+      <c r="M19" s="53">
+        <v>0.92051855478715705</v>
+      </c>
+      <c r="N19" s="54">
+        <v>3.2037597043465003E-2</v>
+      </c>
+      <c r="O19" s="54">
+        <v>4.6118542378074397E-2</v>
+      </c>
+      <c r="Q19" s="53">
+        <v>0.59955926502497103</v>
+      </c>
+      <c r="R19" s="53">
+        <v>0.78933125988883501</v>
+      </c>
+      <c r="S19" s="53">
+        <v>0.94869662089206597</v>
+      </c>
+      <c r="T19" s="52">
+        <v>5.0057571149238499E-2</v>
+      </c>
+      <c r="U19" s="52">
+        <v>5.4877029770464998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B20" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="L18" s="53">
-        <v>0.485681593218527</v>
-      </c>
-      <c r="M18" s="53">
-        <v>0.87586599959642397</v>
-      </c>
-      <c r="N18" s="53">
-        <v>0.93627788500424103</v>
-      </c>
-      <c r="O18" s="54">
-        <v>2.8760288764905599E-2</v>
-      </c>
-      <c r="P18" s="54">
-        <v>4.4049561360450601E-2</v>
-      </c>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-    </row>
-    <row r="19" spans="1:22" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="56">
-        <v>0.37528022552289197</v>
-      </c>
-      <c r="H19" s="56">
-        <v>0.70898888205050303</v>
-      </c>
-      <c r="I19" s="56">
-        <v>0.859816502371338</v>
-      </c>
-      <c r="J19" s="55">
-        <v>9.6331666316721604E-2</v>
-      </c>
-      <c r="K19" s="55">
-        <v>0.105713729081702</v>
-      </c>
-      <c r="L19" s="56">
-        <v>0.47566398921654102</v>
-      </c>
-      <c r="M19" s="56">
-        <v>0.84405080649754105</v>
-      </c>
-      <c r="N19" s="56">
-        <v>0.92051855478715705</v>
-      </c>
-      <c r="O19" s="57">
-        <v>3.2037597043465003E-2</v>
-      </c>
-      <c r="P19" s="57">
-        <v>4.6118542378074397E-2</v>
-      </c>
-      <c r="R19" s="56">
-        <v>0.59955926502497103</v>
-      </c>
-      <c r="S19" s="56">
-        <v>0.78933125988883501</v>
-      </c>
-      <c r="T19" s="56">
-        <v>0.94869662089206597</v>
-      </c>
-      <c r="U19" s="55">
-        <v>5.0057571149238499E-2</v>
-      </c>
-      <c r="V19" s="55">
-        <v>5.4877029770464998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="48">
+      <c r="F20" s="45">
         <v>0.43734748978439902</v>
       </c>
-      <c r="H20" s="48">
+      <c r="G20" s="45">
         <v>0.83582195309103802</v>
       </c>
-      <c r="I20" s="48">
+      <c r="H20" s="45">
         <v>0.90654547633930604</v>
       </c>
+      <c r="I20" s="28">
+        <v>7.6435628227395802E-2</v>
+      </c>
       <c r="J20" s="28">
-        <v>7.6435628227395802E-2</v>
-      </c>
-      <c r="K20" s="28">
         <v>9.4105249121416296E-2</v>
       </c>
+      <c r="K20" s="6">
+        <v>0.52719019632316599</v>
+      </c>
       <c r="L20" s="6">
-        <v>0.52719019632316599</v>
+        <v>0.89044415843526803</v>
       </c>
       <c r="M20" s="6">
-        <v>0.89044415843526803</v>
-      </c>
-      <c r="N20" s="6">
         <v>0.94233414227701595</v>
       </c>
-      <c r="O20" s="49">
+      <c r="N20" s="46">
         <v>2.5079185192247801E-2</v>
       </c>
-      <c r="P20" s="49">
+      <c r="O20" s="46">
         <v>4.2406372327575999E-2</v>
       </c>
-      <c r="R20" s="48">
+      <c r="Q20" s="45">
         <v>0.66063238169757499</v>
       </c>
-      <c r="S20" s="48">
+      <c r="R20" s="45">
         <v>0.90979241274186395</v>
       </c>
-      <c r="T20" s="48">
+      <c r="S20" s="45">
         <v>0.97291791160275398</v>
       </c>
+      <c r="T20" s="28">
+        <v>3.6398513055700001E-2</v>
+      </c>
       <c r="U20" s="28">
-        <v>3.6398513055700001E-2</v>
-      </c>
-      <c r="V20" s="28">
         <v>4.5410556638999199E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="N21" s="42"/>
       <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
+      <c r="Q21" s="41"/>
       <c r="R21" s="41"/>
       <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-    </row>
-    <row r="22" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="46">
+      <c r="F22" s="43">
         <v>0.44214474328229503</v>
       </c>
-      <c r="H22" s="46">
+      <c r="G22" s="43">
         <v>0.84107673950456596</v>
       </c>
-      <c r="I22" s="46">
+      <c r="H22" s="43">
         <v>0.907716085449224</v>
       </c>
+      <c r="I22" s="24">
+        <v>7.3904807642565407E-2</v>
+      </c>
       <c r="J22" s="24">
-        <v>7.3904807642565407E-2</v>
-      </c>
-      <c r="K22" s="24">
         <v>9.3746807413714606E-2</v>
       </c>
-      <c r="L22" s="46">
+      <c r="K22" s="43">
         <v>0.52181982596156395</v>
       </c>
-      <c r="M22" s="46">
+      <c r="L22" s="43">
         <v>0.89093869573544204</v>
       </c>
-      <c r="N22" s="46">
+      <c r="M22" s="43">
         <v>0.94258284186542496</v>
       </c>
-      <c r="O22" s="47">
+      <c r="N22" s="44">
         <v>2.8461095022346401E-2</v>
       </c>
-      <c r="P22" s="47">
+      <c r="O22" s="44">
         <v>4.1900366180971801E-2</v>
       </c>
-      <c r="R22" s="46">
+      <c r="Q22" s="43">
         <v>0.664197295226434</v>
       </c>
-      <c r="S22" s="46">
+      <c r="R22" s="43">
         <v>0.90936678856998998</v>
       </c>
-      <c r="T22" s="46">
+      <c r="S22" s="43">
         <v>0.97201489595589596</v>
       </c>
+      <c r="T22" s="24">
+        <v>3.5743781660970003E-2</v>
+      </c>
       <c r="U22" s="24">
-        <v>3.5743781660970003E-2</v>
-      </c>
-      <c r="V22" s="24">
         <v>4.5720232950223497E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
         <v>135</v>
       </c>
-      <c r="B23" t="s">
-        <v>136</v>
-      </c>
       <c r="C23" t="s">
-        <v>140</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="L23" s="50">
+      <c r="K23" s="47">
         <v>0.39728044509084198</v>
       </c>
-      <c r="M23" s="50">
+      <c r="L23" s="47">
         <v>0.76987304761827202</v>
       </c>
-      <c r="N23" s="50">
+      <c r="M23" s="47">
         <v>0.88266797860906099</v>
       </c>
-      <c r="O23" s="51">
+      <c r="N23" s="48">
         <v>4.0290715267610099E-2</v>
       </c>
-      <c r="P23" s="51">
+      <c r="O23" s="48">
         <v>5.2531731185968301E-2</v>
       </c>
+      <c r="Q23" s="41"/>
       <c r="R23" s="41"/>
       <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="K24" s="41"/>
       <c r="L24" s="41"/>
       <c r="M24" s="41"/>
       <c r="N24" s="41"/>
       <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
+      <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
+      <c r="K25" s="41">
+        <v>0.52798739219405399</v>
+      </c>
       <c r="L25" s="41">
-        <v>0.52798739219405399</v>
+        <v>0.88908131752518804</v>
       </c>
       <c r="M25" s="41">
-        <v>0.88908131752518804</v>
-      </c>
-      <c r="N25" s="41">
         <v>0.93999240479022494</v>
       </c>
+      <c r="N25" s="42">
+        <v>2.3933667898394601E-2</v>
+      </c>
       <c r="O25" s="42">
-        <v>2.3933667898394601E-2</v>
-      </c>
-      <c r="P25" s="42">
         <v>4.2602221911121202E-2</v>
       </c>
+      <c r="Q25" s="41"/>
       <c r="R25" s="41"/>
       <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
-    </row>
-    <row r="26" spans="1:22" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+    </row>
+    <row r="26" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="45">
+      <c r="C26" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="56">
         <v>0.34893247055384802</v>
       </c>
-      <c r="H26" s="45">
+      <c r="G26" s="56">
         <v>0.67317502542262897</v>
       </c>
-      <c r="I26" s="45">
+      <c r="H26" s="56">
         <v>0.84248623447175797</v>
       </c>
-      <c r="J26" s="36">
+      <c r="I26" s="55">
         <v>0.103582492198157</v>
       </c>
-      <c r="K26" s="36">
+      <c r="J26" s="55">
         <v>0.110216817388472</v>
       </c>
-      <c r="L26" s="43">
+      <c r="K26" s="57">
         <v>0.40407461052249199</v>
       </c>
-      <c r="M26" s="43">
+      <c r="L26" s="57">
         <v>0.78409109272143296</v>
       </c>
-      <c r="N26" s="43">
+      <c r="M26" s="57">
         <v>0.88931404963882599</v>
       </c>
-      <c r="O26" s="44">
+      <c r="N26" s="58">
         <v>4.0847215751155602E-2</v>
       </c>
-      <c r="P26" s="44">
+      <c r="O26" s="58">
         <v>5.2182795027841303E-2</v>
       </c>
-      <c r="R26" s="45">
+      <c r="Q26" s="56">
         <v>0.60047364223300004</v>
       </c>
-      <c r="S26" s="45">
+      <c r="R26" s="56">
         <v>0.74598242392985104</v>
       </c>
-      <c r="T26" s="45">
+      <c r="S26" s="56">
         <v>0.94286147483809202</v>
       </c>
-      <c r="U26" s="36">
+      <c r="T26" s="55">
         <v>4.9549475900016203E-2</v>
       </c>
-      <c r="V26" s="36">
+      <c r="U26" s="55">
         <v>5.6839456085560298E-2</v>
       </c>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -3535,8 +3535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3916,9 +3916,21 @@
       <c r="C18" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
+      <c r="F18" s="50">
+        <v>0.435953328415844</v>
+      </c>
+      <c r="G18" s="50">
+        <v>0.84098678518822201</v>
+      </c>
+      <c r="H18" s="50">
+        <v>0.909752681877249</v>
+      </c>
+      <c r="I18" s="49">
+        <v>8.06950336631517E-2</v>
+      </c>
+      <c r="J18" s="49">
+        <v>9.2957143526118502E-2</v>
+      </c>
       <c r="K18" s="50">
         <v>0.485681593218527</v>
       </c>
@@ -3934,9 +3946,21 @@
       <c r="O18" s="51">
         <v>4.4049561360450601E-2</v>
       </c>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
+      <c r="Q18" s="50">
+        <v>0.66452553949577498</v>
+      </c>
+      <c r="R18" s="50">
+        <v>0.912509538326713</v>
+      </c>
+      <c r="S18" s="50">
+        <v>0.97378513227352603</v>
+      </c>
+      <c r="T18" s="49">
+        <v>3.7570015463531101E-2</v>
+      </c>
+      <c r="U18" s="49">
+        <v>4.4823117068284901E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="52" t="s">

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -3536,7 +3536,7 @@
   <dimension ref="A2:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="148">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -462,6 +462,15 @@
   </si>
   <si>
     <t>bert12-&gt;unfreeze-&gt;layernorm</t>
+  </si>
+  <si>
+    <t>add 20 topology</t>
+  </si>
+  <si>
+    <t>BertAveWordClsSepLayer11+12</t>
+  </si>
+  <si>
+    <t>ELMO</t>
   </si>
 </sst>
 </file>
@@ -474,7 +483,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -558,8 +567,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +630,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -630,7 +652,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -676,8 +698,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -690,6 +710,13 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="12" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="13" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -973,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:X79"/>
+  <dimension ref="A4:X81"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,312 +3243,400 @@
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="3">
-        <v>0.43149999999999999</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0.83409999999999995</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0.90590000000000004</v>
-      </c>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3">
-        <v>0.39169999999999999</v>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3">
-        <v>0.49930000000000002</v>
-      </c>
-      <c r="L68" s="3">
-        <v>0.87290000000000001</v>
-      </c>
-      <c r="M68" s="3">
-        <v>0.93389999999999995</v>
-      </c>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3">
-        <v>0.42930000000000001</v>
-      </c>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="3">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="U68" s="17">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="V68" s="3">
-        <v>0.97260000000000002</v>
-      </c>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3">
-        <v>0.65810000000000002</v>
-      </c>
+      <c r="C68" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="61">
+        <v>0.43940000000000001</v>
+      </c>
+      <c r="F68" s="61">
+        <v>0.8347</v>
+      </c>
+      <c r="G68" s="61">
+        <v>0.9052</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="61">
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="L68" s="61">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="M68" s="61">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="N68" s="6"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="61">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="U68" s="61">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="V68" s="61">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="1">
-        <v>43.45</v>
-      </c>
-      <c r="F69" s="1">
-        <v>83.11</v>
-      </c>
-      <c r="G69" s="1">
-        <v>90.55</v>
-      </c>
-      <c r="H69" s="18"/>
+      <c r="E69" s="3">
+        <v>0.43149999999999999</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0.83409999999999995</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="H69" s="3"/>
       <c r="I69" s="3">
-        <v>0.3896</v>
-      </c>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1">
-        <v>49.24</v>
-      </c>
-      <c r="L69" s="1">
-        <v>87.43</v>
-      </c>
-      <c r="M69" s="1">
-        <v>93.52</v>
-      </c>
-      <c r="N69" s="1"/>
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0.93389999999999995</v>
+      </c>
+      <c r="N69" s="3"/>
       <c r="O69" s="3">
-        <v>0.42209999999999998</v>
-      </c>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="4">
-        <v>65.39</v>
-      </c>
-      <c r="U69" s="1">
-        <v>90.27</v>
-      </c>
-      <c r="V69" s="4">
-        <v>97.27</v>
-      </c>
-      <c r="W69" s="1"/>
+        <v>0.42930000000000001</v>
+      </c>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="3">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="U69" s="17">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="W69" s="3"/>
       <c r="X69" s="3">
-        <v>0.65659999999999996</v>
+        <v>0.65810000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <v>43.45</v>
+      </c>
+      <c r="F70" s="1">
+        <v>83.11</v>
+      </c>
+      <c r="G70" s="1">
+        <v>90.55</v>
+      </c>
+      <c r="H70" s="18"/>
+      <c r="I70" s="3">
+        <v>0.3896</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1">
+        <v>49.24</v>
+      </c>
+      <c r="L70" s="1">
+        <v>87.43</v>
+      </c>
+      <c r="M70" s="1">
+        <v>93.52</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="3">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="4">
+        <v>65.39</v>
+      </c>
+      <c r="U70" s="1">
+        <v>90.27</v>
+      </c>
+      <c r="V70" s="4">
+        <v>97.27</v>
+      </c>
+      <c r="W70" s="1"/>
+      <c r="X70" s="3">
+        <v>0.65659999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="3">
+      <c r="D71" s="1"/>
+      <c r="E71" s="3">
         <v>0.42909999999999998</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F71" s="3">
         <v>0.83479999999999999</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G71" s="3">
         <v>0.90569999999999995</v>
       </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3">
+      <c r="H71" s="3"/>
+      <c r="I71" s="3">
         <v>0.38979999999999998</v>
       </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3">
+      <c r="J71" s="3"/>
+      <c r="K71" s="3">
         <v>0.49349999999999999</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L71" s="17">
         <v>0.87919999999999998</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M71" s="3">
         <v>0.93830000000000002</v>
       </c>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3">
+      <c r="N71" s="3"/>
+      <c r="O71" s="3">
         <v>0.43259999999999998</v>
       </c>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3">
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3">
         <v>0.6482</v>
       </c>
-      <c r="U70" s="3">
+      <c r="U71" s="3">
         <v>0.90500000000000003</v>
       </c>
-      <c r="V70" s="3">
+      <c r="V71" s="3">
         <v>0.97209999999999996</v>
       </c>
-      <c r="W70" s="3"/>
-      <c r="X70" s="3">
+      <c r="W71" s="3"/>
+      <c r="X71" s="3">
         <v>0.65500000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C71" s="32" t="s">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C72" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="32"/>
-      <c r="E71" s="33">
+      <c r="D72" s="32"/>
+      <c r="E72" s="33">
         <v>0.43919999999999998</v>
       </c>
-      <c r="F71" s="33">
+      <c r="F72" s="33">
         <v>0.83489999999999998</v>
       </c>
-      <c r="G71" s="33">
+      <c r="G72" s="33">
         <v>0.90769999999999995</v>
       </c>
-      <c r="H71" s="34"/>
-      <c r="I71" s="35">
+      <c r="H72" s="34"/>
+      <c r="I72" s="35">
         <v>0.39300000000000002</v>
       </c>
-      <c r="J71" s="32"/>
-      <c r="K71" s="33">
+      <c r="J72" s="32"/>
+      <c r="K72" s="33">
         <v>0.503</v>
       </c>
-      <c r="L71" s="35">
+      <c r="L72" s="35">
         <v>0.87680000000000002</v>
       </c>
-      <c r="M71" s="35">
+      <c r="M72" s="35">
         <v>0.93659999999999999</v>
       </c>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35">
+      <c r="N72" s="35"/>
+      <c r="O72" s="35">
         <v>0.43430000000000002</v>
       </c>
-      <c r="P71" s="32"/>
-      <c r="Q71" s="32"/>
-      <c r="R71" s="32"/>
-      <c r="S71" s="32"/>
-      <c r="T71" s="33">
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="33">
         <v>0.6583</v>
       </c>
-      <c r="U71" s="35">
+      <c r="U72" s="35">
         <v>0.90510000000000002</v>
       </c>
-      <c r="V71" s="33">
+      <c r="V72" s="33">
         <v>0.97299999999999998</v>
       </c>
-      <c r="W71" s="1"/>
-      <c r="X71" s="17">
+      <c r="W72" s="1"/>
+      <c r="X72" s="17">
         <v>0.66559999999999997</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="4">
-        <v>42.83</v>
-      </c>
-      <c r="F72" s="4">
-        <v>83.36</v>
-      </c>
-      <c r="G72" s="4">
-        <v>90.7</v>
-      </c>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4">
-        <v>39.229999999999997</v>
-      </c>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4">
-        <v>49.84</v>
-      </c>
-      <c r="L72" s="4">
-        <v>87.5</v>
-      </c>
-      <c r="M72" s="4">
-        <v>93.41</v>
-      </c>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4">
-        <v>42.63</v>
-      </c>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4">
-        <v>65.8</v>
-      </c>
-      <c r="U72" s="4">
-        <v>90.5</v>
-      </c>
-      <c r="V72" s="4">
-        <v>97.3</v>
-      </c>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4">
-        <v>66.290000000000006</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="4">
+        <v>42.83</v>
+      </c>
+      <c r="F73" s="4">
+        <v>83.36</v>
+      </c>
+      <c r="G73" s="4">
+        <v>90.7</v>
+      </c>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4">
+        <v>49.84</v>
+      </c>
+      <c r="L73" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="M73" s="4">
+        <v>93.41</v>
+      </c>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4">
+        <v>42.63</v>
+      </c>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4">
+        <v>65.8</v>
+      </c>
+      <c r="U73" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="V73" s="4">
+        <v>97.3</v>
+      </c>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4">
+        <v>66.290000000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C74" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="61">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="F74" s="61">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="G74" s="61">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="61">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="L74" s="61">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="M74" s="61">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="61">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="U74" s="61">
+        <v>0.9052</v>
+      </c>
+      <c r="V74" s="61">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="19">
+      <c r="D75" s="1"/>
+      <c r="E75" s="19">
         <v>0.4335</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F75" s="19">
         <v>0.83350000000000002</v>
       </c>
-      <c r="G73" s="19">
+      <c r="G75" s="19">
         <v>0.90259999999999996</v>
       </c>
-      <c r="H73" s="20"/>
-      <c r="I73" s="19">
+      <c r="H75" s="20"/>
+      <c r="I75" s="19">
         <v>0.38850000000000001</v>
       </c>
-      <c r="J73" s="21"/>
-      <c r="K73" s="19">
+      <c r="J75" s="21"/>
+      <c r="K75" s="19">
         <v>0.49130000000000001</v>
       </c>
-      <c r="L73" s="19">
+      <c r="L75" s="19">
         <v>0.87970000000000004</v>
       </c>
-      <c r="M73" s="19">
+      <c r="M75" s="19">
         <v>0.93069999999999997</v>
       </c>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19">
+      <c r="N75" s="19"/>
+      <c r="O75" s="19">
         <v>0.41320000000000001</v>
       </c>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="19">
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="19">
         <v>0.65659999999999996</v>
       </c>
-      <c r="U73" s="19">
+      <c r="U75" s="19">
         <v>0.90269999999999995</v>
       </c>
-      <c r="V73" s="19">
+      <c r="V75" s="19">
         <v>0.97240000000000004</v>
       </c>
-      <c r="W73" s="22"/>
-      <c r="X73" s="23">
+      <c r="W75" s="22"/>
+      <c r="X75" s="23">
         <v>0.66069999999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3533,10 +3648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U26"/>
+  <dimension ref="A2:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,42 +3904,82 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D14" s="28"/>
+      <c r="D14" s="60" t="s">
+        <v>146</v>
+      </c>
       <c r="E14" s="28"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="61">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="G14" s="61">
+        <v>0.83840000000000003</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0.90900000000000003</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="28"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="K14" s="61">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="L14" s="61">
+        <v>0.88060000000000005</v>
+      </c>
+      <c r="M14" s="61">
+        <v>0.93830000000000002</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="28"/>
       <c r="P14" s="28"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="Q14" s="61">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="R14" s="61">
+        <v>0.9052</v>
+      </c>
+      <c r="S14" s="61">
+        <v>0.97289999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="28"/>
+      <c r="D15" s="61" t="s">
+        <v>147</v>
+      </c>
       <c r="E15" s="28"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="61">
+        <v>0.43940000000000001</v>
+      </c>
+      <c r="G15" s="61">
+        <v>0.8347</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0.9052</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="K15" s="61">
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="L15" s="61">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="M15" s="61">
+        <v>0.93269999999999997</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q15" s="61">
+        <v>0.66449999999999998</v>
+      </c>
+      <c r="R15" s="61">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="S15" s="61">
+        <v>0.97289999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>140</v>
       </c>
@@ -3834,19 +3989,25 @@
       <c r="C16" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="N16" t="s">
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="O16" t="s">
+      <c r="J16" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="T16" t="s">
+      <c r="N16" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="U16" t="s">
+      <c r="O16" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="T16" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="U16" s="36" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3875,19 +4036,19 @@
       <c r="J17">
         <v>0.10941309332454401</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="45">
         <v>0.40326794737190902</v>
       </c>
-      <c r="L17" s="47">
+      <c r="L17" s="45">
         <v>0.77992288244587304</v>
       </c>
-      <c r="M17" s="47">
+      <c r="M17" s="45">
         <v>0.89643268200654302</v>
       </c>
-      <c r="N17" s="48">
+      <c r="N17" s="46">
         <v>4.4325446345408998E-2</v>
       </c>
-      <c r="O17" s="48">
+      <c r="O17" s="46">
         <v>5.0013094739035202E-2</v>
       </c>
       <c r="Q17" s="41">
@@ -3906,376 +4067,423 @@
         <v>5.5321342714533601E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="48">
         <v>0.435953328415844</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="48">
         <v>0.84098678518822201</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="48">
         <v>0.909752681877249</v>
       </c>
-      <c r="I18" s="49">
+      <c r="I18" s="47">
         <v>8.06950336631517E-2</v>
       </c>
-      <c r="J18" s="49">
+      <c r="J18" s="47">
         <v>9.2957143526118502E-2</v>
       </c>
-      <c r="K18" s="50">
+      <c r="K18" s="48">
         <v>0.485681593218527</v>
       </c>
-      <c r="L18" s="50">
+      <c r="L18" s="48">
         <v>0.87586599959642397</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="48">
         <v>0.93627788500424103</v>
       </c>
-      <c r="N18" s="51">
+      <c r="N18" s="49">
         <v>2.8760288764905599E-2</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="49">
         <v>4.4049561360450601E-2</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="48">
         <v>0.66452553949577498</v>
       </c>
-      <c r="R18" s="50">
+      <c r="R18" s="48">
         <v>0.912509538326713</v>
       </c>
-      <c r="S18" s="50">
+      <c r="S18" s="48">
         <v>0.97378513227352603</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="47">
         <v>3.7570015463531101E-2</v>
       </c>
-      <c r="U18" s="49">
+      <c r="U18" s="47">
         <v>4.4823117068284901E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+    <row r="19" spans="1:21" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="51">
         <v>0.37528022552289197</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="51">
         <v>0.70898888205050303</v>
       </c>
-      <c r="H19" s="53">
+      <c r="H19" s="51">
         <v>0.859816502371338</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="50">
         <v>9.6331666316721604E-2</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J19" s="50">
         <v>0.105713729081702</v>
       </c>
-      <c r="K19" s="53">
+      <c r="K19" s="51">
         <v>0.47566398921654102</v>
       </c>
-      <c r="L19" s="53">
+      <c r="L19" s="51">
         <v>0.84405080649754105</v>
       </c>
-      <c r="M19" s="53">
+      <c r="M19" s="51">
         <v>0.92051855478715705</v>
       </c>
-      <c r="N19" s="54">
+      <c r="N19" s="52">
         <v>3.2037597043465003E-2</v>
       </c>
-      <c r="O19" s="54">
+      <c r="O19" s="52">
         <v>4.6118542378074397E-2</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="Q19" s="51">
         <v>0.59955926502497103</v>
       </c>
-      <c r="R19" s="53">
+      <c r="R19" s="51">
         <v>0.78933125988883501</v>
       </c>
-      <c r="S19" s="53">
+      <c r="S19" s="51">
         <v>0.94869662089206597</v>
       </c>
-      <c r="T19" s="52">
+      <c r="T19" s="50">
         <v>5.0057571149238499E-2</v>
       </c>
-      <c r="U19" s="52">
+      <c r="U19" s="50">
         <v>5.4877029770464998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+    <row r="20" spans="1:21" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="58">
+        <v>0.38279141526039001</v>
+      </c>
+      <c r="G20" s="58">
+        <v>0.72872930902799604</v>
+      </c>
+      <c r="H20" s="58">
+        <v>0.86052761948635903</v>
+      </c>
+      <c r="I20" s="57">
+        <v>9.2658910977718695E-2</v>
+      </c>
+      <c r="J20" s="57">
+        <v>0.106904722470687</v>
+      </c>
+      <c r="K20" s="58">
+        <v>0.49033099802018498</v>
+      </c>
+      <c r="L20" s="58">
+        <v>0.84597499629899997</v>
+      </c>
+      <c r="M20" s="58">
+        <v>0.91922881446351901</v>
+      </c>
+      <c r="N20" s="59">
+        <v>3.1466688934283102E-2</v>
+      </c>
+      <c r="O20" s="59">
+        <v>4.5968399905775399E-2</v>
+      </c>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="58"/>
+      <c r="S20" s="58"/>
+    </row>
+    <row r="21" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B21" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C21" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F21" s="48">
         <v>0.43734748978439902</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G21" s="48">
         <v>0.83582195309103802</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H21" s="48">
         <v>0.90654547633930604</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I21" s="47">
         <v>7.6435628227395802E-2</v>
       </c>
-      <c r="J20" s="28">
+      <c r="J21" s="47">
         <v>9.4105249121416296E-2</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K21" s="63">
         <v>0.52719019632316599</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L21" s="63">
         <v>0.89044415843526803</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M21" s="63">
         <v>0.94233414227701595</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N21" s="49">
         <v>2.5079185192247801E-2</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O21" s="49">
         <v>4.2406372327575999E-2</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q21" s="48">
         <v>0.66063238169757499</v>
       </c>
-      <c r="R20" s="45">
+      <c r="R21" s="48">
         <v>0.90979241274186395</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S21" s="48">
         <v>0.97291791160275398</v>
       </c>
-      <c r="T20" s="28">
+      <c r="T21" s="47">
         <v>3.6398513055700001E-2</v>
       </c>
-      <c r="U20" s="28">
+      <c r="U21" s="47">
         <v>4.5410556638999199E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-    </row>
-    <row r="22" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+    </row>
+    <row r="23" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B23" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C23" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F23" s="43">
         <v>0.44214474328229503</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G23" s="43">
         <v>0.84107673950456596</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H23" s="43">
         <v>0.907716085449224</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I23" s="24">
         <v>7.3904807642565407E-2</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J23" s="24">
         <v>9.3746807413714606E-2</v>
       </c>
-      <c r="K22" s="43">
+      <c r="K23" s="43">
         <v>0.52181982596156395</v>
       </c>
-      <c r="L22" s="43">
+      <c r="L23" s="43">
         <v>0.89093869573544204</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M23" s="43">
         <v>0.94258284186542496</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N23" s="44">
         <v>2.8461095022346401E-2</v>
       </c>
-      <c r="O22" s="44">
+      <c r="O23" s="44">
         <v>4.1900366180971801E-2</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q23" s="43">
         <v>0.664197295226434</v>
       </c>
-      <c r="R22" s="43">
+      <c r="R23" s="43">
         <v>0.90936678856998998</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S23" s="43">
         <v>0.97201489595589596</v>
       </c>
-      <c r="T22" s="24">
+      <c r="T23" s="24">
         <v>3.5743781660970003E-2</v>
       </c>
-      <c r="U22" s="24">
+      <c r="U23" s="24">
         <v>4.5720232950223497E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>134</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>135</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="K23" s="47">
-        <v>0.39728044509084198</v>
-      </c>
-      <c r="L23" s="47">
-        <v>0.76987304761827202</v>
-      </c>
-      <c r="M23" s="47">
-        <v>0.88266797860906099</v>
-      </c>
-      <c r="N23" s="48">
-        <v>4.0290715267610099E-2</v>
-      </c>
-      <c r="O23" s="48">
-        <v>5.2531731185968301E-2</v>
-      </c>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
+      <c r="K24" s="45">
+        <v>0.39728044509084198</v>
+      </c>
+      <c r="L24" s="45">
+        <v>0.76987304761827202</v>
+      </c>
+      <c r="M24" s="45">
+        <v>0.88266797860906099</v>
+      </c>
+      <c r="N24" s="46">
+        <v>4.0290715267610099E-2</v>
+      </c>
+      <c r="O24" s="46">
+        <v>5.2531731185968301E-2</v>
+      </c>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" t="s">
-        <v>144</v>
-      </c>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
-      <c r="K25" s="41">
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="K26" s="41">
         <v>0.52798739219405399</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L26" s="41">
         <v>0.88908131752518804</v>
       </c>
-      <c r="M25" s="41">
+      <c r="M26" s="41">
         <v>0.93999240479022494</v>
       </c>
-      <c r="N25" s="42">
+      <c r="N26" s="42">
         <v>2.3933667898394601E-2</v>
       </c>
-      <c r="O25" s="42">
+      <c r="O26" s="42">
         <v>4.2602221911121202E-2</v>
       </c>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-    </row>
-    <row r="26" spans="1:21" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+    </row>
+    <row r="27" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B27" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C27" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F27" s="54">
         <v>0.34893247055384802</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G27" s="54">
         <v>0.67317502542262897</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H27" s="54">
         <v>0.84248623447175797</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I27" s="53">
         <v>0.103582492198157</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J27" s="53">
         <v>0.110216817388472</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K27" s="55">
         <v>0.40407461052249199</v>
       </c>
-      <c r="L26" s="57">
+      <c r="L27" s="55">
         <v>0.78409109272143296</v>
       </c>
-      <c r="M26" s="57">
+      <c r="M27" s="55">
         <v>0.88931404963882599</v>
       </c>
-      <c r="N26" s="58">
+      <c r="N27" s="56">
         <v>4.0847215751155602E-2</v>
       </c>
-      <c r="O26" s="58">
+      <c r="O27" s="56">
         <v>5.2182795027841303E-2</v>
       </c>
-      <c r="Q26" s="56">
+      <c r="Q27" s="54">
         <v>0.60047364223300004</v>
       </c>
-      <c r="R26" s="56">
+      <c r="R27" s="54">
         <v>0.74598242392985104</v>
       </c>
-      <c r="S26" s="56">
+      <c r="S27" s="54">
         <v>0.94286147483809202</v>
       </c>
-      <c r="T26" s="55">
+      <c r="T27" s="53">
         <v>4.9549475900016203E-2</v>
       </c>
-      <c r="U26" s="55">
+      <c r="U27" s="53">
         <v>5.6839456085560298E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="148">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -575,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +636,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -652,7 +658,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -717,6 +723,11 @@
     <xf numFmtId="10" fontId="2" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3648,10 +3659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U27"/>
+  <dimension ref="A2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4222,9 +4233,21 @@
       <c r="O20" s="59">
         <v>4.5968399905775399E-2</v>
       </c>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
+      <c r="Q20" s="58">
+        <v>0.61519720109939702</v>
+      </c>
+      <c r="R20" s="58">
+        <v>0.80117443786838605</v>
+      </c>
+      <c r="S20" s="58">
+        <v>0.95193928700906905</v>
+      </c>
+      <c r="T20" s="57">
+        <v>4.8338237030663297E-2</v>
+      </c>
+      <c r="U20" s="57">
+        <v>5.3086872495026999E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:21" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
@@ -4282,202 +4305,233 @@
         <v>4.5410556638999199E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-    </row>
-    <row r="23" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+    <row r="22" spans="1:21" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="Q22" s="65">
+        <v>0.67126424790124095</v>
+      </c>
+      <c r="R22" s="65">
+        <v>0.90641066109189905</v>
+      </c>
+      <c r="S22" s="65">
+        <v>0.97211803796346896</v>
+      </c>
+      <c r="U22" s="64">
+        <v>4.5328427185508897E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+    </row>
+    <row r="24" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B24" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C24" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F24" s="43">
         <v>0.44214474328229503</v>
       </c>
-      <c r="G23" s="43">
+      <c r="G24" s="43">
         <v>0.84107673950456596</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H24" s="43">
         <v>0.907716085449224</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I24" s="24">
         <v>7.3904807642565407E-2</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J24" s="24">
         <v>9.3746807413714606E-2</v>
       </c>
-      <c r="K23" s="43">
+      <c r="K24" s="43">
         <v>0.52181982596156395</v>
       </c>
-      <c r="L23" s="43">
+      <c r="L24" s="43">
         <v>0.89093869573544204</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M24" s="43">
         <v>0.94258284186542496</v>
       </c>
-      <c r="N23" s="44">
+      <c r="N24" s="44">
         <v>2.8461095022346401E-2</v>
       </c>
-      <c r="O23" s="44">
+      <c r="O24" s="44">
         <v>4.1900366180971801E-2</v>
       </c>
-      <c r="Q23" s="43">
+      <c r="Q24" s="43">
         <v>0.664197295226434</v>
       </c>
-      <c r="R23" s="43">
+      <c r="R24" s="43">
         <v>0.90936678856998998</v>
       </c>
-      <c r="S23" s="43">
+      <c r="S24" s="43">
         <v>0.97201489595589596</v>
       </c>
-      <c r="T23" s="24">
+      <c r="T24" s="24">
         <v>3.5743781660970003E-2</v>
       </c>
-      <c r="U23" s="24">
+      <c r="U24" s="24">
         <v>4.5720232950223497E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>134</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>135</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="K24" s="45">
-        <v>0.39728044509084198</v>
-      </c>
-      <c r="L24" s="45">
-        <v>0.76987304761827202</v>
-      </c>
-      <c r="M24" s="45">
-        <v>0.88266797860906099</v>
-      </c>
-      <c r="N24" s="46">
-        <v>4.0290715267610099E-2</v>
-      </c>
-      <c r="O24" s="46">
-        <v>5.2531731185968301E-2</v>
-      </c>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
+      <c r="K25" s="45">
+        <v>0.39728044509084198</v>
+      </c>
+      <c r="L25" s="45">
+        <v>0.76987304761827202</v>
+      </c>
+      <c r="M25" s="45">
+        <v>0.88266797860906099</v>
+      </c>
+      <c r="N25" s="46">
+        <v>4.0290715267610099E-2</v>
+      </c>
+      <c r="O25" s="46">
+        <v>5.2531731185968301E-2</v>
+      </c>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" t="s">
-        <v>144</v>
-      </c>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
-      <c r="K26" s="41">
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="K27" s="41">
         <v>0.52798739219405399</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L27" s="41">
         <v>0.88908131752518804</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M27" s="41">
         <v>0.93999240479022494</v>
       </c>
-      <c r="N26" s="42">
+      <c r="N27" s="42">
         <v>2.3933667898394601E-2</v>
       </c>
-      <c r="O26" s="42">
+      <c r="O27" s="42">
         <v>4.2602221911121202E-2</v>
       </c>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-    </row>
-    <row r="27" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53" t="s">
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+    </row>
+    <row r="28" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B28" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C28" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F28" s="54">
         <v>0.34893247055384802</v>
       </c>
-      <c r="G27" s="54">
+      <c r="G28" s="54">
         <v>0.67317502542262897</v>
       </c>
-      <c r="H27" s="54">
+      <c r="H28" s="54">
         <v>0.84248623447175797</v>
       </c>
-      <c r="I27" s="53">
+      <c r="I28" s="53">
         <v>0.103582492198157</v>
       </c>
-      <c r="J27" s="53">
+      <c r="J28" s="53">
         <v>0.110216817388472</v>
       </c>
-      <c r="K27" s="55">
+      <c r="K28" s="55">
         <v>0.40407461052249199</v>
       </c>
-      <c r="L27" s="55">
+      <c r="L28" s="55">
         <v>0.78409109272143296</v>
       </c>
-      <c r="M27" s="55">
+      <c r="M28" s="55">
         <v>0.88931404963882599</v>
       </c>
-      <c r="N27" s="56">
+      <c r="N28" s="56">
         <v>4.0847215751155602E-2</v>
       </c>
-      <c r="O27" s="56">
+      <c r="O28" s="56">
         <v>5.2182795027841303E-2</v>
       </c>
-      <c r="Q27" s="54">
+      <c r="Q28" s="54">
         <v>0.60047364223300004</v>
       </c>
-      <c r="R27" s="54">
+      <c r="R28" s="54">
         <v>0.74598242392985104</v>
       </c>
-      <c r="S27" s="54">
+      <c r="S28" s="54">
         <v>0.94286147483809202</v>
       </c>
-      <c r="T27" s="53">
+      <c r="T28" s="53">
         <v>4.9549475900016203E-2</v>
       </c>
-      <c r="U27" s="53">
+      <c r="U28" s="53">
         <v>5.6839456085560298E-2</v>
       </c>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="152">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -471,12 +471,24 @@
   </si>
   <si>
     <t>ELMO</t>
+  </si>
+  <si>
+    <t>larger deepgo data. Expand threshold to remove labels</t>
+  </si>
+  <si>
+    <t>train all</t>
+  </si>
+  <si>
+    <t>test zeroshot</t>
+  </si>
+  <si>
+    <t>baseline on larger deepo data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -658,7 +670,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -728,6 +740,9 @@
     <xf numFmtId="166" fontId="0" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3659,10 +3674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U28"/>
+  <dimension ref="A2:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,11 +4333,36 @@
       <c r="D22" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
+      <c r="F22" s="65">
+        <v>0.44091471192368398</v>
+      </c>
+      <c r="G22" s="65">
+        <v>0.83814857927140196</v>
+      </c>
+      <c r="H22" s="65">
+        <v>0.90753226327459502</v>
+      </c>
+      <c r="I22" s="64">
+        <v>7.5790392975800105E-2</v>
+      </c>
+      <c r="J22" s="64">
+        <v>9.4053198637110896E-2</v>
+      </c>
+      <c r="K22" s="64">
+        <v>0.52260808992403196</v>
+      </c>
+      <c r="L22" s="64">
+        <v>0.89264502822651404</v>
+      </c>
+      <c r="M22" s="64">
+        <v>0.94013801359361704</v>
+      </c>
+      <c r="N22" s="66">
+        <v>2.6073037786857899E-2</v>
+      </c>
+      <c r="O22" s="66">
+        <v>4.2691171571294997E-2</v>
+      </c>
       <c r="Q22" s="65">
         <v>0.67126424790124095</v>
       </c>
@@ -4331,6 +4371,9 @@
       </c>
       <c r="S22" s="65">
         <v>0.97211803796346896</v>
+      </c>
+      <c r="T22" s="64">
+        <v>3.3802776322719601E-2</v>
       </c>
       <c r="U22" s="64">
         <v>4.5328427185508897E-2</v>
@@ -4533,6 +4576,256 @@
       </c>
       <c r="U28" s="53">
         <v>5.6839456085560298E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="70"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+    </row>
+    <row r="30" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="70"/>
+      <c r="Q30" s="67"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="67"/>
+    </row>
+    <row r="31" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="K31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="Q31" s="67"/>
+      <c r="R31" s="67"/>
+      <c r="S31" s="67"/>
+    </row>
+    <row r="32" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="71"/>
+    </row>
+    <row r="33" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" s="28">
+        <v>0.49995137507486298</v>
+      </c>
+      <c r="L33" s="28">
+        <v>0.88200590665096601</v>
+      </c>
+      <c r="M33" s="28">
+        <v>0.95620694227470504</v>
+      </c>
+      <c r="O33" s="28">
+        <v>1.7895665044541001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="28">
+        <v>0.35273594851526402</v>
+      </c>
+      <c r="G34" s="28">
+        <v>0.78617779613900696</v>
+      </c>
+      <c r="H34" s="28">
+        <v>0.89320226496106903</v>
+      </c>
+      <c r="J34" s="28">
+        <v>5.1299052617878399E-2</v>
+      </c>
+      <c r="K34" s="28">
+        <v>0.42935275192161299</v>
+      </c>
+      <c r="L34" s="28">
+        <v>0.82282910372960305</v>
+      </c>
+      <c r="M34" s="28">
+        <v>0.92870785302355496</v>
+      </c>
+      <c r="O34" s="28">
+        <v>2.2637682752899499E-2</v>
+      </c>
+      <c r="Q34" s="28">
+        <v>0.62031515141027105</v>
+      </c>
+      <c r="R34" s="28">
+        <v>0.86300522966999405</v>
+      </c>
+      <c r="S34" s="28">
+        <v>0.97016478340557599</v>
+      </c>
+      <c r="U34" s="28">
+        <v>2.65183782934416E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F37" s="11">
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0.46189999999999998</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>0.63870000000000005</v>
+      </c>
+      <c r="R37" s="11">
+        <v>0.9052</v>
+      </c>
+      <c r="S37" s="11">
+        <v>0.98019999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F38" s="13">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="K38" s="13">
+        <v>0.48020000000000002</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0.8649</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0.95309999999999995</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>0.64639999999999997</v>
+      </c>
+      <c r="R38" s="13">
+        <v>0.90239999999999998</v>
+      </c>
+      <c r="S38" s="13">
+        <v>0.97989999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F39" s="6">
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.9385</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0.85680000000000001</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0.95009999999999994</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>0.64170000000000005</v>
+      </c>
+      <c r="R39" s="6">
+        <v>0.90990000000000004</v>
+      </c>
+      <c r="S39" s="6">
+        <v>0.98119999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F40" s="3">
+        <v>0.40339999999999998</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0.64019999999999999</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0.98050000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="153">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>baseline on larger deepo data</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -3674,10 +3677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U40"/>
+  <dimension ref="A2:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="F24" sqref="F24:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4481,350 +4484,404 @@
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C27" t="s">
-        <v>144</v>
+      <c r="C27" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>145</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
-      <c r="K27" s="41">
-        <v>0.52798739219405399</v>
-      </c>
-      <c r="L27" s="41">
-        <v>0.88908131752518804</v>
-      </c>
-      <c r="M27" s="41">
-        <v>0.93999240479022494</v>
-      </c>
-      <c r="N27" s="42">
-        <v>2.3933667898394601E-2</v>
-      </c>
-      <c r="O27" s="42">
-        <v>4.2602221911121202E-2</v>
-      </c>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
       <c r="Q27" s="41"/>
       <c r="R27" s="41"/>
       <c r="S27" s="41"/>
     </row>
-    <row r="28" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="K30" s="41">
+        <v>0.52798739219405399</v>
+      </c>
+      <c r="L30" s="41">
+        <v>0.88908131752518804</v>
+      </c>
+      <c r="M30" s="41">
+        <v>0.93999240479022494</v>
+      </c>
+      <c r="N30" s="42">
+        <v>2.3933667898394601E-2</v>
+      </c>
+      <c r="O30" s="42">
+        <v>4.2602221911121202E-2</v>
+      </c>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+    </row>
+    <row r="31" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B31" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C31" s="53" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="54">
+      <c r="F31" s="54">
         <v>0.34893247055384802</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G31" s="54">
         <v>0.67317502542262897</v>
       </c>
-      <c r="H28" s="54">
+      <c r="H31" s="54">
         <v>0.84248623447175797</v>
       </c>
-      <c r="I28" s="53">
+      <c r="I31" s="53">
         <v>0.103582492198157</v>
       </c>
-      <c r="J28" s="53">
+      <c r="J31" s="53">
         <v>0.110216817388472</v>
       </c>
-      <c r="K28" s="55">
+      <c r="K31" s="55">
         <v>0.40407461052249199</v>
       </c>
-      <c r="L28" s="55">
+      <c r="L31" s="55">
         <v>0.78409109272143296</v>
       </c>
-      <c r="M28" s="55">
+      <c r="M31" s="55">
         <v>0.88931404963882599</v>
       </c>
-      <c r="N28" s="56">
+      <c r="N31" s="56">
         <v>4.0847215751155602E-2</v>
       </c>
-      <c r="O28" s="56">
+      <c r="O31" s="56">
         <v>5.2182795027841303E-2</v>
       </c>
-      <c r="Q28" s="54">
+      <c r="Q31" s="54">
         <v>0.60047364223300004</v>
       </c>
-      <c r="R28" s="54">
+      <c r="R31" s="54">
         <v>0.74598242392985104</v>
       </c>
-      <c r="S28" s="54">
+      <c r="S31" s="54">
         <v>0.94286147483809202</v>
       </c>
-      <c r="T28" s="53">
+      <c r="T31" s="53">
         <v>4.9549475900016203E-2</v>
       </c>
-      <c r="U28" s="53">
+      <c r="U31" s="53">
         <v>5.6839456085560298E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="67"/>
-    </row>
-    <row r="30" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-    </row>
-    <row r="31" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="K31" s="1" t="s">
+    <row r="32" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+    </row>
+    <row r="33" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="70"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+    </row>
+    <row r="34" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="K34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-    </row>
-    <row r="32" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="36" t="s">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="Q34" s="67"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="67"/>
+    </row>
+    <row r="35" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="L35" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="71"/>
-    </row>
-    <row r="33" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="M35" s="71"/>
+    </row>
+    <row r="36" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B36" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C36" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E36" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K36" s="28">
         <v>0.49995137507486298</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L36" s="28">
         <v>0.88200590665096601</v>
       </c>
-      <c r="M33" s="28">
+      <c r="M36" s="28">
         <v>0.95620694227470504</v>
       </c>
-      <c r="O33" s="28">
+      <c r="O36" s="28">
         <v>1.7895665044541001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28" t="s">
+    <row r="37" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B37" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C37" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E37" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F37" s="28">
         <v>0.35273594851526402</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G37" s="28">
         <v>0.78617779613900696</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H37" s="28">
         <v>0.89320226496106903</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J37" s="28">
         <v>5.1299052617878399E-2</v>
       </c>
-      <c r="K34" s="28">
+      <c r="K37" s="28">
         <v>0.42935275192161299</v>
       </c>
-      <c r="L34" s="28">
+      <c r="L37" s="28">
         <v>0.82282910372960305</v>
       </c>
-      <c r="M34" s="28">
+      <c r="M37" s="28">
         <v>0.92870785302355496</v>
       </c>
-      <c r="O34" s="28">
+      <c r="O37" s="28">
         <v>2.2637682752899499E-2</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q37" s="28">
         <v>0.62031515141027105</v>
       </c>
-      <c r="R34" s="28">
+      <c r="R37" s="28">
         <v>0.86300522966999405</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S37" s="28">
         <v>0.97016478340557599</v>
       </c>
-      <c r="U34" s="28">
+      <c r="U37" s="28">
         <v>2.65183782934416E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F37" s="11">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F40" s="11">
         <v>0.40029999999999999</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G40" s="11">
         <v>0.86060000000000003</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H40" s="11">
         <v>0.93940000000000001</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K40" s="11">
         <v>0.46189999999999998</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L40" s="11">
         <v>0.87009999999999998</v>
       </c>
-      <c r="M37" s="11">
+      <c r="M40" s="11">
         <v>0.95009999999999994</v>
       </c>
-      <c r="Q37" s="11">
+      <c r="Q40" s="11">
         <v>0.63870000000000005</v>
       </c>
-      <c r="R37" s="11">
+      <c r="R40" s="11">
         <v>0.9052</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S40" s="11">
         <v>0.98019999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F38" s="13">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F41" s="13">
         <v>0.41099999999999998</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G41" s="13">
         <v>0.86070000000000002</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H41" s="13">
         <v>0.93859999999999999</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K41" s="13">
         <v>0.48020000000000002</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L41" s="13">
         <v>0.8649</v>
       </c>
-      <c r="M38" s="13">
+      <c r="M41" s="13">
         <v>0.95309999999999995</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q41" s="13">
         <v>0.64639999999999997</v>
       </c>
-      <c r="R38" s="13">
+      <c r="R41" s="13">
         <v>0.90239999999999998</v>
       </c>
-      <c r="S38" s="13">
+      <c r="S41" s="13">
         <v>0.97989999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F39" s="6">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F42" s="6">
         <v>0.40579999999999999</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G42" s="6">
         <v>0.85680000000000001</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H42" s="6">
         <v>0.9385</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K42" s="6">
         <v>0.47460000000000002</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L42" s="6">
         <v>0.85680000000000001</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M42" s="6">
         <v>0.95009999999999994</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="Q42" s="6">
         <v>0.64170000000000005</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R42" s="6">
         <v>0.90990000000000004</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S42" s="6">
         <v>0.98119999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F40" s="3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F43" s="3">
         <v>0.40339999999999998</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G43" s="3">
         <v>0.86080000000000001</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H43" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K43" s="3">
         <v>0.48170000000000002</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L43" s="3">
         <v>0.88090000000000002</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M43" s="3">
         <v>0.95499999999999996</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q43" s="3">
         <v>0.64019999999999999</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R43" s="3">
         <v>0.90200000000000002</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S43" s="3">
         <v>0.98050000000000004</v>
       </c>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="154">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -485,7 +485,10 @@
     <t>baseline on larger deepo data</t>
   </si>
   <si>
-    <t>`</t>
+    <t>on original set</t>
+  </si>
+  <si>
+    <t>on unseen set</t>
   </si>
 </sst>
 </file>
@@ -3677,10 +3680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U43"/>
+  <dimension ref="A2:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4659,9 +4662,6 @@
       <c r="S33" s="67"/>
     </row>
     <row r="34" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="28" t="s">
-        <v>152</v>
-      </c>
       <c r="F34" s="67"/>
       <c r="G34" s="67"/>
       <c r="H34" s="67"/>
@@ -4764,124 +4764,155 @@
         <v>2.65183782934416E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="38" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="K38" s="28">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="L38" s="28">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="M38" s="28">
+        <v>0.93979999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="K39" s="28">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="L39" s="28">
+        <v>0.77190000000000003</v>
+      </c>
+      <c r="M39" s="28">
+        <v>0.75819999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F40" s="11">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F45" s="11">
         <v>0.40029999999999999</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G45" s="11">
         <v>0.86060000000000003</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H45" s="11">
         <v>0.93940000000000001</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K45" s="11">
         <v>0.46189999999999998</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L45" s="11">
         <v>0.87009999999999998</v>
       </c>
-      <c r="M40" s="11">
+      <c r="M45" s="11">
         <v>0.95009999999999994</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q45" s="11">
         <v>0.63870000000000005</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R45" s="11">
         <v>0.9052</v>
       </c>
-      <c r="S40" s="11">
+      <c r="S45" s="11">
         <v>0.98019999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F41" s="13">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F46" s="13">
         <v>0.41099999999999998</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G46" s="13">
         <v>0.86070000000000002</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H46" s="13">
         <v>0.93859999999999999</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K46" s="13">
         <v>0.48020000000000002</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L46" s="13">
         <v>0.8649</v>
       </c>
-      <c r="M41" s="13">
+      <c r="M46" s="13">
         <v>0.95309999999999995</v>
       </c>
-      <c r="Q41" s="13">
+      <c r="Q46" s="13">
         <v>0.64639999999999997</v>
       </c>
-      <c r="R41" s="13">
+      <c r="R46" s="13">
         <v>0.90239999999999998</v>
       </c>
-      <c r="S41" s="13">
+      <c r="S46" s="13">
         <v>0.97989999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F42" s="6">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F47" s="6">
         <v>0.40579999999999999</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G47" s="6">
         <v>0.85680000000000001</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H47" s="6">
         <v>0.9385</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K47" s="6">
         <v>0.47460000000000002</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L47" s="6">
         <v>0.85680000000000001</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M47" s="6">
         <v>0.95009999999999994</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="Q47" s="6">
         <v>0.64170000000000005</v>
       </c>
-      <c r="R42" s="6">
+      <c r="R47" s="6">
         <v>0.90990000000000004</v>
       </c>
-      <c r="S42" s="6">
+      <c r="S47" s="6">
         <v>0.98119999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F43" s="3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F48" s="3">
         <v>0.40339999999999998</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G48" s="3">
         <v>0.86080000000000001</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H48" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K48" s="3">
         <v>0.48170000000000002</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L48" s="3">
         <v>0.88090000000000002</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M48" s="3">
         <v>0.95499999999999996</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q48" s="3">
         <v>0.64019999999999999</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R48" s="3">
         <v>0.90200000000000002</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S48" s="3">
         <v>0.98050000000000004</v>
       </c>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="155">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -489,12 +489,15 @@
   </si>
   <si>
     <t>on unseen set</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -3680,10 +3683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U48"/>
+  <dimension ref="A2:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,13 +4357,13 @@
       <c r="J22" s="64">
         <v>9.4053198637110896E-2</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="65">
         <v>0.52260808992403196</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="65">
         <v>0.89264502822651404</v>
       </c>
-      <c r="M22" s="64">
+      <c r="M22" s="65">
         <v>0.94013801359361704</v>
       </c>
       <c r="N22" s="66">
@@ -4512,14 +4515,34 @@
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
+      <c r="K27" s="45">
+        <v>0.52968633534665299</v>
+      </c>
+      <c r="L27" s="45">
+        <v>0.89347800537984001</v>
+      </c>
+      <c r="M27" s="45">
+        <v>0.94412572370219705</v>
+      </c>
       <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
+      <c r="O27" s="46">
+        <v>4.0932993178841401E-2</v>
+      </c>
+      <c r="Q27" s="54">
+        <v>0.66955720048903999</v>
+      </c>
+      <c r="R27" s="54">
+        <v>0.90839602888096904</v>
+      </c>
+      <c r="S27" s="54">
+        <v>0.97264120198039195</v>
+      </c>
+      <c r="T27" s="53">
+        <v>3.8215010204304303E-2</v>
+      </c>
+      <c r="U27" s="53">
+        <v>4.4742794649288403E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F28" s="41"/>
@@ -4688,31 +4711,12 @@
       </c>
       <c r="M35" s="71"/>
     </row>
-    <row r="36" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="K36" s="28">
-        <v>0.49995137507486298</v>
-      </c>
-      <c r="L36" s="28">
-        <v>0.88200590665096601</v>
-      </c>
-      <c r="M36" s="28">
-        <v>0.95620694227470504</v>
-      </c>
-      <c r="O36" s="28">
-        <v>1.7895665044541001E-2</v>
-      </c>
+    <row r="36" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K36" s="8"/>
+      <c r="L36" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" s="71"/>
     </row>
     <row r="37" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
@@ -4725,194 +4729,274 @@
         <v>139</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" s="28">
-        <v>0.35273594851526402</v>
-      </c>
-      <c r="G37" s="28">
-        <v>0.78617779613900696</v>
-      </c>
-      <c r="H37" s="28">
-        <v>0.89320226496106903</v>
-      </c>
-      <c r="J37" s="28">
-        <v>5.1299052617878399E-2</v>
-      </c>
-      <c r="K37" s="28">
-        <v>0.42935275192161299</v>
-      </c>
-      <c r="L37" s="28">
-        <v>0.82282910372960305</v>
-      </c>
-      <c r="M37" s="28">
-        <v>0.92870785302355496</v>
+        <v>149</v>
+      </c>
+      <c r="K37" s="67">
+        <v>0.49995137507486298</v>
+      </c>
+      <c r="L37" s="67">
+        <v>0.88200590665096601</v>
+      </c>
+      <c r="M37" s="67">
+        <v>0.95620694227470504</v>
       </c>
       <c r="O37" s="28">
-        <v>2.2637682752899499E-2</v>
-      </c>
-      <c r="Q37" s="28">
-        <v>0.62031515141027105</v>
-      </c>
-      <c r="R37" s="28">
-        <v>0.86300522966999405</v>
-      </c>
-      <c r="S37" s="28">
-        <v>0.97016478340557599</v>
-      </c>
-      <c r="U37" s="28">
-        <v>2.65183782934416E-2</v>
+        <v>1.7895665044541001E-2</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K38" s="67">
+        <v>0.52139999999999997</v>
+      </c>
+      <c r="L38" s="67">
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="M38" s="67">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="K39" s="67">
+        <v>0.1226</v>
+      </c>
+      <c r="L39" s="67">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="M39" s="67">
+        <v>0.86160000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+    </row>
+    <row r="41" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+    </row>
+    <row r="42" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="67">
+        <v>0.35273594851526402</v>
+      </c>
+      <c r="G42" s="67">
+        <v>0.78617779613900696</v>
+      </c>
+      <c r="H42" s="67">
+        <v>0.89320226496106903</v>
+      </c>
+      <c r="J42" s="28">
+        <v>5.1299052617878399E-2</v>
+      </c>
+      <c r="K42" s="67">
+        <v>0.42935275192161299</v>
+      </c>
+      <c r="L42" s="67">
+        <v>0.82282910372960305</v>
+      </c>
+      <c r="M42" s="67">
+        <v>0.92870785302355496</v>
+      </c>
+      <c r="O42" s="28">
+        <v>2.2637682752899499E-2</v>
+      </c>
+      <c r="Q42" s="67">
+        <v>0.62031515141027105</v>
+      </c>
+      <c r="R42" s="67">
+        <v>0.86300522966999405</v>
+      </c>
+      <c r="S42" s="67">
+        <v>0.97016478340557599</v>
+      </c>
+      <c r="U42" s="28">
+        <v>2.65183782934416E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="K43" s="67">
         <v>0.51329999999999998</v>
       </c>
-      <c r="L38" s="28">
+      <c r="L43" s="67">
         <v>0.89039999999999997</v>
       </c>
-      <c r="M38" s="28">
+      <c r="M43" s="67">
         <v>0.93979999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="28" t="s">
+    <row r="44" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="K39" s="28">
+      <c r="K44" s="67">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="L39" s="28">
+      <c r="L44" s="67">
         <v>0.77190000000000003</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M44" s="67">
         <v>0.75819999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F45" s="11">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F50" s="11">
         <v>0.40029999999999999</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G50" s="11">
         <v>0.86060000000000003</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H50" s="11">
         <v>0.93940000000000001</v>
       </c>
-      <c r="K45" s="11">
+      <c r="K50" s="11">
         <v>0.46189999999999998</v>
       </c>
-      <c r="L45" s="11">
+      <c r="L50" s="11">
         <v>0.87009999999999998</v>
       </c>
-      <c r="M45" s="11">
+      <c r="M50" s="11">
         <v>0.95009999999999994</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q50" s="11">
         <v>0.63870000000000005</v>
       </c>
-      <c r="R45" s="11">
+      <c r="R50" s="11">
         <v>0.9052</v>
       </c>
-      <c r="S45" s="11">
+      <c r="S50" s="11">
         <v>0.98019999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F46" s="13">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F51" s="13">
         <v>0.41099999999999998</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G51" s="13">
         <v>0.86070000000000002</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H51" s="13">
         <v>0.93859999999999999</v>
       </c>
-      <c r="K46" s="13">
+      <c r="K51" s="13">
         <v>0.48020000000000002</v>
       </c>
-      <c r="L46" s="13">
+      <c r="L51" s="13">
         <v>0.8649</v>
       </c>
-      <c r="M46" s="13">
+      <c r="M51" s="13">
         <v>0.95309999999999995</v>
       </c>
-      <c r="Q46" s="13">
+      <c r="Q51" s="13">
         <v>0.64639999999999997</v>
       </c>
-      <c r="R46" s="13">
+      <c r="R51" s="13">
         <v>0.90239999999999998</v>
       </c>
-      <c r="S46" s="13">
+      <c r="S51" s="13">
         <v>0.97989999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F47" s="6">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F52" s="6">
         <v>0.40579999999999999</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G52" s="6">
         <v>0.85680000000000001</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H52" s="6">
         <v>0.9385</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K52" s="6">
         <v>0.47460000000000002</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L52" s="6">
         <v>0.85680000000000001</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M52" s="6">
         <v>0.95009999999999994</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="Q52" s="6">
         <v>0.64170000000000005</v>
       </c>
-      <c r="R47" s="6">
+      <c r="R52" s="6">
         <v>0.90990000000000004</v>
       </c>
-      <c r="S47" s="6">
+      <c r="S52" s="6">
         <v>0.98119999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F48" s="3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F53" s="3">
         <v>0.40339999999999998</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G53" s="3">
         <v>0.86080000000000001</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H53" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K53" s="3">
         <v>0.48170000000000002</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L53" s="3">
         <v>0.88090000000000002</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M53" s="3">
         <v>0.95499999999999996</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q53" s="3">
         <v>0.64019999999999999</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R53" s="3">
         <v>0.90200000000000002</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S53" s="3">
         <v>0.98050000000000004</v>
       </c>
     </row>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dat\Documents\GitHub\BertGOAnnotation\SeeAttention\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\BertGOAnnotation\SeeAttention\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
@@ -3685,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4524,7 +4524,9 @@
       <c r="M27" s="45">
         <v>0.94412572370219705</v>
       </c>
-      <c r="N27" s="46"/>
+      <c r="N27" s="46">
+        <v>2.6426170145066302E-2</v>
+      </c>
       <c r="O27" s="46">
         <v>4.0932993178841401E-2</v>
       </c>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -3685,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4512,9 +4512,21 @@
       <c r="D27" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="F27" s="41">
+        <v>0.43888194020273202</v>
+      </c>
+      <c r="G27" s="41">
+        <v>0.84111525289310896</v>
+      </c>
+      <c r="H27" s="41">
+        <v>0.90862157113220199</v>
+      </c>
+      <c r="I27">
+        <v>7.7143596378063298E-2</v>
+      </c>
+      <c r="J27">
+        <v>9.3316891490675402E-2</v>
+      </c>
       <c r="K27" s="45">
         <v>0.52968633534665299</v>
       </c>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="158">
   <si>
     <t xml:space="preserve">Method </t>
   </si>
@@ -492,6 +492,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP </t>
+  </si>
+  <si>
+    <t>blast+psiblast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eval </t>
   </si>
 </sst>
 </file>
@@ -504,7 +513,7 @@
     <numFmt numFmtId="165" formatCode="0.000000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +604,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -664,12 +681,92 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -679,7 +776,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -751,7 +848,25 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3683,10 +3798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U53"/>
+  <dimension ref="A2:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4698,8 +4813,10 @@
       <c r="R33" s="67"/>
       <c r="S33" s="67"/>
     </row>
-    <row r="34" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="67"/>
+    <row r="34" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="67" t="s">
+        <v>155</v>
+      </c>
       <c r="G34" s="67"/>
       <c r="H34" s="67"/>
       <c r="K34" s="1" t="s">
@@ -4709,309 +4826,741 @@
       <c r="M34" s="1"/>
       <c r="N34" s="70"/>
       <c r="O34" s="70"/>
-      <c r="Q34" s="67"/>
+      <c r="Q34" s="67" t="s">
+        <v>3</v>
+      </c>
       <c r="R34" s="67"/>
       <c r="S34" s="67"/>
     </row>
     <row r="35" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="L35" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="M35" s="71"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="75"/>
     </row>
     <row r="36" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K36" s="8"/>
-      <c r="L36" s="8" t="s">
+      <c r="A36" s="76"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="M36" s="71"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="77"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="77"/>
+      <c r="Q36" s="77"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="77"/>
+      <c r="U36" s="80"/>
     </row>
     <row r="37" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="D37" s="82"/>
+      <c r="E37" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="K37" s="67">
+      <c r="F37" s="83">
+        <v>0.4128</v>
+      </c>
+      <c r="G37" s="83">
+        <v>0.86470000000000002</v>
+      </c>
+      <c r="H37" s="83">
+        <v>0.93920000000000003</v>
+      </c>
+      <c r="I37" s="82"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="83">
         <v>0.49995137507486298</v>
       </c>
-      <c r="L37" s="67">
+      <c r="L37" s="83">
         <v>0.88200590665096601</v>
       </c>
-      <c r="M37" s="67">
+      <c r="M37" s="83">
         <v>0.95620694227470504</v>
       </c>
-      <c r="O37" s="28">
+      <c r="N37" s="82"/>
+      <c r="O37" s="82">
         <v>1.7895665044541001E-2</v>
       </c>
+      <c r="P37" s="82"/>
+      <c r="Q37" s="83">
+        <v>0.6573</v>
+      </c>
+      <c r="R37" s="83">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="S37" s="83">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="T37" s="82"/>
+      <c r="U37" s="84"/>
     </row>
     <row r="38" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="28" t="s">
+      <c r="A38" s="81"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="K38" s="67">
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="83">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="G38" s="83">
+        <v>0.84009999999999996</v>
+      </c>
+      <c r="H38" s="83">
+        <v>0.90810000000000002</v>
+      </c>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="83">
         <v>0.52139999999999997</v>
       </c>
-      <c r="L38" s="67">
+      <c r="L38" s="83">
         <v>0.89549999999999996</v>
       </c>
-      <c r="M38" s="67">
+      <c r="M38" s="83">
         <v>0.94299999999999995</v>
       </c>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="83">
+        <v>0.66180000000000005</v>
+      </c>
+      <c r="R38" s="83">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="S38" s="83">
+        <v>0.97170000000000001</v>
+      </c>
+      <c r="T38" s="82"/>
+      <c r="U38" s="84"/>
     </row>
     <row r="39" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="36" t="s">
+      <c r="A39" s="81"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="K39" s="67">
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="89">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="G39" s="89">
+        <v>0.876</v>
+      </c>
+      <c r="H39" s="83">
+        <v>0.88260000000000005</v>
+      </c>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="83">
         <v>0.1226</v>
       </c>
-      <c r="L39" s="67">
+      <c r="L39" s="83">
         <v>0.87180000000000002</v>
       </c>
-      <c r="M39" s="67">
+      <c r="M39" s="83">
         <v>0.86160000000000003</v>
       </c>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="83">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="R39" s="83">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="S39" s="83">
+        <v>0.88880000000000003</v>
+      </c>
+      <c r="T39" s="82"/>
+      <c r="U39" s="84"/>
     </row>
     <row r="40" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" s="67"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="83"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="83"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="84"/>
     </row>
     <row r="41" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="84"/>
     </row>
     <row r="42" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="82" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="28" t="s">
+      <c r="D42" s="82"/>
+      <c r="E42" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="67">
+      <c r="F42" s="83">
         <v>0.35273594851526402</v>
       </c>
-      <c r="G42" s="67">
+      <c r="G42" s="83">
         <v>0.78617779613900696</v>
       </c>
-      <c r="H42" s="67">
+      <c r="H42" s="83">
         <v>0.89320226496106903</v>
       </c>
-      <c r="J42" s="28">
+      <c r="I42" s="82"/>
+      <c r="J42" s="82">
         <v>5.1299052617878399E-2</v>
       </c>
-      <c r="K42" s="67">
+      <c r="K42" s="83">
         <v>0.42935275192161299</v>
       </c>
-      <c r="L42" s="67">
+      <c r="L42" s="83">
         <v>0.82282910372960305</v>
       </c>
-      <c r="M42" s="67">
+      <c r="M42" s="83">
         <v>0.92870785302355496</v>
       </c>
-      <c r="O42" s="28">
+      <c r="N42" s="82"/>
+      <c r="O42" s="82">
         <v>2.2637682752899499E-2</v>
       </c>
-      <c r="Q42" s="67">
+      <c r="P42" s="82"/>
+      <c r="Q42" s="83">
         <v>0.62031515141027105</v>
       </c>
-      <c r="R42" s="67">
+      <c r="R42" s="83">
         <v>0.86300522966999405</v>
       </c>
-      <c r="S42" s="67">
+      <c r="S42" s="83">
         <v>0.97016478340557599</v>
       </c>
-      <c r="U42" s="28">
+      <c r="T42" s="82"/>
+      <c r="U42" s="84">
         <v>2.65183782934416E-2</v>
       </c>
     </row>
     <row r="43" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="28" t="s">
+      <c r="A43" s="81"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="82" t="s">
         <v>152</v>
       </c>
-      <c r="K43" s="67">
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="83">
+        <v>0.44090000000000001</v>
+      </c>
+      <c r="G43" s="83">
+        <v>0.84160000000000001</v>
+      </c>
+      <c r="H43" s="83">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="83">
         <v>0.51329999999999998</v>
       </c>
-      <c r="L43" s="67">
+      <c r="L43" s="83">
         <v>0.89039999999999997</v>
       </c>
-      <c r="M43" s="67">
+      <c r="M43" s="83">
         <v>0.93979999999999997</v>
       </c>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="83">
+        <v>0.66320000000000001</v>
+      </c>
+      <c r="R43" s="83">
+        <v>0.91120000000000001</v>
+      </c>
+      <c r="S43" s="83">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="T43" s="82"/>
+      <c r="U43" s="84"/>
     </row>
     <row r="44" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="36" t="s">
+      <c r="A44" s="81"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="K44" s="67">
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="89">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="G44" s="89">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="H44" s="83">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="83">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="L44" s="67">
+      <c r="L44" s="83">
         <v>0.77190000000000003</v>
       </c>
-      <c r="M44" s="67">
+      <c r="M44" s="83">
         <v>0.75819999999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53" t="s">
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="83">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="R44" s="83">
+        <v>0.81189999999999996</v>
+      </c>
+      <c r="S44" s="83">
+        <v>0.80030000000000001</v>
+      </c>
+      <c r="T44" s="82"/>
+      <c r="U44" s="84"/>
+    </row>
+    <row r="45" spans="1:21" s="28" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="85"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="86"/>
+      <c r="P45" s="86"/>
+      <c r="Q45" s="86"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="86"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="87"/>
+    </row>
+    <row r="46" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="82"/>
+      <c r="E46" s="82"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="82"/>
+      <c r="O46" s="82"/>
+      <c r="P46" s="82"/>
+      <c r="Q46" s="82"/>
+      <c r="R46" s="82"/>
+      <c r="S46" s="82"/>
+      <c r="T46" s="82"/>
+      <c r="U46" s="82"/>
+    </row>
+    <row r="47" spans="1:21" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B47" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C47" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D47" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E47" s="53" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="48" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F50" s="11">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F51" s="11">
         <v>0.40029999999999999</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G51" s="11">
         <v>0.86060000000000003</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H51" s="11">
         <v>0.93940000000000001</v>
       </c>
-      <c r="K50" s="11">
+      <c r="K51" s="11">
         <v>0.46189999999999998</v>
       </c>
-      <c r="L50" s="11">
+      <c r="L51" s="11">
         <v>0.87009999999999998</v>
       </c>
-      <c r="M50" s="11">
+      <c r="M51" s="11">
         <v>0.95009999999999994</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q51" s="11">
         <v>0.63870000000000005</v>
       </c>
-      <c r="R50" s="11">
+      <c r="R51" s="11">
         <v>0.9052</v>
       </c>
-      <c r="S50" s="11">
+      <c r="S51" s="11">
         <v>0.98019999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F51" s="13">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F52" s="13">
         <v>0.41099999999999998</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G52" s="13">
         <v>0.86070000000000002</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H52" s="13">
         <v>0.93859999999999999</v>
       </c>
-      <c r="K51" s="13">
+      <c r="K52" s="13">
         <v>0.48020000000000002</v>
       </c>
-      <c r="L51" s="13">
+      <c r="L52" s="13">
         <v>0.8649</v>
       </c>
-      <c r="M51" s="13">
+      <c r="M52" s="13">
         <v>0.95309999999999995</v>
       </c>
-      <c r="Q51" s="13">
+      <c r="Q52" s="13">
         <v>0.64639999999999997</v>
       </c>
-      <c r="R51" s="13">
+      <c r="R52" s="13">
         <v>0.90239999999999998</v>
       </c>
-      <c r="S51" s="13">
+      <c r="S52" s="13">
         <v>0.97989999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F52" s="6">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F53" s="6">
         <v>0.40579999999999999</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G53" s="6">
         <v>0.85680000000000001</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H53" s="6">
         <v>0.9385</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K53" s="6">
         <v>0.47460000000000002</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L53" s="6">
         <v>0.85680000000000001</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M53" s="6">
         <v>0.95009999999999994</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q53" s="6">
         <v>0.64170000000000005</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R53" s="6">
         <v>0.90990000000000004</v>
       </c>
-      <c r="S52" s="6">
+      <c r="S53" s="6">
         <v>0.98119999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F53" s="3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F54" s="3">
         <v>0.40339999999999998</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G54" s="3">
         <v>0.86080000000000001</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H54" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K54" s="3">
         <v>0.48170000000000002</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L54" s="3">
         <v>0.88090000000000002</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M54" s="3">
         <v>0.95499999999999996</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="Q54" s="3">
         <v>0.64019999999999999</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R54" s="3">
         <v>0.90200000000000002</v>
       </c>
-      <c r="S53" s="3">
+      <c r="S54" s="3">
         <v>0.98050000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="G60">
+        <v>0.64590000000000003</v>
+      </c>
+      <c r="H60">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="K60">
+        <v>0.50319999999999998</v>
+      </c>
+      <c r="L60">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="M60">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="Q60">
+        <v>0.5595</v>
+      </c>
+      <c r="R60">
+        <v>0.62129999999999996</v>
+      </c>
+      <c r="S60">
+        <v>0.90490000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="G61">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="H61">
+        <v>0.7651</v>
+      </c>
+      <c r="K61">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="L61">
+        <v>0.7137</v>
+      </c>
+      <c r="M61">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="Q61">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="R61">
+        <v>0.61119999999999997</v>
+      </c>
+      <c r="S61">
+        <v>0.8095</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0.1</v>
+      </c>
+      <c r="F62">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G62">
+        <v>0.62790000000000001</v>
+      </c>
+      <c r="H62">
+        <v>0.72940000000000005</v>
+      </c>
+      <c r="K62">
+        <v>0.50839999999999996</v>
+      </c>
+      <c r="L62">
+        <v>0.70609999999999995</v>
+      </c>
+      <c r="M62">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="Q62">
+        <v>0.45429999999999998</v>
+      </c>
+      <c r="R62">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="S62">
+        <v>0.75109999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>0.01</v>
+      </c>
+      <c r="F63">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="G63">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="H63">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="K63">
+        <v>0.4985</v>
+      </c>
+      <c r="L63">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="M63">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="Q63">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="R63">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="S63">
+        <v>0.72889999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1E-3</v>
+      </c>
+      <c r="F64">
+        <v>0.3241</v>
+      </c>
+      <c r="G64">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="H64">
+        <v>0.70530000000000004</v>
+      </c>
+      <c r="K64">
+        <v>0.4894</v>
+      </c>
+      <c r="L64">
+        <v>0.69420000000000004</v>
+      </c>
+      <c r="M64">
+        <v>0.76359999999999995</v>
+      </c>
+      <c r="Q64">
+        <v>0.42330000000000001</v>
+      </c>
+      <c r="R64">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="S64">
+        <v>0.71540000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/SeeAttention/PrelimResult.xlsx
+++ b/SeeAttention/PrelimResult.xlsx
@@ -14,8 +14,9 @@
   <sheets>
     <sheet name="Prelim" sheetId="1" r:id="rId1"/>
     <sheet name="10Nov2019" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="RP@k" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -776,7 +777,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
@@ -867,6 +868,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -3798,10 +3800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U64"/>
+  <dimension ref="A2:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61:S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5083,26 +5085,26 @@
       <c r="E42" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="83">
+      <c r="F42" s="90">
         <v>0.35273594851526402</v>
       </c>
-      <c r="G42" s="83">
+      <c r="G42" s="90">
         <v>0.78617779613900696</v>
       </c>
-      <c r="H42" s="83">
+      <c r="H42" s="90">
         <v>0.89320226496106903</v>
       </c>
       <c r="I42" s="82"/>
       <c r="J42" s="82">
         <v>5.1299052617878399E-2</v>
       </c>
-      <c r="K42" s="83">
+      <c r="K42" s="90">
         <v>0.42935275192161299</v>
       </c>
-      <c r="L42" s="83">
+      <c r="L42" s="90">
         <v>0.82282910372960305</v>
       </c>
-      <c r="M42" s="83">
+      <c r="M42" s="90">
         <v>0.92870785302355496</v>
       </c>
       <c r="N42" s="82"/>
@@ -5110,13 +5112,13 @@
         <v>2.2637682752899499E-2</v>
       </c>
       <c r="P42" s="82"/>
-      <c r="Q42" s="83">
+      <c r="Q42" s="90">
         <v>0.62031515141027105</v>
       </c>
-      <c r="R42" s="83">
+      <c r="R42" s="90">
         <v>0.86300522966999405</v>
       </c>
-      <c r="S42" s="83">
+      <c r="S42" s="90">
         <v>0.97016478340557599</v>
       </c>
       <c r="T42" s="82"/>
@@ -5401,165 +5403,197 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B60">
+        <v>100</v>
+      </c>
+      <c r="F60">
+        <v>0.3488</v>
+      </c>
+      <c r="G60">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="H60">
+        <v>0.876</v>
+      </c>
+      <c r="K60">
+        <v>0.4491</v>
+      </c>
+      <c r="L60">
+        <v>0.73950000000000005</v>
+      </c>
+      <c r="M60">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="Q60" s="36">
+        <v>0.57179999999999997</v>
+      </c>
+      <c r="R60" s="36">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="S60" s="36">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>157</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>10</v>
       </c>
-      <c r="F60">
+      <c r="F61" s="36">
         <v>0.35849999999999999</v>
       </c>
-      <c r="G60">
+      <c r="G61" s="36">
         <v>0.64590000000000003</v>
       </c>
-      <c r="H60">
+      <c r="H61" s="36">
         <v>0.83399999999999996</v>
       </c>
-      <c r="K60">
+      <c r="K61" s="36">
         <v>0.50319999999999998</v>
       </c>
-      <c r="L60">
+      <c r="L61" s="36">
         <v>0.72409999999999997</v>
       </c>
-      <c r="M60">
+      <c r="M61" s="36">
         <v>0.87460000000000004</v>
       </c>
-      <c r="Q60">
+      <c r="Q61">
         <v>0.5595</v>
       </c>
-      <c r="R60">
+      <c r="R61">
         <v>0.62129999999999996</v>
       </c>
-      <c r="S60">
+      <c r="S61">
         <v>0.90490000000000004</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0.34639999999999999</v>
-      </c>
-      <c r="G61">
-        <v>0.63629999999999998</v>
-      </c>
-      <c r="H61">
-        <v>0.7651</v>
-      </c>
-      <c r="K61">
-        <v>0.51359999999999995</v>
-      </c>
-      <c r="L61">
-        <v>0.7137</v>
-      </c>
-      <c r="M61">
-        <v>0.81930000000000003</v>
-      </c>
-      <c r="Q61">
-        <v>0.49830000000000002</v>
-      </c>
-      <c r="R61">
-        <v>0.61119999999999997</v>
-      </c>
-      <c r="S61">
-        <v>0.8095</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B62">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0.33700000000000002</v>
+        <v>0.34639999999999999</v>
       </c>
       <c r="G62">
-        <v>0.62790000000000001</v>
+        <v>0.63629999999999998</v>
       </c>
       <c r="H62">
-        <v>0.72940000000000005</v>
+        <v>0.7651</v>
       </c>
       <c r="K62">
-        <v>0.50839999999999996</v>
+        <v>0.51359999999999995</v>
       </c>
       <c r="L62">
-        <v>0.70609999999999995</v>
+        <v>0.7137</v>
       </c>
       <c r="M62">
-        <v>0.78800000000000003</v>
+        <v>0.81930000000000003</v>
       </c>
       <c r="Q62">
-        <v>0.45429999999999998</v>
+        <v>0.49830000000000002</v>
       </c>
       <c r="R62">
-        <v>0.60329999999999995</v>
+        <v>0.61119999999999997</v>
       </c>
       <c r="S62">
-        <v>0.75109999999999999</v>
+        <v>0.8095</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B63">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="F63">
-        <v>0.32969999999999999</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="G63">
-        <v>0.62219999999999998</v>
+        <v>0.62790000000000001</v>
       </c>
       <c r="H63">
-        <v>0.71530000000000005</v>
+        <v>0.72940000000000005</v>
       </c>
       <c r="K63">
-        <v>0.4985</v>
+        <v>0.50839999999999996</v>
       </c>
       <c r="L63">
-        <v>0.70189999999999997</v>
+        <v>0.70609999999999995</v>
       </c>
       <c r="M63">
-        <v>0.77439999999999998</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="Q63">
-        <v>0.43469999999999998</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="R63">
-        <v>0.59619999999999995</v>
+        <v>0.60329999999999995</v>
       </c>
       <c r="S63">
-        <v>0.72889999999999999</v>
+        <v>0.75109999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B64">
+        <v>0.01</v>
+      </c>
+      <c r="F64">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="G64">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="H64">
+        <v>0.71530000000000005</v>
+      </c>
+      <c r="K64">
+        <v>0.4985</v>
+      </c>
+      <c r="L64">
+        <v>0.70189999999999997</v>
+      </c>
+      <c r="M64">
+        <v>0.77439999999999998</v>
+      </c>
+      <c r="Q64">
+        <v>0.43469999999999998</v>
+      </c>
+      <c r="R64">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="S64">
+        <v>0.72889999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B65">
         <v>1E-3</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>0.3241</v>
       </c>
-      <c r="G64">
+      <c r="G65">
         <v>0.61809999999999998</v>
       </c>
-      <c r="H64">
+      <c r="H65">
         <v>0.70530000000000004</v>
       </c>
-      <c r="K64">
+      <c r="K65">
         <v>0.4894</v>
       </c>
-      <c r="L64">
+      <c r="L65">
         <v>0.69420000000000004</v>
       </c>
-      <c r="M64">
+      <c r="M65">
         <v>0.76359999999999995</v>
       </c>
-      <c r="Q64">
+      <c r="Q65">
         <v>0.42330000000000001</v>
       </c>
-      <c r="R64">
+      <c r="R65">
         <v>0.58899999999999997</v>
       </c>
-      <c r="S64">
+      <c r="S65">
         <v>0.71540000000000004</v>
       </c>
     </row>
@@ -5570,6 +5604,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O38"/>
   <sheetViews>
@@ -6970,7 +7016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S111"/>
   <sheetViews>
